--- a/AAII_Financials/Quarterly/SONX_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/SONX_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="341" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="354" uniqueCount="92">
   <si>
     <t>SONX</t>
   </si>
@@ -305,7 +305,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="1">
-    <numFmt numFmtId="165" formatCode="[$-409]d\-mmm\-yy;@"/>
+    <numFmt numFmtId="164" formatCode="[$-409]d\-mmm\-yy;@"/>
   </numFmts>
   <fonts count="3" x14ac:knownFonts="1">
     <font>
@@ -347,7 +347,7 @@
   <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="165" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="3" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:K102"/>
+  <dimension ref="A5:N102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,140 +665,178 @@
     <col min="1" max="1" width="7.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="11" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="14" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:14" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44651</v>
+      </c>
+      <c r="E7" s="2">
+        <v>44561</v>
+      </c>
+      <c r="F7" s="2">
+        <v>44469</v>
+      </c>
+      <c r="G7" s="2">
         <v>44377</v>
       </c>
-      <c r="E7" s="2">
+      <c r="H7" s="2">
         <v>44196</v>
       </c>
-      <c r="F7" s="2">
+      <c r="I7" s="2">
         <v>44012</v>
       </c>
-      <c r="G7" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="H7" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="I7" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="J7" s="2" t="s">
         <v>3</v>
       </c>
       <c r="K7" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L7" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="M7" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="N7" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D8" s="3">
+        <v>9000</v>
+      </c>
+      <c r="E8" s="3">
+        <v>9900</v>
+      </c>
+      <c r="F8" s="3">
+        <v>7900</v>
+      </c>
+      <c r="G8" s="3">
         <v>15400</v>
       </c>
-      <c r="E8" s="3">
+      <c r="H8" s="3">
         <v>23400</v>
       </c>
-      <c r="F8" s="3">
+      <c r="I8" s="3">
         <v>8500</v>
       </c>
-      <c r="G8" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="H8" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="I8" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J8" s="3" t="s">
         <v>3</v>
       </c>
       <c r="K8" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L8" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M8" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N8" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="9" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D9" s="3">
+        <v>6800</v>
+      </c>
+      <c r="E9" s="3">
+        <v>7400</v>
+      </c>
+      <c r="F9" s="3">
+        <v>5800</v>
+      </c>
+      <c r="G9" s="3">
         <v>11600</v>
       </c>
-      <c r="E9" s="3">
+      <c r="H9" s="3">
         <v>19500</v>
       </c>
-      <c r="F9" s="3">
+      <c r="I9" s="3">
         <v>7600</v>
       </c>
-      <c r="G9" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="H9" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="I9" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J9" s="3" t="s">
         <v>3</v>
       </c>
       <c r="K9" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L9" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M9" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N9" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
       <c r="D10" s="3">
+        <v>2200</v>
+      </c>
+      <c r="E10" s="3">
+        <v>2500</v>
+      </c>
+      <c r="F10" s="3">
+        <v>2100</v>
+      </c>
+      <c r="G10" s="3">
         <v>3800</v>
       </c>
-      <c r="E10" s="3">
+      <c r="H10" s="3">
         <v>3900</v>
       </c>
-      <c r="F10" s="3">
+      <c r="I10" s="3">
         <v>900</v>
       </c>
-      <c r="G10" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="H10" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="I10" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J10" s="3" t="s">
         <v>3</v>
       </c>
       <c r="K10" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L10" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M10" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N10" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -810,37 +848,49 @@
       <c r="I11" s="3"/>
       <c r="J11" s="3"/>
       <c r="K11" s="3"/>
-    </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L11" s="3"/>
+      <c r="M11" s="3"/>
+      <c r="N11" s="3"/>
+    </row>
+    <row r="12" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
       <c r="D12" s="3">
+        <v>4900</v>
+      </c>
+      <c r="E12" s="3">
+        <v>4300</v>
+      </c>
+      <c r="F12" s="3">
+        <v>4600</v>
+      </c>
+      <c r="G12" s="3">
         <v>9700</v>
       </c>
-      <c r="E12" s="3">
+      <c r="H12" s="3">
         <v>20500</v>
       </c>
-      <c r="F12" s="3">
+      <c r="I12" s="3">
         <v>9600</v>
       </c>
-      <c r="G12" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="H12" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="I12" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J12" s="3" t="s">
         <v>3</v>
       </c>
       <c r="K12" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L12" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M12" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N12" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -868,8 +918,17 @@
       <c r="K13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L13" s="3">
+        <v>0</v>
+      </c>
+      <c r="M13" s="3">
+        <v>0</v>
+      </c>
+      <c r="N13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -897,37 +956,55 @@
       <c r="K14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L14" s="3">
+        <v>0</v>
+      </c>
+      <c r="M14" s="3">
+        <v>0</v>
+      </c>
+      <c r="N14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D15" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E15" s="3">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="F15" s="3">
-        <v>0</v>
-      </c>
-      <c r="G15" s="3">
-        <v>0</v>
-      </c>
-      <c r="H15" s="3">
-        <v>0</v>
-      </c>
-      <c r="I15" s="3">
-        <v>0</v>
-      </c>
-      <c r="J15" s="3">
-        <v>0</v>
+        <v>100</v>
+      </c>
+      <c r="G15" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="H15" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="I15" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="J15" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="K15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L15" s="3">
+        <v>0</v>
+      </c>
+      <c r="M15" s="3">
+        <v>0</v>
+      </c>
+      <c r="N15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:14" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -936,66 +1013,87 @@
       <c r="I16" s="3"/>
       <c r="J16" s="3"/>
       <c r="K16" s="3"/>
-    </row>
-    <row r="17" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L16" s="3"/>
+      <c r="M16" s="3"/>
+      <c r="N16" s="3"/>
+    </row>
+    <row r="17" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>23600</v>
+      </c>
+      <c r="E17" s="3">
+        <v>23500</v>
+      </c>
+      <c r="F17" s="3">
+        <v>19000</v>
+      </c>
+      <c r="G17" s="3">
         <v>35200</v>
       </c>
-      <c r="E17" s="3">
+      <c r="H17" s="3">
         <v>66100</v>
       </c>
-      <c r="F17" s="3">
+      <c r="I17" s="3">
         <v>30400</v>
       </c>
-      <c r="G17" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="H17" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="I17" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J17" s="3" t="s">
         <v>3</v>
       </c>
       <c r="K17" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="18" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L17" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M17" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N17" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="18" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>-14600</v>
+      </c>
+      <c r="E18" s="3">
+        <v>-13600</v>
+      </c>
+      <c r="F18" s="3">
+        <v>-11100</v>
+      </c>
+      <c r="G18" s="3">
         <v>-19800</v>
       </c>
-      <c r="E18" s="3">
+      <c r="H18" s="3">
         <v>-42700</v>
       </c>
-      <c r="F18" s="3">
+      <c r="I18" s="3">
         <v>-21900</v>
       </c>
-      <c r="G18" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="H18" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="I18" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J18" s="3" t="s">
         <v>3</v>
       </c>
       <c r="K18" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="19" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L18" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M18" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N18" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="19" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1007,66 +1105,87 @@
       <c r="I19" s="3"/>
       <c r="J19" s="3"/>
       <c r="K19" s="3"/>
-    </row>
-    <row r="20" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L19" s="3"/>
+      <c r="M19" s="3"/>
+      <c r="N19" s="3"/>
+    </row>
+    <row r="20" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
+        <v>-900</v>
+      </c>
+      <c r="E20" s="3">
+        <v>-200</v>
+      </c>
+      <c r="F20" s="3">
+        <v>-1600</v>
+      </c>
+      <c r="G20" s="3">
         <v>-2300</v>
       </c>
-      <c r="E20" s="3">
+      <c r="H20" s="3">
         <v>-3900</v>
       </c>
-      <c r="F20" s="3">
+      <c r="I20" s="3">
         <v>-1700</v>
       </c>
-      <c r="G20" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="H20" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="I20" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J20" s="3" t="s">
         <v>3</v>
       </c>
       <c r="K20" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="21" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L20" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M20" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N20" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="21" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>-20600</v>
+        <v>-15100</v>
       </c>
       <c r="E21" s="3">
+        <v>-13200</v>
+      </c>
+      <c r="F21" s="3">
+        <v>-12200</v>
+      </c>
+      <c r="G21" s="3">
+        <v>-21000</v>
+      </c>
+      <c r="H21" s="3">
         <v>-43100</v>
       </c>
-      <c r="F21" s="3">
+      <c r="I21" s="3">
         <v>-21700</v>
       </c>
-      <c r="G21" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="H21" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="I21" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J21" s="3" t="s">
         <v>3</v>
       </c>
       <c r="K21" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="22" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L21" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M21" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N21" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="22" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1094,37 +1213,55 @@
       <c r="K22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L22" s="3">
+        <v>0</v>
+      </c>
+      <c r="M22" s="3">
+        <v>0</v>
+      </c>
+      <c r="N22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>-15500</v>
+      </c>
+      <c r="E23" s="3">
+        <v>-13700</v>
+      </c>
+      <c r="F23" s="3">
+        <v>-12700</v>
+      </c>
+      <c r="G23" s="3">
         <v>-22100</v>
       </c>
-      <c r="E23" s="3">
+      <c r="H23" s="3">
         <v>-46700</v>
       </c>
-      <c r="F23" s="3">
+      <c r="I23" s="3">
         <v>-23500</v>
       </c>
-      <c r="G23" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="H23" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="I23" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J23" s="3" t="s">
         <v>3</v>
       </c>
       <c r="K23" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="24" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L23" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M23" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N23" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="24" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
@@ -1134,26 +1271,35 @@
       <c r="E24" s="3">
         <v>0</v>
       </c>
-      <c r="F24" s="3">
-        <v>0</v>
-      </c>
-      <c r="G24" s="3">
-        <v>0</v>
+      <c r="F24" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="G24" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="H24" s="3">
         <v>0</v>
       </c>
-      <c r="I24" s="3">
-        <v>0</v>
-      </c>
-      <c r="J24" s="3">
-        <v>0</v>
+      <c r="I24" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="J24" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="K24" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L24" s="3">
+        <v>0</v>
+      </c>
+      <c r="M24" s="3">
+        <v>0</v>
+      </c>
+      <c r="N24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1181,66 +1327,93 @@
       <c r="K25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L25" s="3">
+        <v>0</v>
+      </c>
+      <c r="M25" s="3">
+        <v>0</v>
+      </c>
+      <c r="N25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>-15500</v>
+      </c>
+      <c r="E26" s="3">
+        <v>-13700</v>
+      </c>
+      <c r="F26" s="3">
+        <v>-12700</v>
+      </c>
+      <c r="G26" s="3">
         <v>-22100</v>
       </c>
-      <c r="E26" s="3">
+      <c r="H26" s="3">
         <v>-46700</v>
       </c>
-      <c r="F26" s="3">
+      <c r="I26" s="3">
         <v>-23500</v>
       </c>
-      <c r="G26" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="H26" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="I26" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J26" s="3" t="s">
         <v>3</v>
       </c>
       <c r="K26" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="27" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L26" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M26" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N26" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="27" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>-15500</v>
+      </c>
+      <c r="E27" s="3">
+        <v>-13700</v>
+      </c>
+      <c r="F27" s="3">
+        <v>-12700</v>
+      </c>
+      <c r="G27" s="3">
         <v>-22100</v>
       </c>
-      <c r="E27" s="3">
+      <c r="H27" s="3">
         <v>-46700</v>
       </c>
-      <c r="F27" s="3">
+      <c r="I27" s="3">
         <v>-23500</v>
       </c>
-      <c r="G27" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="H27" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="I27" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J27" s="3" t="s">
         <v>3</v>
       </c>
       <c r="K27" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="28" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L27" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M27" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N27" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="28" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1268,16 +1441,25 @@
       <c r="K28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L28" s="3">
+        <v>0</v>
+      </c>
+      <c r="M28" s="3">
+        <v>0</v>
+      </c>
+      <c r="N28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
       <c r="D29" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="E29" s="3">
-        <v>0</v>
+      <c r="E29" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="F29" s="3" t="s">
         <v>3</v>
@@ -1285,8 +1467,8 @@
       <c r="G29" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="H29" s="3" t="s">
-        <v>3</v>
+      <c r="H29" s="3">
+        <v>0</v>
       </c>
       <c r="I29" s="3" t="s">
         <v>3</v>
@@ -1297,8 +1479,17 @@
       <c r="K29" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="30" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L29" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M29" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N29" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="30" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1326,8 +1517,17 @@
       <c r="K30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L30" s="3">
+        <v>0</v>
+      </c>
+      <c r="M30" s="3">
+        <v>0</v>
+      </c>
+      <c r="N30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1355,66 +1555,93 @@
       <c r="K31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L31" s="3">
+        <v>0</v>
+      </c>
+      <c r="M31" s="3">
+        <v>0</v>
+      </c>
+      <c r="N31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>900</v>
+      </c>
+      <c r="E32" s="3">
+        <v>200</v>
+      </c>
+      <c r="F32" s="3">
+        <v>1600</v>
+      </c>
+      <c r="G32" s="3">
         <v>2300</v>
       </c>
-      <c r="E32" s="3">
+      <c r="H32" s="3">
         <v>3900</v>
       </c>
-      <c r="F32" s="3">
+      <c r="I32" s="3">
         <v>1700</v>
       </c>
-      <c r="G32" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="H32" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="I32" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J32" s="3" t="s">
         <v>3</v>
       </c>
       <c r="K32" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="33" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L32" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M32" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N32" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="33" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>-15500</v>
+      </c>
+      <c r="E33" s="3">
+        <v>-13700</v>
+      </c>
+      <c r="F33" s="3">
+        <v>-12700</v>
+      </c>
+      <c r="G33" s="3">
         <v>-22100</v>
       </c>
-      <c r="E33" s="3">
+      <c r="H33" s="3">
         <v>-46700</v>
       </c>
-      <c r="F33" s="3">
+      <c r="I33" s="3">
         <v>-23500</v>
       </c>
-      <c r="G33" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="H33" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="I33" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J33" s="3" t="s">
         <v>3</v>
       </c>
       <c r="K33" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="34" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L33" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M33" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N33" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="34" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1442,71 +1669,98 @@
       <c r="K34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L34" s="3">
+        <v>0</v>
+      </c>
+      <c r="M34" s="3">
+        <v>0</v>
+      </c>
+      <c r="N34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>-15500</v>
+      </c>
+      <c r="E35" s="3">
+        <v>-13700</v>
+      </c>
+      <c r="F35" s="3">
+        <v>-12700</v>
+      </c>
+      <c r="G35" s="3">
         <v>-22100</v>
       </c>
-      <c r="E35" s="3">
+      <c r="H35" s="3">
         <v>-46700</v>
       </c>
-      <c r="F35" s="3">
+      <c r="I35" s="3">
         <v>-23500</v>
       </c>
-      <c r="G35" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="H35" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="I35" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J35" s="3" t="s">
         <v>3</v>
       </c>
       <c r="K35" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="37" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L35" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M35" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N35" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="37" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44651</v>
+      </c>
+      <c r="E38" s="2">
+        <v>44561</v>
+      </c>
+      <c r="F38" s="2">
+        <v>44469</v>
+      </c>
+      <c r="G38" s="2">
         <v>44377</v>
       </c>
-      <c r="E38" s="2">
+      <c r="H38" s="2">
         <v>44196</v>
       </c>
-      <c r="F38" s="2">
+      <c r="I38" s="2">
         <v>44012</v>
       </c>
-      <c r="G38" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="H38" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="I38" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="J38" s="2" t="s">
         <v>3</v>
       </c>
       <c r="K38" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="39" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L38" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="M38" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="N38" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="39" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1518,8 +1772,11 @@
       <c r="I39" s="3"/>
       <c r="J39" s="3"/>
       <c r="K39" s="3"/>
-    </row>
-    <row r="40" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L39" s="3"/>
+      <c r="M39" s="3"/>
+      <c r="N39" s="3"/>
+    </row>
+    <row r="40" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1531,23 +1788,26 @@
       <c r="I40" s="3"/>
       <c r="J40" s="3"/>
       <c r="K40" s="3"/>
-    </row>
-    <row r="41" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L40" s="3"/>
+      <c r="M40" s="3"/>
+      <c r="N40" s="3"/>
+    </row>
+    <row r="41" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>66100</v>
+      </c>
+      <c r="E41" s="3">
+        <v>84600</v>
+      </c>
+      <c r="F41" s="3">
+        <v>13700</v>
+      </c>
+      <c r="G41" s="3">
         <v>25700</v>
       </c>
-      <c r="E41" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="F41" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="G41" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="H41" s="3" t="s">
         <v>3</v>
       </c>
@@ -1560,8 +1820,17 @@
       <c r="K41" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="42" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L41" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M41" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N41" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="42" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -1589,23 +1858,32 @@
       <c r="K42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L42" s="3">
+        <v>0</v>
+      </c>
+      <c r="M42" s="3">
+        <v>0</v>
+      </c>
+      <c r="N42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>2700</v>
+      </c>
+      <c r="E43" s="3">
+        <v>2500</v>
+      </c>
+      <c r="F43" s="3">
+        <v>1900</v>
+      </c>
+      <c r="G43" s="3">
         <v>2300</v>
       </c>
-      <c r="E43" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="F43" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="G43" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="H43" s="3" t="s">
         <v>3</v>
       </c>
@@ -1618,23 +1896,32 @@
       <c r="K43" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="44" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L43" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M43" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N43" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="44" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
+        <v>10100</v>
+      </c>
+      <c r="E44" s="3">
+        <v>8200</v>
+      </c>
+      <c r="F44" s="3">
+        <v>7200</v>
+      </c>
+      <c r="G44" s="3">
         <v>5800</v>
       </c>
-      <c r="E44" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="F44" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="G44" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="H44" s="3" t="s">
         <v>3</v>
       </c>
@@ -1647,23 +1934,32 @@
       <c r="K44" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="45" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L44" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M44" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N44" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="45" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>4000</v>
+      </c>
+      <c r="E45" s="3">
+        <v>3600</v>
+      </c>
+      <c r="F45" s="3">
+        <v>3400</v>
+      </c>
+      <c r="G45" s="3">
         <v>800</v>
       </c>
-      <c r="E45" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="F45" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="G45" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="H45" s="3" t="s">
         <v>3</v>
       </c>
@@ -1676,23 +1972,32 @@
       <c r="K45" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="46" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L45" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M45" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N45" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="46" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>82900</v>
+      </c>
+      <c r="E46" s="3">
+        <v>98900</v>
+      </c>
+      <c r="F46" s="3">
+        <v>26300</v>
+      </c>
+      <c r="G46" s="3">
         <v>34700</v>
       </c>
-      <c r="E46" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="F46" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="G46" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="H46" s="3" t="s">
         <v>3</v>
       </c>
@@ -1705,8 +2010,17 @@
       <c r="K46" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="47" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L46" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M46" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N46" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="47" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -1734,23 +2048,32 @@
       <c r="K47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L47" s="3">
+        <v>0</v>
+      </c>
+      <c r="M47" s="3">
+        <v>0</v>
+      </c>
+      <c r="N47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>4700</v>
+      </c>
+      <c r="E48" s="3">
+        <v>5100</v>
+      </c>
+      <c r="F48" s="3">
+        <v>5500</v>
+      </c>
+      <c r="G48" s="3">
         <v>6000</v>
       </c>
-      <c r="E48" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="F48" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="G48" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="H48" s="3" t="s">
         <v>3</v>
       </c>
@@ -1763,23 +2086,32 @@
       <c r="K48" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="49" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L48" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M48" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N48" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="49" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
+        <v>11200</v>
+      </c>
+      <c r="E49" s="3">
+        <v>11400</v>
+      </c>
+      <c r="F49" s="3">
+        <v>11600</v>
+      </c>
+      <c r="G49" s="3">
         <v>11700</v>
       </c>
-      <c r="E49" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="F49" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="G49" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="H49" s="3" t="s">
         <v>3</v>
       </c>
@@ -1792,8 +2124,17 @@
       <c r="K49" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="50" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L49" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M49" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N49" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="50" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -1821,8 +2162,17 @@
       <c r="K50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L50" s="3">
+        <v>0</v>
+      </c>
+      <c r="M50" s="3">
+        <v>0</v>
+      </c>
+      <c r="N50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -1850,22 +2200,31 @@
       <c r="K51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L51" s="3">
+        <v>0</v>
+      </c>
+      <c r="M51" s="3">
+        <v>0</v>
+      </c>
+      <c r="N51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
         <v>100</v>
       </c>
-      <c r="E52" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="F52" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="G52" s="3" t="s">
-        <v>3</v>
+      <c r="E52" s="3">
+        <v>100</v>
+      </c>
+      <c r="F52" s="3">
+        <v>100</v>
+      </c>
+      <c r="G52" s="3">
+        <v>100</v>
       </c>
       <c r="H52" s="3" t="s">
         <v>3</v>
@@ -1879,8 +2238,17 @@
       <c r="K52" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="53" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L52" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M52" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N52" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="53" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -1908,23 +2276,32 @@
       <c r="K53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L53" s="3">
+        <v>0</v>
+      </c>
+      <c r="M53" s="3">
+        <v>0</v>
+      </c>
+      <c r="N53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>98900</v>
+      </c>
+      <c r="E54" s="3">
+        <v>115500</v>
+      </c>
+      <c r="F54" s="3">
+        <v>43400</v>
+      </c>
+      <c r="G54" s="3">
         <v>52500</v>
       </c>
-      <c r="E54" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="F54" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="G54" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="H54" s="3" t="s">
         <v>3</v>
       </c>
@@ -1937,8 +2314,17 @@
       <c r="K54" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="55" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L54" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M54" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N54" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="55" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -1950,8 +2336,11 @@
       <c r="I55" s="3"/>
       <c r="J55" s="3"/>
       <c r="K55" s="3"/>
-    </row>
-    <row r="56" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L55" s="3"/>
+      <c r="M55" s="3"/>
+      <c r="N55" s="3"/>
+    </row>
+    <row r="56" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -1963,23 +2352,26 @@
       <c r="I56" s="3"/>
       <c r="J56" s="3"/>
       <c r="K56" s="3"/>
-    </row>
-    <row r="57" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L56" s="3"/>
+      <c r="M56" s="3"/>
+      <c r="N56" s="3"/>
+    </row>
+    <row r="57" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>2200</v>
+      </c>
+      <c r="E57" s="3">
+        <v>3100</v>
+      </c>
+      <c r="F57" s="3">
+        <v>2000</v>
+      </c>
+      <c r="G57" s="3">
         <v>1100</v>
       </c>
-      <c r="E57" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="F57" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="G57" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="H57" s="3" t="s">
         <v>3</v>
       </c>
@@ -1992,23 +2384,32 @@
       <c r="K57" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="58" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L57" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M57" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N57" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="58" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="D58" s="3">
+      <c r="D58" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E58" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="F58" s="3">
+        <v>0</v>
+      </c>
+      <c r="G58" s="3">
         <v>28800</v>
       </c>
-      <c r="E58" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="F58" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="G58" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="H58" s="3" t="s">
         <v>3</v>
       </c>
@@ -2021,23 +2422,32 @@
       <c r="K58" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="59" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L58" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M58" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N58" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="59" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>9900</v>
+      </c>
+      <c r="E59" s="3">
+        <v>11600</v>
+      </c>
+      <c r="F59" s="3">
+        <v>10800</v>
+      </c>
+      <c r="G59" s="3">
         <v>8800</v>
       </c>
-      <c r="E59" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="F59" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="G59" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="H59" s="3" t="s">
         <v>3</v>
       </c>
@@ -2050,23 +2460,32 @@
       <c r="K59" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="60" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L59" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M59" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N59" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="60" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>12100</v>
+      </c>
+      <c r="E60" s="3">
+        <v>14700</v>
+      </c>
+      <c r="F60" s="3">
+        <v>12800</v>
+      </c>
+      <c r="G60" s="3">
         <v>38700</v>
       </c>
-      <c r="E60" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="F60" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="G60" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="H60" s="3" t="s">
         <v>3</v>
       </c>
@@ -2079,19 +2498,28 @@
       <c r="K60" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="61" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L60" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M60" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N60" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="61" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>0</v>
+        <v>26600</v>
       </c>
       <c r="E61" s="3">
-        <v>0</v>
+        <v>26500</v>
       </c>
       <c r="F61" s="3">
-        <v>0</v>
+        <v>26400</v>
       </c>
       <c r="G61" s="3">
         <v>0</v>
@@ -2108,23 +2536,32 @@
       <c r="K61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L61" s="3">
+        <v>0</v>
+      </c>
+      <c r="M61" s="3">
+        <v>0</v>
+      </c>
+      <c r="N61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>2000</v>
+      </c>
+      <c r="E62" s="3">
+        <v>2300</v>
+      </c>
+      <c r="F62" s="3">
+        <v>10000</v>
+      </c>
+      <c r="G62" s="3">
         <v>7400</v>
       </c>
-      <c r="E62" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="F62" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="G62" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="H62" s="3" t="s">
         <v>3</v>
       </c>
@@ -2137,8 +2574,17 @@
       <c r="K62" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="63" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L62" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M62" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N62" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="63" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2166,8 +2612,17 @@
       <c r="K63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L63" s="3">
+        <v>0</v>
+      </c>
+      <c r="M63" s="3">
+        <v>0</v>
+      </c>
+      <c r="N63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -2195,8 +2650,17 @@
       <c r="K64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L64" s="3">
+        <v>0</v>
+      </c>
+      <c r="M64" s="3">
+        <v>0</v>
+      </c>
+      <c r="N64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -2224,23 +2688,32 @@
       <c r="K65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L65" s="3">
+        <v>0</v>
+      </c>
+      <c r="M65" s="3">
+        <v>0</v>
+      </c>
+      <c r="N65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>40700</v>
+      </c>
+      <c r="E66" s="3">
+        <v>43400</v>
+      </c>
+      <c r="F66" s="3">
+        <v>49100</v>
+      </c>
+      <c r="G66" s="3">
         <v>46100</v>
       </c>
-      <c r="E66" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="F66" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="G66" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="H66" s="3" t="s">
         <v>3</v>
       </c>
@@ -2253,8 +2726,17 @@
       <c r="K66" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="67" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L66" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M66" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N66" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="67" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -2266,8 +2748,11 @@
       <c r="I67" s="3"/>
       <c r="J67" s="3"/>
       <c r="K67" s="3"/>
-    </row>
-    <row r="68" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L67" s="3"/>
+      <c r="M67" s="3"/>
+      <c r="N67" s="3"/>
+    </row>
+    <row r="68" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -2295,8 +2780,17 @@
       <c r="K68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L68" s="3">
+        <v>0</v>
+      </c>
+      <c r="M68" s="3">
+        <v>0</v>
+      </c>
+      <c r="N68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -2324,22 +2818,31 @@
       <c r="K69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L69" s="3">
+        <v>0</v>
+      </c>
+      <c r="M69" s="3">
+        <v>0</v>
+      </c>
+      <c r="N69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
       <c r="D70" s="3">
+        <v>0</v>
+      </c>
+      <c r="E70" s="3">
+        <v>0</v>
+      </c>
+      <c r="F70" s="3">
         <v>281300</v>
       </c>
-      <c r="E70" s="3">
-        <v>0</v>
-      </c>
-      <c r="F70" s="3">
-        <v>0</v>
-      </c>
       <c r="G70" s="3">
-        <v>0</v>
+        <v>281300</v>
       </c>
       <c r="H70" s="3">
         <v>0</v>
@@ -2353,8 +2856,17 @@
       <c r="K70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L70" s="3">
+        <v>0</v>
+      </c>
+      <c r="M70" s="3">
+        <v>0</v>
+      </c>
+      <c r="N70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -2382,23 +2894,32 @@
       <c r="K71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L71" s="3">
+        <v>0</v>
+      </c>
+      <c r="M71" s="3">
+        <v>0</v>
+      </c>
+      <c r="N71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-327600</v>
+      </c>
+      <c r="E72" s="3">
+        <v>-312000</v>
+      </c>
+      <c r="F72" s="3">
+        <v>-298300</v>
+      </c>
+      <c r="G72" s="3">
         <v>-285600</v>
       </c>
-      <c r="E72" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="F72" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="G72" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="H72" s="3" t="s">
         <v>3</v>
       </c>
@@ -2411,8 +2932,17 @@
       <c r="K72" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="73" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L72" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M72" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N72" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="73" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -2440,8 +2970,17 @@
       <c r="K73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L73" s="3">
+        <v>0</v>
+      </c>
+      <c r="M73" s="3">
+        <v>0</v>
+      </c>
+      <c r="N73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -2469,8 +3008,17 @@
       <c r="K74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L74" s="3">
+        <v>0</v>
+      </c>
+      <c r="M74" s="3">
+        <v>0</v>
+      </c>
+      <c r="N74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -2498,23 +3046,32 @@
       <c r="K75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L75" s="3">
+        <v>0</v>
+      </c>
+      <c r="M75" s="3">
+        <v>0</v>
+      </c>
+      <c r="N75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>58200</v>
+      </c>
+      <c r="E76" s="3">
+        <v>72100</v>
+      </c>
+      <c r="F76" s="3">
+        <v>-287100</v>
+      </c>
+      <c r="G76" s="3">
         <v>-275000</v>
       </c>
-      <c r="E76" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="F76" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="G76" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="H76" s="3" t="s">
         <v>3</v>
       </c>
@@ -2527,8 +3084,17 @@
       <c r="K76" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="77" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L76" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M76" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N76" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="77" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -2556,71 +3122,98 @@
       <c r="K77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L77" s="3">
+        <v>0</v>
+      </c>
+      <c r="M77" s="3">
+        <v>0</v>
+      </c>
+      <c r="N77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44651</v>
+      </c>
+      <c r="E80" s="2">
+        <v>44561</v>
+      </c>
+      <c r="F80" s="2">
+        <v>44469</v>
+      </c>
+      <c r="G80" s="2">
         <v>44377</v>
       </c>
-      <c r="E80" s="2">
+      <c r="H80" s="2">
         <v>44196</v>
       </c>
-      <c r="F80" s="2">
+      <c r="I80" s="2">
         <v>44012</v>
       </c>
-      <c r="G80" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="H80" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="I80" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="J80" s="2" t="s">
         <v>3</v>
       </c>
       <c r="K80" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="81" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L80" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="M80" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="N80" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="81" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>-15500</v>
+      </c>
+      <c r="E81" s="3">
+        <v>-13700</v>
+      </c>
+      <c r="F81" s="3">
+        <v>-12700</v>
+      </c>
+      <c r="G81" s="3">
         <v>-22100</v>
       </c>
-      <c r="E81" s="3">
+      <c r="H81" s="3">
         <v>-46700</v>
       </c>
-      <c r="F81" s="3">
+      <c r="I81" s="3">
         <v>-23500</v>
       </c>
-      <c r="G81" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="H81" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="I81" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J81" s="3" t="s">
         <v>3</v>
       </c>
       <c r="K81" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="82" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L81" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M81" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N81" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="82" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -2632,37 +3225,49 @@
       <c r="I82" s="3"/>
       <c r="J82" s="3"/>
       <c r="K82" s="3"/>
-    </row>
-    <row r="83" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L82" s="3"/>
+      <c r="M82" s="3"/>
+      <c r="N82" s="3"/>
+    </row>
+    <row r="83" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>1500</v>
+        <v>400</v>
       </c>
       <c r="E83" s="3">
+        <v>500</v>
+      </c>
+      <c r="F83" s="3">
+        <v>500</v>
+      </c>
+      <c r="G83" s="3">
+        <v>1000</v>
+      </c>
+      <c r="H83" s="3">
         <v>3600</v>
       </c>
-      <c r="F83" s="3">
+      <c r="I83" s="3">
         <v>1900</v>
       </c>
-      <c r="G83" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="H83" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="I83" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J83" s="3" t="s">
         <v>3</v>
       </c>
       <c r="K83" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="84" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L83" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M83" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N83" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="84" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -2690,8 +3295,17 @@
       <c r="K84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L84" s="3">
+        <v>0</v>
+      </c>
+      <c r="M84" s="3">
+        <v>0</v>
+      </c>
+      <c r="N84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -2719,8 +3333,17 @@
       <c r="K85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L85" s="3">
+        <v>0</v>
+      </c>
+      <c r="M85" s="3">
+        <v>0</v>
+      </c>
+      <c r="N85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -2748,8 +3371,17 @@
       <c r="K86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L86" s="3">
+        <v>0</v>
+      </c>
+      <c r="M86" s="3">
+        <v>0</v>
+      </c>
+      <c r="N86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -2777,8 +3409,17 @@
       <c r="K87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L87" s="3">
+        <v>0</v>
+      </c>
+      <c r="M87" s="3">
+        <v>0</v>
+      </c>
+      <c r="N87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -2806,37 +3447,55 @@
       <c r="K88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L88" s="3">
+        <v>0</v>
+      </c>
+      <c r="M88" s="3">
+        <v>0</v>
+      </c>
+      <c r="N88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>-18000</v>
+      </c>
+      <c r="E89" s="3">
+        <v>-14700</v>
+      </c>
+      <c r="F89" s="3">
+        <v>-10000</v>
+      </c>
+      <c r="G89" s="3">
         <v>-23900</v>
       </c>
-      <c r="E89" s="3">
+      <c r="H89" s="3">
         <v>-38500</v>
       </c>
-      <c r="F89" s="3">
+      <c r="I89" s="3">
         <v>-23500</v>
       </c>
-      <c r="G89" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="H89" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="I89" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J89" s="3" t="s">
         <v>3</v>
       </c>
       <c r="K89" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="90" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L89" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M89" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N89" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="90" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -2848,37 +3507,49 @@
       <c r="I90" s="3"/>
       <c r="J90" s="3"/>
       <c r="K90" s="3"/>
-    </row>
-    <row r="91" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L90" s="3"/>
+      <c r="M90" s="3"/>
+      <c r="N90" s="3"/>
+    </row>
+    <row r="91" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-100</v>
+      </c>
+      <c r="E91" s="3">
         <v>-200</v>
       </c>
-      <c r="E91" s="3">
+      <c r="F91" s="3">
+        <v>-300</v>
+      </c>
+      <c r="G91" s="3">
+        <v>-200</v>
+      </c>
+      <c r="H91" s="3">
         <v>-900</v>
       </c>
-      <c r="F91" s="3">
+      <c r="I91" s="3">
         <v>-400</v>
       </c>
-      <c r="G91" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="H91" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="I91" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J91" s="3" t="s">
         <v>3</v>
       </c>
       <c r="K91" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="92" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L91" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M91" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N91" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="92" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -2906,8 +3577,17 @@
       <c r="K92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L92" s="3">
+        <v>0</v>
+      </c>
+      <c r="M92" s="3">
+        <v>0</v>
+      </c>
+      <c r="N92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -2935,37 +3615,55 @@
       <c r="K93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L93" s="3">
+        <v>0</v>
+      </c>
+      <c r="M93" s="3">
+        <v>0</v>
+      </c>
+      <c r="N93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>-100</v>
+      </c>
+      <c r="E94" s="3">
+        <v>-200</v>
+      </c>
+      <c r="F94" s="3">
+        <v>-300</v>
+      </c>
+      <c r="G94" s="3">
         <v>-1500</v>
       </c>
-      <c r="E94" s="3">
+      <c r="H94" s="3">
         <v>-900</v>
       </c>
-      <c r="F94" s="3">
+      <c r="I94" s="3">
         <v>-400</v>
       </c>
-      <c r="G94" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="H94" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="I94" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J94" s="3" t="s">
         <v>3</v>
       </c>
       <c r="K94" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="95" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L94" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M94" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N94" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="95" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -2977,8 +3675,11 @@
       <c r="I95" s="3"/>
       <c r="J95" s="3"/>
       <c r="K95" s="3"/>
-    </row>
-    <row r="96" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L95" s="3"/>
+      <c r="M95" s="3"/>
+      <c r="N95" s="3"/>
+    </row>
+    <row r="96" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -3006,8 +3707,17 @@
       <c r="K96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L96" s="3">
+        <v>0</v>
+      </c>
+      <c r="M96" s="3">
+        <v>0</v>
+      </c>
+      <c r="N96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -3035,8 +3745,17 @@
       <c r="K97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L97" s="3">
+        <v>0</v>
+      </c>
+      <c r="M97" s="3">
+        <v>0</v>
+      </c>
+      <c r="N97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -3064,8 +3783,17 @@
       <c r="K98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L98" s="3">
+        <v>0</v>
+      </c>
+      <c r="M98" s="3">
+        <v>0</v>
+      </c>
+      <c r="N98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -3093,37 +3821,55 @@
       <c r="K99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L99" s="3">
+        <v>0</v>
+      </c>
+      <c r="M99" s="3">
+        <v>0</v>
+      </c>
+      <c r="N99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>-500</v>
+      </c>
+      <c r="E100" s="3">
+        <v>85800</v>
+      </c>
+      <c r="F100" s="3">
+        <v>-1700</v>
+      </c>
+      <c r="G100" s="3">
         <v>-600</v>
       </c>
-      <c r="E100" s="3">
+      <c r="H100" s="3">
         <v>-1000</v>
       </c>
-      <c r="F100" s="3">
+      <c r="I100" s="3">
         <v>-1000</v>
       </c>
-      <c r="G100" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="H100" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="I100" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J100" s="3" t="s">
         <v>3</v>
       </c>
       <c r="K100" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="101" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L100" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M100" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N100" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="101" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -3151,33 +3897,51 @@
       <c r="K101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L101" s="3">
+        <v>0</v>
+      </c>
+      <c r="M101" s="3">
+        <v>0</v>
+      </c>
+      <c r="N101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>-18600</v>
+      </c>
+      <c r="E102" s="3">
+        <v>70900</v>
+      </c>
+      <c r="F102" s="3">
+        <v>-12000</v>
+      </c>
+      <c r="G102" s="3">
         <v>-26000</v>
       </c>
-      <c r="E102" s="3">
+      <c r="H102" s="3">
         <v>-40400</v>
       </c>
-      <c r="F102" s="3">
+      <c r="I102" s="3">
         <v>-24800</v>
       </c>
-      <c r="G102" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="H102" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="I102" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J102" s="3" t="s">
         <v>3</v>
       </c>
       <c r="K102" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L102" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M102" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N102" s="3" t="s">
         <v>3</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/SONX_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/SONX_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="354" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="362" uniqueCount="92">
   <si>
     <t>SONX</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:N102"/>
+  <dimension ref="A5:O102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,50 +665,51 @@
     <col min="1" max="1" width="7.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="14" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="15" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:15" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44742</v>
+      </c>
+      <c r="E7" s="2">
         <v>44651</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44561</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44469</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44377</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44196</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44012</v>
       </c>
-      <c r="J7" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="K7" s="2" t="s">
         <v>3</v>
       </c>
@@ -721,32 +722,35 @@
       <c r="N7" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O7" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D8" s="3">
+        <v>10500</v>
+      </c>
+      <c r="E8" s="3">
         <v>9000</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>9900</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>7900</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>15400</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>23400</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>8500</v>
       </c>
-      <c r="J8" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K8" s="3" t="s">
         <v>3</v>
       </c>
@@ -759,32 +763,35 @@
       <c r="N8" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O8" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D9" s="3">
+        <v>8000</v>
+      </c>
+      <c r="E9" s="3">
         <v>6800</v>
       </c>
-      <c r="E9" s="3">
+      <c r="F9" s="3">
         <v>7400</v>
       </c>
-      <c r="F9" s="3">
+      <c r="G9" s="3">
         <v>5800</v>
       </c>
-      <c r="G9" s="3">
+      <c r="H9" s="3">
         <v>11600</v>
       </c>
-      <c r="H9" s="3">
+      <c r="I9" s="3">
         <v>19500</v>
       </c>
-      <c r="I9" s="3">
+      <c r="J9" s="3">
         <v>7600</v>
       </c>
-      <c r="J9" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K9" s="3" t="s">
         <v>3</v>
       </c>
@@ -797,32 +804,35 @@
       <c r="N9" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O9" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
       <c r="D10" s="3">
+        <v>2500</v>
+      </c>
+      <c r="E10" s="3">
         <v>2200</v>
       </c>
-      <c r="E10" s="3">
+      <c r="F10" s="3">
         <v>2500</v>
       </c>
-      <c r="F10" s="3">
+      <c r="G10" s="3">
         <v>2100</v>
       </c>
-      <c r="G10" s="3">
+      <c r="H10" s="3">
         <v>3800</v>
       </c>
-      <c r="H10" s="3">
+      <c r="I10" s="3">
         <v>3900</v>
       </c>
-      <c r="I10" s="3">
+      <c r="J10" s="3">
         <v>900</v>
       </c>
-      <c r="J10" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K10" s="3" t="s">
         <v>3</v>
       </c>
@@ -835,8 +845,11 @@
       <c r="N10" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O10" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -851,32 +864,33 @@
       <c r="L11" s="3"/>
       <c r="M11" s="3"/>
       <c r="N11" s="3"/>
-    </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O11" s="3"/>
+    </row>
+    <row r="12" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
       <c r="D12" s="3">
+        <v>4000</v>
+      </c>
+      <c r="E12" s="3">
         <v>4900</v>
       </c>
-      <c r="E12" s="3">
+      <c r="F12" s="3">
         <v>4300</v>
       </c>
-      <c r="F12" s="3">
+      <c r="G12" s="3">
         <v>4600</v>
       </c>
-      <c r="G12" s="3">
+      <c r="H12" s="3">
         <v>9700</v>
       </c>
-      <c r="H12" s="3">
+      <c r="I12" s="3">
         <v>20500</v>
       </c>
-      <c r="I12" s="3">
+      <c r="J12" s="3">
         <v>9600</v>
       </c>
-      <c r="J12" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K12" s="3" t="s">
         <v>3</v>
       </c>
@@ -889,8 +903,11 @@
       <c r="N12" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O12" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -927,8 +944,11 @@
       <c r="N13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -965,8 +985,11 @@
       <c r="N14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -974,14 +997,14 @@
         <v>100</v>
       </c>
       <c r="E15" s="3">
+        <v>100</v>
+      </c>
+      <c r="F15" s="3">
         <v>200</v>
       </c>
-      <c r="F15" s="3">
+      <c r="G15" s="3">
         <v>100</v>
       </c>
-      <c r="G15" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="H15" s="3" t="s">
         <v>3</v>
       </c>
@@ -991,8 +1014,8 @@
       <c r="J15" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K15" s="3">
-        <v>0</v>
+      <c r="K15" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="L15" s="3">
         <v>0</v>
@@ -1003,8 +1026,11 @@
       <c r="N15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:15" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1016,32 +1042,33 @@
       <c r="L16" s="3"/>
       <c r="M16" s="3"/>
       <c r="N16" s="3"/>
-    </row>
-    <row r="17" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O16" s="3"/>
+    </row>
+    <row r="17" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>24800</v>
+      </c>
+      <c r="E17" s="3">
         <v>23600</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>23500</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>19000</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>35200</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>66100</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>30400</v>
       </c>
-      <c r="J17" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K17" s="3" t="s">
         <v>3</v>
       </c>
@@ -1054,32 +1081,35 @@
       <c r="N17" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="18" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O17" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="18" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>-14300</v>
+      </c>
+      <c r="E18" s="3">
         <v>-14600</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>-13600</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>-11100</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>-19800</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>-42700</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>-21900</v>
       </c>
-      <c r="J18" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K18" s="3" t="s">
         <v>3</v>
       </c>
@@ -1092,8 +1122,11 @@
       <c r="N18" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="19" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O18" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="19" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1108,32 +1141,33 @@
       <c r="L19" s="3"/>
       <c r="M19" s="3"/>
       <c r="N19" s="3"/>
-    </row>
-    <row r="20" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O19" s="3"/>
+    </row>
+    <row r="20" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
+        <v>-800</v>
+      </c>
+      <c r="E20" s="3">
         <v>-900</v>
       </c>
-      <c r="E20" s="3">
+      <c r="F20" s="3">
         <v>-200</v>
       </c>
-      <c r="F20" s="3">
+      <c r="G20" s="3">
         <v>-1600</v>
       </c>
-      <c r="G20" s="3">
+      <c r="H20" s="3">
         <v>-2300</v>
       </c>
-      <c r="H20" s="3">
+      <c r="I20" s="3">
         <v>-3900</v>
       </c>
-      <c r="I20" s="3">
+      <c r="J20" s="3">
         <v>-1700</v>
       </c>
-      <c r="J20" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K20" s="3" t="s">
         <v>3</v>
       </c>
@@ -1146,32 +1180,35 @@
       <c r="N20" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="21" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O20" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="21" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>-14700</v>
+      </c>
+      <c r="E21" s="3">
         <v>-15100</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
         <v>-13200</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>-12200</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>-21000</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>-43100</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>-21700</v>
       </c>
-      <c r="J21" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K21" s="3" t="s">
         <v>3</v>
       </c>
@@ -1184,8 +1221,11 @@
       <c r="N21" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="22" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O21" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="22" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1222,32 +1262,35 @@
       <c r="N22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>-15100</v>
+      </c>
+      <c r="E23" s="3">
         <v>-15500</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>-13700</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>-12700</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>-22100</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>-46700</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>-23500</v>
       </c>
-      <c r="J23" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K23" s="3" t="s">
         <v>3</v>
       </c>
@@ -1260,8 +1303,11 @@
       <c r="N23" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="24" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O23" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="24" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
@@ -1271,23 +1317,23 @@
       <c r="E24" s="3">
         <v>0</v>
       </c>
-      <c r="F24" s="3" t="s">
-        <v>3</v>
+      <c r="F24" s="3">
+        <v>0</v>
       </c>
       <c r="G24" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="H24" s="3">
-        <v>0</v>
-      </c>
-      <c r="I24" s="3" t="s">
-        <v>3</v>
+      <c r="H24" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="I24" s="3">
+        <v>0</v>
       </c>
       <c r="J24" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K24" s="3">
-        <v>0</v>
+      <c r="K24" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="L24" s="3">
         <v>0</v>
@@ -1298,8 +1344,11 @@
       <c r="N24" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1336,32 +1385,35 @@
       <c r="N25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>-15100</v>
+      </c>
+      <c r="E26" s="3">
         <v>-15500</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>-13700</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>-12700</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>-22100</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>-46700</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>-23500</v>
       </c>
-      <c r="J26" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K26" s="3" t="s">
         <v>3</v>
       </c>
@@ -1374,32 +1426,35 @@
       <c r="N26" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="27" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O26" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="27" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>-15100</v>
+      </c>
+      <c r="E27" s="3">
         <v>-15500</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>-13700</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>-12700</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>-22100</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>-46700</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>-23500</v>
       </c>
-      <c r="J27" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K27" s="3" t="s">
         <v>3</v>
       </c>
@@ -1412,8 +1467,11 @@
       <c r="N27" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="28" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O27" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="28" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1450,8 +1508,11 @@
       <c r="N28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1467,11 +1528,11 @@
       <c r="G29" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="H29" s="3">
-        <v>0</v>
-      </c>
-      <c r="I29" s="3" t="s">
-        <v>3</v>
+      <c r="H29" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="I29" s="3">
+        <v>0</v>
       </c>
       <c r="J29" s="3" t="s">
         <v>3</v>
@@ -1488,8 +1549,11 @@
       <c r="N29" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="30" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O29" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="30" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1526,8 +1590,11 @@
       <c r="N30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1564,32 +1631,35 @@
       <c r="N31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>800</v>
+      </c>
+      <c r="E32" s="3">
         <v>900</v>
       </c>
-      <c r="E32" s="3">
+      <c r="F32" s="3">
         <v>200</v>
       </c>
-      <c r="F32" s="3">
+      <c r="G32" s="3">
         <v>1600</v>
       </c>
-      <c r="G32" s="3">
+      <c r="H32" s="3">
         <v>2300</v>
       </c>
-      <c r="H32" s="3">
+      <c r="I32" s="3">
         <v>3900</v>
       </c>
-      <c r="I32" s="3">
+      <c r="J32" s="3">
         <v>1700</v>
       </c>
-      <c r="J32" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K32" s="3" t="s">
         <v>3</v>
       </c>
@@ -1602,32 +1672,35 @@
       <c r="N32" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="33" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O32" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="33" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>-15100</v>
+      </c>
+      <c r="E33" s="3">
         <v>-15500</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>-13700</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>-12700</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>-22100</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>-46700</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>-23500</v>
       </c>
-      <c r="J33" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K33" s="3" t="s">
         <v>3</v>
       </c>
@@ -1640,8 +1713,11 @@
       <c r="N33" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="34" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O33" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="34" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1678,32 +1754,35 @@
       <c r="N34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>-15100</v>
+      </c>
+      <c r="E35" s="3">
         <v>-15500</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>-13700</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>-12700</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>-22100</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>-46700</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>-23500</v>
       </c>
-      <c r="J35" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K35" s="3" t="s">
         <v>3</v>
       </c>
@@ -1716,37 +1795,40 @@
       <c r="N35" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="37" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O35" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="37" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44742</v>
+      </c>
+      <c r="E38" s="2">
         <v>44651</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44561</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44469</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44377</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44196</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44012</v>
       </c>
-      <c r="J38" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="K38" s="2" t="s">
         <v>3</v>
       </c>
@@ -1759,8 +1841,11 @@
       <c r="N38" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="39" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O38" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="39" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1775,8 +1860,9 @@
       <c r="L39" s="3"/>
       <c r="M39" s="3"/>
       <c r="N39" s="3"/>
-    </row>
-    <row r="40" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O39" s="3"/>
+    </row>
+    <row r="40" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1791,26 +1877,27 @@
       <c r="L40" s="3"/>
       <c r="M40" s="3"/>
       <c r="N40" s="3"/>
-    </row>
-    <row r="41" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O40" s="3"/>
+    </row>
+    <row r="41" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>17600</v>
+      </c>
+      <c r="E41" s="3">
         <v>66100</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>84600</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>13700</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>25700</v>
       </c>
-      <c r="H41" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="I41" s="3" t="s">
         <v>3</v>
       </c>
@@ -1829,31 +1916,34 @@
       <c r="N41" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="42" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O41" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="42" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
-        <v>0</v>
-      </c>
-      <c r="E42" s="3">
-        <v>0</v>
-      </c>
-      <c r="F42" s="3">
-        <v>0</v>
-      </c>
-      <c r="G42" s="3">
-        <v>0</v>
-      </c>
-      <c r="H42" s="3">
-        <v>0</v>
-      </c>
-      <c r="I42" s="3">
-        <v>0</v>
-      </c>
-      <c r="J42" s="3">
-        <v>0</v>
+        <v>34200</v>
+      </c>
+      <c r="E42" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="F42" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="G42" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="H42" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="I42" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="J42" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="K42" s="3">
         <v>0</v>
@@ -1867,26 +1957,29 @@
       <c r="N42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>3200</v>
+      </c>
+      <c r="E43" s="3">
         <v>2700</v>
       </c>
-      <c r="E43" s="3">
+      <c r="F43" s="3">
         <v>2500</v>
       </c>
-      <c r="F43" s="3">
+      <c r="G43" s="3">
         <v>1900</v>
       </c>
-      <c r="G43" s="3">
+      <c r="H43" s="3">
         <v>2300</v>
       </c>
-      <c r="H43" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="I43" s="3" t="s">
         <v>3</v>
       </c>
@@ -1905,26 +1998,29 @@
       <c r="N43" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="44" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O43" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="44" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
+        <v>12700</v>
+      </c>
+      <c r="E44" s="3">
         <v>10100</v>
       </c>
-      <c r="E44" s="3">
+      <c r="F44" s="3">
         <v>8200</v>
       </c>
-      <c r="F44" s="3">
+      <c r="G44" s="3">
         <v>7200</v>
       </c>
-      <c r="G44" s="3">
+      <c r="H44" s="3">
         <v>5800</v>
       </c>
-      <c r="H44" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="I44" s="3" t="s">
         <v>3</v>
       </c>
@@ -1943,8 +2039,11 @@
       <c r="N44" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="45" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O44" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="45" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
@@ -1952,17 +2051,17 @@
         <v>4000</v>
       </c>
       <c r="E45" s="3">
+        <v>4000</v>
+      </c>
+      <c r="F45" s="3">
         <v>3600</v>
       </c>
-      <c r="F45" s="3">
+      <c r="G45" s="3">
         <v>3400</v>
       </c>
-      <c r="G45" s="3">
+      <c r="H45" s="3">
         <v>800</v>
       </c>
-      <c r="H45" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="I45" s="3" t="s">
         <v>3</v>
       </c>
@@ -1981,26 +2080,29 @@
       <c r="N45" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="46" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O45" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="46" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>71700</v>
+      </c>
+      <c r="E46" s="3">
         <v>82900</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>98900</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>26300</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>34700</v>
       </c>
-      <c r="H46" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="I46" s="3" t="s">
         <v>3</v>
       </c>
@@ -2019,8 +2121,11 @@
       <c r="N46" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="47" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O46" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="47" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -2057,26 +2162,29 @@
       <c r="N47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>5000</v>
+      </c>
+      <c r="E48" s="3">
         <v>4700</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>5100</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>5500</v>
       </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
         <v>6000</v>
       </c>
-      <c r="H48" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="I48" s="3" t="s">
         <v>3</v>
       </c>
@@ -2095,26 +2203,29 @@
       <c r="N48" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="49" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O48" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="49" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
+        <v>11100</v>
+      </c>
+      <c r="E49" s="3">
         <v>11200</v>
       </c>
-      <c r="E49" s="3">
+      <c r="F49" s="3">
         <v>11400</v>
       </c>
-      <c r="F49" s="3">
+      <c r="G49" s="3">
         <v>11600</v>
       </c>
-      <c r="G49" s="3">
+      <c r="H49" s="3">
         <v>11700</v>
       </c>
-      <c r="H49" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="I49" s="3" t="s">
         <v>3</v>
       </c>
@@ -2133,8 +2244,11 @@
       <c r="N49" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="50" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O49" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="50" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2171,8 +2285,11 @@
       <c r="N50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2209,8 +2326,11 @@
       <c r="N51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
@@ -2226,8 +2346,8 @@
       <c r="G52" s="3">
         <v>100</v>
       </c>
-      <c r="H52" s="3" t="s">
-        <v>3</v>
+      <c r="H52" s="3">
+        <v>100</v>
       </c>
       <c r="I52" s="3" t="s">
         <v>3</v>
@@ -2247,8 +2367,11 @@
       <c r="N52" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="53" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O52" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="53" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2285,26 +2408,29 @@
       <c r="N53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>87900</v>
+      </c>
+      <c r="E54" s="3">
         <v>98900</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>115500</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>43400</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>52500</v>
       </c>
-      <c r="H54" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="I54" s="3" t="s">
         <v>3</v>
       </c>
@@ -2323,8 +2449,11 @@
       <c r="N54" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="55" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O54" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="55" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2339,8 +2468,9 @@
       <c r="L55" s="3"/>
       <c r="M55" s="3"/>
       <c r="N55" s="3"/>
-    </row>
-    <row r="56" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O55" s="3"/>
+    </row>
+    <row r="56" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2355,26 +2485,27 @@
       <c r="L56" s="3"/>
       <c r="M56" s="3"/>
       <c r="N56" s="3"/>
-    </row>
-    <row r="57" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O56" s="3"/>
+    </row>
+    <row r="57" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>2400</v>
+      </c>
+      <c r="E57" s="3">
         <v>2200</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>3100</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>2000</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>1100</v>
       </c>
-      <c r="H57" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="I57" s="3" t="s">
         <v>3</v>
       </c>
@@ -2393,8 +2524,11 @@
       <c r="N57" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="58" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O57" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="58" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -2404,15 +2538,15 @@
       <c r="E58" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="F58" s="3">
-        <v>0</v>
+      <c r="F58" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="G58" s="3">
+        <v>0</v>
+      </c>
+      <c r="H58" s="3">
         <v>28800</v>
       </c>
-      <c r="H58" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="I58" s="3" t="s">
         <v>3</v>
       </c>
@@ -2431,26 +2565,29 @@
       <c r="N58" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="59" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O58" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="59" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>11900</v>
+      </c>
+      <c r="E59" s="3">
         <v>9900</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>11600</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>10800</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>8800</v>
       </c>
-      <c r="H59" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="I59" s="3" t="s">
         <v>3</v>
       </c>
@@ -2469,26 +2606,29 @@
       <c r="N59" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="60" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O59" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="60" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>14300</v>
+      </c>
+      <c r="E60" s="3">
         <v>12100</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>14700</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>12800</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>38700</v>
       </c>
-      <c r="H60" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="I60" s="3" t="s">
         <v>3</v>
       </c>
@@ -2507,8 +2647,11 @@
       <c r="N60" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="61" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O60" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="61" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -2516,14 +2659,14 @@
         <v>26600</v>
       </c>
       <c r="E61" s="3">
+        <v>26600</v>
+      </c>
+      <c r="F61" s="3">
         <v>26500</v>
       </c>
-      <c r="F61" s="3">
+      <c r="G61" s="3">
         <v>26400</v>
       </c>
-      <c r="G61" s="3">
-        <v>0</v>
-      </c>
       <c r="H61" s="3">
         <v>0</v>
       </c>
@@ -2545,26 +2688,29 @@
       <c r="N61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>1900</v>
+      </c>
+      <c r="E62" s="3">
         <v>2000</v>
       </c>
-      <c r="E62" s="3">
+      <c r="F62" s="3">
         <v>2300</v>
       </c>
-      <c r="F62" s="3">
+      <c r="G62" s="3">
         <v>10000</v>
       </c>
-      <c r="G62" s="3">
+      <c r="H62" s="3">
         <v>7400</v>
       </c>
-      <c r="H62" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="I62" s="3" t="s">
         <v>3</v>
       </c>
@@ -2583,8 +2729,11 @@
       <c r="N62" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="63" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O62" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="63" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2621,8 +2770,11 @@
       <c r="N63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -2659,8 +2811,11 @@
       <c r="N64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -2697,26 +2852,29 @@
       <c r="N65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>42900</v>
+      </c>
+      <c r="E66" s="3">
         <v>40700</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>43400</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>49100</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>46100</v>
       </c>
-      <c r="H66" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="I66" s="3" t="s">
         <v>3</v>
       </c>
@@ -2735,8 +2893,11 @@
       <c r="N66" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="67" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O66" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="67" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -2751,8 +2912,9 @@
       <c r="L67" s="3"/>
       <c r="M67" s="3"/>
       <c r="N67" s="3"/>
-    </row>
-    <row r="68" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O67" s="3"/>
+    </row>
+    <row r="68" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -2789,8 +2951,11 @@
       <c r="N68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -2827,8 +2992,11 @@
       <c r="N69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -2839,13 +3007,13 @@
         <v>0</v>
       </c>
       <c r="F70" s="3">
-        <v>281300</v>
+        <v>0</v>
       </c>
       <c r="G70" s="3">
         <v>281300</v>
       </c>
       <c r="H70" s="3">
-        <v>0</v>
+        <v>281300</v>
       </c>
       <c r="I70" s="3">
         <v>0</v>
@@ -2865,8 +3033,11 @@
       <c r="N70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -2903,26 +3074,29 @@
       <c r="N71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-342700</v>
+      </c>
+      <c r="E72" s="3">
         <v>-327600</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>-312000</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>-298300</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>-285600</v>
       </c>
-      <c r="H72" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="I72" s="3" t="s">
         <v>3</v>
       </c>
@@ -2941,8 +3115,11 @@
       <c r="N72" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="73" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O72" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="73" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -2979,8 +3156,11 @@
       <c r="N73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3017,8 +3197,11 @@
       <c r="N74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3055,26 +3238,29 @@
       <c r="N75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>45000</v>
+      </c>
+      <c r="E76" s="3">
         <v>58200</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>72100</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>-287100</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>-275000</v>
       </c>
-      <c r="H76" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="I76" s="3" t="s">
         <v>3</v>
       </c>
@@ -3093,8 +3279,11 @@
       <c r="N76" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="77" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O76" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="77" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -3131,37 +3320,40 @@
       <c r="N77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44742</v>
+      </c>
+      <c r="E80" s="2">
         <v>44651</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44561</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44469</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44377</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44196</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44012</v>
       </c>
-      <c r="J80" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="K80" s="2" t="s">
         <v>3</v>
       </c>
@@ -3174,32 +3366,35 @@
       <c r="N80" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="81" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O80" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="81" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>-15100</v>
+      </c>
+      <c r="E81" s="3">
         <v>-15500</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>-13700</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>-12700</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>-22100</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>-46700</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>-23500</v>
       </c>
-      <c r="J81" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K81" s="3" t="s">
         <v>3</v>
       </c>
@@ -3212,8 +3407,11 @@
       <c r="N81" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="82" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O81" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="82" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -3228,8 +3426,9 @@
       <c r="L82" s="3"/>
       <c r="M82" s="3"/>
       <c r="N82" s="3"/>
-    </row>
-    <row r="83" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O82" s="3"/>
+    </row>
+    <row r="83" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -3237,23 +3436,23 @@
         <v>400</v>
       </c>
       <c r="E83" s="3">
-        <v>500</v>
+        <v>400</v>
       </c>
       <c r="F83" s="3">
         <v>500</v>
       </c>
       <c r="G83" s="3">
+        <v>500</v>
+      </c>
+      <c r="H83" s="3">
         <v>1000</v>
       </c>
-      <c r="H83" s="3">
+      <c r="I83" s="3">
         <v>3600</v>
       </c>
-      <c r="I83" s="3">
+      <c r="J83" s="3">
         <v>1900</v>
       </c>
-      <c r="J83" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K83" s="3" t="s">
         <v>3</v>
       </c>
@@ -3266,8 +3465,11 @@
       <c r="N83" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="84" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O83" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="84" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -3304,8 +3506,11 @@
       <c r="N84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -3342,8 +3547,11 @@
       <c r="N85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -3380,8 +3588,11 @@
       <c r="N86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -3418,8 +3629,11 @@
       <c r="N87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -3456,32 +3670,35 @@
       <c r="N88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>-13500</v>
+      </c>
+      <c r="E89" s="3">
         <v>-18000</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>-14700</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>-10000</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>-23900</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>-38500</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>-23500</v>
       </c>
-      <c r="J89" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K89" s="3" t="s">
         <v>3</v>
       </c>
@@ -3494,8 +3711,11 @@
       <c r="N89" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="90" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O89" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="90" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -3510,32 +3730,33 @@
       <c r="L90" s="3"/>
       <c r="M90" s="3"/>
       <c r="N90" s="3"/>
-    </row>
-    <row r="91" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O90" s="3"/>
+    </row>
+    <row r="91" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-700</v>
+      </c>
+      <c r="E91" s="3">
         <v>-100</v>
       </c>
-      <c r="E91" s="3">
+      <c r="F91" s="3">
         <v>-200</v>
       </c>
-      <c r="F91" s="3">
+      <c r="G91" s="3">
         <v>-300</v>
       </c>
-      <c r="G91" s="3">
+      <c r="H91" s="3">
         <v>-200</v>
       </c>
-      <c r="H91" s="3">
+      <c r="I91" s="3">
         <v>-900</v>
       </c>
-      <c r="I91" s="3">
+      <c r="J91" s="3">
         <v>-400</v>
       </c>
-      <c r="J91" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K91" s="3" t="s">
         <v>3</v>
       </c>
@@ -3548,8 +3769,11 @@
       <c r="N91" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="92" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O91" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="92" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -3586,8 +3810,11 @@
       <c r="N92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -3624,32 +3851,35 @@
       <c r="N93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>-35000</v>
+      </c>
+      <c r="E94" s="3">
         <v>-100</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
         <v>-200</v>
       </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
         <v>-300</v>
       </c>
-      <c r="G94" s="3">
+      <c r="H94" s="3">
         <v>-1500</v>
       </c>
-      <c r="H94" s="3">
+      <c r="I94" s="3">
         <v>-900</v>
       </c>
-      <c r="I94" s="3">
+      <c r="J94" s="3">
         <v>-400</v>
       </c>
-      <c r="J94" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K94" s="3" t="s">
         <v>3</v>
       </c>
@@ -3662,8 +3892,11 @@
       <c r="N94" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="95" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O94" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="95" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -3678,8 +3911,9 @@
       <c r="L95" s="3"/>
       <c r="M95" s="3"/>
       <c r="N95" s="3"/>
-    </row>
-    <row r="96" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O95" s="3"/>
+    </row>
+    <row r="96" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -3716,8 +3950,11 @@
       <c r="N96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -3754,8 +3991,11 @@
       <c r="N97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -3792,8 +4032,11 @@
       <c r="N98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -3830,31 +4073,34 @@
       <c r="N99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>0</v>
+      </c>
+      <c r="E100" s="3">
         <v>-500</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>85800</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>-1700</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>-600</v>
-      </c>
-      <c r="H100" s="3">
-        <v>-1000</v>
       </c>
       <c r="I100" s="3">
         <v>-1000</v>
       </c>
-      <c r="J100" s="3" t="s">
-        <v>3</v>
+      <c r="J100" s="3">
+        <v>-1000</v>
       </c>
       <c r="K100" s="3" t="s">
         <v>3</v>
@@ -3868,8 +4114,11 @@
       <c r="N100" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="101" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O100" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="101" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -3906,32 +4155,35 @@
       <c r="N101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>-48500</v>
+      </c>
+      <c r="E102" s="3">
         <v>-18600</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>70900</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>-12000</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>-26000</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>-40400</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>-24800</v>
       </c>
-      <c r="J102" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K102" s="3" t="s">
         <v>3</v>
       </c>
@@ -3942,6 +4194,9 @@
         <v>3</v>
       </c>
       <c r="N102" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O102" s="3" t="s">
         <v>3</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/SONX_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/SONX_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="362" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="364" uniqueCount="92">
   <si>
     <t>SONX</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:O102"/>
+  <dimension ref="A5:P102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,54 +665,55 @@
     <col min="1" max="1" width="7.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="15" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="16" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:16" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44834</v>
+      </c>
+      <c r="E7" s="2">
         <v>44742</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44651</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44561</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44469</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44377</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44196</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>44012</v>
       </c>
-      <c r="K7" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="L7" s="2" t="s">
         <v>3</v>
       </c>
@@ -725,35 +726,38 @@
       <c r="O7" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P7" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D8" s="3">
+        <v>9800</v>
+      </c>
+      <c r="E8" s="3">
         <v>10500</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>9000</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>9900</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>7900</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>15400</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>23400</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>8500</v>
       </c>
-      <c r="K8" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L8" s="3" t="s">
         <v>3</v>
       </c>
@@ -766,35 +770,38 @@
       <c r="O8" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P8" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="9" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D9" s="3">
+        <v>7500</v>
+      </c>
+      <c r="E9" s="3">
         <v>8000</v>
       </c>
-      <c r="E9" s="3">
+      <c r="F9" s="3">
         <v>6800</v>
       </c>
-      <c r="F9" s="3">
+      <c r="G9" s="3">
         <v>7400</v>
       </c>
-      <c r="G9" s="3">
+      <c r="H9" s="3">
         <v>5800</v>
       </c>
-      <c r="H9" s="3">
+      <c r="I9" s="3">
         <v>11600</v>
       </c>
-      <c r="I9" s="3">
+      <c r="J9" s="3">
         <v>19500</v>
       </c>
-      <c r="J9" s="3">
+      <c r="K9" s="3">
         <v>7600</v>
       </c>
-      <c r="K9" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L9" s="3" t="s">
         <v>3</v>
       </c>
@@ -807,35 +814,38 @@
       <c r="O9" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P9" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
       <c r="D10" s="3">
+        <v>2300</v>
+      </c>
+      <c r="E10" s="3">
         <v>2500</v>
       </c>
-      <c r="E10" s="3">
+      <c r="F10" s="3">
         <v>2200</v>
       </c>
-      <c r="F10" s="3">
+      <c r="G10" s="3">
         <v>2500</v>
       </c>
-      <c r="G10" s="3">
+      <c r="H10" s="3">
         <v>2100</v>
       </c>
-      <c r="H10" s="3">
+      <c r="I10" s="3">
         <v>3800</v>
       </c>
-      <c r="I10" s="3">
+      <c r="J10" s="3">
         <v>3900</v>
       </c>
-      <c r="J10" s="3">
+      <c r="K10" s="3">
         <v>900</v>
       </c>
-      <c r="K10" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L10" s="3" t="s">
         <v>3</v>
       </c>
@@ -848,8 +858,11 @@
       <c r="O10" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P10" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -865,35 +878,36 @@
       <c r="M11" s="3"/>
       <c r="N11" s="3"/>
       <c r="O11" s="3"/>
-    </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P11" s="3"/>
+    </row>
+    <row r="12" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
       <c r="D12" s="3">
+        <v>4300</v>
+      </c>
+      <c r="E12" s="3">
         <v>4000</v>
       </c>
-      <c r="E12" s="3">
+      <c r="F12" s="3">
         <v>4900</v>
       </c>
-      <c r="F12" s="3">
+      <c r="G12" s="3">
         <v>4300</v>
       </c>
-      <c r="G12" s="3">
+      <c r="H12" s="3">
         <v>4600</v>
       </c>
-      <c r="H12" s="3">
+      <c r="I12" s="3">
         <v>9700</v>
       </c>
-      <c r="I12" s="3">
+      <c r="J12" s="3">
         <v>20500</v>
       </c>
-      <c r="J12" s="3">
+      <c r="K12" s="3">
         <v>9600</v>
       </c>
-      <c r="K12" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L12" s="3" t="s">
         <v>3</v>
       </c>
@@ -906,8 +920,11 @@
       <c r="O12" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P12" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -947,8 +964,11 @@
       <c r="O13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -988,26 +1008,29 @@
       <c r="O14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D15" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="E15" s="3">
         <v>100</v>
       </c>
       <c r="F15" s="3">
+        <v>100</v>
+      </c>
+      <c r="G15" s="3">
         <v>200</v>
       </c>
-      <c r="G15" s="3">
+      <c r="H15" s="3">
         <v>100</v>
       </c>
-      <c r="H15" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="I15" s="3" t="s">
         <v>3</v>
       </c>
@@ -1017,8 +1040,8 @@
       <c r="K15" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="L15" s="3">
-        <v>0</v>
+      <c r="L15" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="M15" s="3">
         <v>0</v>
@@ -1029,8 +1052,11 @@
       <c r="O15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:16" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1043,35 +1069,36 @@
       <c r="M16" s="3"/>
       <c r="N16" s="3"/>
       <c r="O16" s="3"/>
-    </row>
-    <row r="17" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P16" s="3"/>
+    </row>
+    <row r="17" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>24400</v>
+      </c>
+      <c r="E17" s="3">
         <v>24800</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>23600</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>23500</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>19000</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>35200</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>66100</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>30400</v>
       </c>
-      <c r="K17" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L17" s="3" t="s">
         <v>3</v>
       </c>
@@ -1084,35 +1111,38 @@
       <c r="O17" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="18" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P17" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="18" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>-14600</v>
+      </c>
+      <c r="E18" s="3">
         <v>-14300</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>-14600</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>-13600</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>-11100</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>-19800</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>-42700</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>-21900</v>
       </c>
-      <c r="K18" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L18" s="3" t="s">
         <v>3</v>
       </c>
@@ -1125,8 +1155,11 @@
       <c r="O18" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="19" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P18" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="19" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1142,35 +1175,36 @@
       <c r="M19" s="3"/>
       <c r="N19" s="3"/>
       <c r="O19" s="3"/>
-    </row>
-    <row r="20" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P19" s="3"/>
+    </row>
+    <row r="20" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
+        <v>-900</v>
+      </c>
+      <c r="E20" s="3">
         <v>-800</v>
       </c>
-      <c r="E20" s="3">
+      <c r="F20" s="3">
         <v>-900</v>
       </c>
-      <c r="F20" s="3">
+      <c r="G20" s="3">
         <v>-200</v>
       </c>
-      <c r="G20" s="3">
+      <c r="H20" s="3">
         <v>-1600</v>
       </c>
-      <c r="H20" s="3">
+      <c r="I20" s="3">
         <v>-2300</v>
       </c>
-      <c r="I20" s="3">
+      <c r="J20" s="3">
         <v>-3900</v>
       </c>
-      <c r="J20" s="3">
+      <c r="K20" s="3">
         <v>-1700</v>
       </c>
-      <c r="K20" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L20" s="3" t="s">
         <v>3</v>
       </c>
@@ -1183,35 +1217,38 @@
       <c r="O20" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="21" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P20" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="21" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>-15100</v>
+      </c>
+      <c r="E21" s="3">
         <v>-14700</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
         <v>-15100</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>-13200</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>-12200</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>-21000</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>-43100</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>-21700</v>
       </c>
-      <c r="K21" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L21" s="3" t="s">
         <v>3</v>
       </c>
@@ -1224,8 +1261,11 @@
       <c r="O21" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="22" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P21" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="22" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1265,35 +1305,38 @@
       <c r="O22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>-15500</v>
+      </c>
+      <c r="E23" s="3">
         <v>-15100</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>-15500</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>-13700</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>-12700</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>-22100</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>-46700</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>-23500</v>
       </c>
-      <c r="K23" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L23" s="3" t="s">
         <v>3</v>
       </c>
@@ -1306,8 +1349,11 @@
       <c r="O23" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="24" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P23" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="24" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
@@ -1320,23 +1366,23 @@
       <c r="F24" s="3">
         <v>0</v>
       </c>
-      <c r="G24" s="3" t="s">
-        <v>3</v>
+      <c r="G24" s="3">
+        <v>0</v>
       </c>
       <c r="H24" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="I24" s="3">
-        <v>0</v>
-      </c>
-      <c r="J24" s="3" t="s">
-        <v>3</v>
+      <c r="I24" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="J24" s="3">
+        <v>0</v>
       </c>
       <c r="K24" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="L24" s="3">
-        <v>0</v>
+      <c r="L24" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="M24" s="3">
         <v>0</v>
@@ -1347,8 +1393,11 @@
       <c r="O24" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1388,35 +1437,38 @@
       <c r="O25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>-15500</v>
+      </c>
+      <c r="E26" s="3">
         <v>-15100</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>-15500</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>-13700</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>-12700</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>-22100</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>-46700</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>-23500</v>
       </c>
-      <c r="K26" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L26" s="3" t="s">
         <v>3</v>
       </c>
@@ -1429,35 +1481,38 @@
       <c r="O26" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="27" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P26" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="27" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>-15500</v>
+      </c>
+      <c r="E27" s="3">
         <v>-15100</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>-15500</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>-13700</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>-12700</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>-22100</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>-46700</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>-23500</v>
       </c>
-      <c r="K27" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L27" s="3" t="s">
         <v>3</v>
       </c>
@@ -1470,8 +1525,11 @@
       <c r="O27" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="28" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P27" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="28" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1511,8 +1569,11 @@
       <c r="O28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1531,11 +1592,11 @@
       <c r="H29" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="I29" s="3">
-        <v>0</v>
-      </c>
-      <c r="J29" s="3" t="s">
-        <v>3</v>
+      <c r="I29" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="J29" s="3">
+        <v>0</v>
       </c>
       <c r="K29" s="3" t="s">
         <v>3</v>
@@ -1552,8 +1613,11 @@
       <c r="O29" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="30" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P29" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="30" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1593,8 +1657,11 @@
       <c r="O30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1634,35 +1701,38 @@
       <c r="O31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>900</v>
+      </c>
+      <c r="E32" s="3">
         <v>800</v>
       </c>
-      <c r="E32" s="3">
+      <c r="F32" s="3">
         <v>900</v>
       </c>
-      <c r="F32" s="3">
+      <c r="G32" s="3">
         <v>200</v>
       </c>
-      <c r="G32" s="3">
+      <c r="H32" s="3">
         <v>1600</v>
       </c>
-      <c r="H32" s="3">
+      <c r="I32" s="3">
         <v>2300</v>
       </c>
-      <c r="I32" s="3">
+      <c r="J32" s="3">
         <v>3900</v>
       </c>
-      <c r="J32" s="3">
+      <c r="K32" s="3">
         <v>1700</v>
       </c>
-      <c r="K32" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L32" s="3" t="s">
         <v>3</v>
       </c>
@@ -1675,35 +1745,38 @@
       <c r="O32" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="33" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P32" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="33" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>-15500</v>
+      </c>
+      <c r="E33" s="3">
         <v>-15100</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>-15500</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>-13700</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>-12700</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>-22100</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>-46700</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>-23500</v>
       </c>
-      <c r="K33" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L33" s="3" t="s">
         <v>3</v>
       </c>
@@ -1716,8 +1789,11 @@
       <c r="O33" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="34" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P33" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="34" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1757,35 +1833,38 @@
       <c r="O34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>-15500</v>
+      </c>
+      <c r="E35" s="3">
         <v>-15100</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>-15500</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>-13700</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>-12700</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>-22100</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>-46700</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>-23500</v>
       </c>
-      <c r="K35" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L35" s="3" t="s">
         <v>3</v>
       </c>
@@ -1798,40 +1877,43 @@
       <c r="O35" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="37" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P35" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="37" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44834</v>
+      </c>
+      <c r="E38" s="2">
         <v>44742</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44651</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44561</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44469</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44377</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44196</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>44012</v>
       </c>
-      <c r="K38" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="L38" s="2" t="s">
         <v>3</v>
       </c>
@@ -1844,8 +1926,11 @@
       <c r="O38" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="39" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P38" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="39" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1861,8 +1946,9 @@
       <c r="M39" s="3"/>
       <c r="N39" s="3"/>
       <c r="O39" s="3"/>
-    </row>
-    <row r="40" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P39" s="3"/>
+    </row>
+    <row r="40" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1878,29 +1964,30 @@
       <c r="M40" s="3"/>
       <c r="N40" s="3"/>
       <c r="O40" s="3"/>
-    </row>
-    <row r="41" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P40" s="3"/>
+    </row>
+    <row r="41" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>68500</v>
+      </c>
+      <c r="E41" s="3">
         <v>17600</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>66100</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>84600</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>13700</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>25700</v>
       </c>
-      <c r="I41" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J41" s="3" t="s">
         <v>3</v>
       </c>
@@ -1919,17 +2006,20 @@
       <c r="O41" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="42" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P41" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="42" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
+        <v>37100</v>
+      </c>
+      <c r="E42" s="3">
         <v>34200</v>
       </c>
-      <c r="E42" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="F42" s="3" t="s">
         <v>3</v>
       </c>
@@ -1945,8 +2035,8 @@
       <c r="J42" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K42" s="3">
-        <v>0</v>
+      <c r="K42" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="L42" s="3">
         <v>0</v>
@@ -1960,29 +2050,32 @@
       <c r="O42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>3300</v>
+      </c>
+      <c r="E43" s="3">
         <v>3200</v>
       </c>
-      <c r="E43" s="3">
+      <c r="F43" s="3">
         <v>2700</v>
       </c>
-      <c r="F43" s="3">
+      <c r="G43" s="3">
         <v>2500</v>
       </c>
-      <c r="G43" s="3">
+      <c r="H43" s="3">
         <v>1900</v>
       </c>
-      <c r="H43" s="3">
+      <c r="I43" s="3">
         <v>2300</v>
       </c>
-      <c r="I43" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J43" s="3" t="s">
         <v>3</v>
       </c>
@@ -2001,29 +2094,32 @@
       <c r="O43" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="44" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P43" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="44" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
+        <v>15200</v>
+      </c>
+      <c r="E44" s="3">
         <v>12700</v>
       </c>
-      <c r="E44" s="3">
+      <c r="F44" s="3">
         <v>10100</v>
       </c>
-      <c r="F44" s="3">
+      <c r="G44" s="3">
         <v>8200</v>
       </c>
-      <c r="G44" s="3">
+      <c r="H44" s="3">
         <v>7200</v>
       </c>
-      <c r="H44" s="3">
+      <c r="I44" s="3">
         <v>5800</v>
       </c>
-      <c r="I44" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J44" s="3" t="s">
         <v>3</v>
       </c>
@@ -2042,29 +2138,32 @@
       <c r="O44" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="45" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P44" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="45" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>4000</v>
+        <v>2900</v>
       </c>
       <c r="E45" s="3">
         <v>4000</v>
       </c>
       <c r="F45" s="3">
+        <v>4000</v>
+      </c>
+      <c r="G45" s="3">
         <v>3600</v>
       </c>
-      <c r="G45" s="3">
+      <c r="H45" s="3">
         <v>3400</v>
       </c>
-      <c r="H45" s="3">
+      <c r="I45" s="3">
         <v>800</v>
       </c>
-      <c r="I45" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J45" s="3" t="s">
         <v>3</v>
       </c>
@@ -2083,29 +2182,32 @@
       <c r="O45" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="46" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P45" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="46" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>127000</v>
+      </c>
+      <c r="E46" s="3">
         <v>71700</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>82900</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>98900</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>26300</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>34700</v>
       </c>
-      <c r="I46" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J46" s="3" t="s">
         <v>3</v>
       </c>
@@ -2124,8 +2226,11 @@
       <c r="O46" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="47" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P46" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="47" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -2165,29 +2270,32 @@
       <c r="O47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>4900</v>
+      </c>
+      <c r="E48" s="3">
         <v>5000</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>4700</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>5100</v>
       </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
         <v>5500</v>
       </c>
-      <c r="H48" s="3">
+      <c r="I48" s="3">
         <v>6000</v>
       </c>
-      <c r="I48" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J48" s="3" t="s">
         <v>3</v>
       </c>
@@ -2206,29 +2314,32 @@
       <c r="O48" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="49" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P48" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="49" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
+        <v>10900</v>
+      </c>
+      <c r="E49" s="3">
         <v>11100</v>
       </c>
-      <c r="E49" s="3">
+      <c r="F49" s="3">
         <v>11200</v>
       </c>
-      <c r="F49" s="3">
+      <c r="G49" s="3">
         <v>11400</v>
       </c>
-      <c r="G49" s="3">
+      <c r="H49" s="3">
         <v>11600</v>
       </c>
-      <c r="H49" s="3">
+      <c r="I49" s="3">
         <v>11700</v>
       </c>
-      <c r="I49" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J49" s="3" t="s">
         <v>3</v>
       </c>
@@ -2247,8 +2358,11 @@
       <c r="O49" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="50" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P49" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="50" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2288,8 +2402,11 @@
       <c r="O50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2329,8 +2446,11 @@
       <c r="O51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
@@ -2349,8 +2469,8 @@
       <c r="H52" s="3">
         <v>100</v>
       </c>
-      <c r="I52" s="3" t="s">
-        <v>3</v>
+      <c r="I52" s="3">
+        <v>100</v>
       </c>
       <c r="J52" s="3" t="s">
         <v>3</v>
@@ -2370,8 +2490,11 @@
       <c r="O52" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="53" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P52" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="53" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2411,29 +2534,32 @@
       <c r="O53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>142900</v>
+      </c>
+      <c r="E54" s="3">
         <v>87900</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>98900</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>115500</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>43400</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>52500</v>
       </c>
-      <c r="I54" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J54" s="3" t="s">
         <v>3</v>
       </c>
@@ -2452,8 +2578,11 @@
       <c r="O54" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="55" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P54" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="55" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2469,8 +2598,9 @@
       <c r="M55" s="3"/>
       <c r="N55" s="3"/>
       <c r="O55" s="3"/>
-    </row>
-    <row r="56" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P55" s="3"/>
+    </row>
+    <row r="56" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2486,29 +2616,30 @@
       <c r="M56" s="3"/>
       <c r="N56" s="3"/>
       <c r="O56" s="3"/>
-    </row>
-    <row r="57" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P56" s="3"/>
+    </row>
+    <row r="57" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>2100</v>
+      </c>
+      <c r="E57" s="3">
         <v>2400</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>2200</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>3100</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>2000</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>1100</v>
       </c>
-      <c r="I57" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J57" s="3" t="s">
         <v>3</v>
       </c>
@@ -2527,8 +2658,11 @@
       <c r="O57" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="58" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P57" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="58" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -2541,15 +2675,15 @@
       <c r="F58" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="G58" s="3">
-        <v>0</v>
+      <c r="G58" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="H58" s="3">
+        <v>0</v>
+      </c>
+      <c r="I58" s="3">
         <v>28800</v>
       </c>
-      <c r="I58" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J58" s="3" t="s">
         <v>3</v>
       </c>
@@ -2568,29 +2702,32 @@
       <c r="O58" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="59" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P58" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="59" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>12300</v>
+      </c>
+      <c r="E59" s="3">
         <v>11900</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>9900</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>11600</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>10800</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>8800</v>
       </c>
-      <c r="I59" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J59" s="3" t="s">
         <v>3</v>
       </c>
@@ -2609,8 +2746,11 @@
       <c r="O59" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="60" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P59" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="60" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
@@ -2618,20 +2758,20 @@
         <v>14300</v>
       </c>
       <c r="E60" s="3">
+        <v>14300</v>
+      </c>
+      <c r="F60" s="3">
         <v>12100</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>14700</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>12800</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>38700</v>
       </c>
-      <c r="I60" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J60" s="3" t="s">
         <v>3</v>
       </c>
@@ -2650,26 +2790,29 @@
       <c r="O60" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="61" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P60" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="61" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>26600</v>
+        <v>36600</v>
       </c>
       <c r="E61" s="3">
         <v>26600</v>
       </c>
       <c r="F61" s="3">
+        <v>26600</v>
+      </c>
+      <c r="G61" s="3">
         <v>26500</v>
       </c>
-      <c r="G61" s="3">
+      <c r="H61" s="3">
         <v>26400</v>
       </c>
-      <c r="H61" s="3">
-        <v>0</v>
-      </c>
       <c r="I61" s="3">
         <v>0</v>
       </c>
@@ -2691,29 +2834,32 @@
       <c r="O61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>1600</v>
+      </c>
+      <c r="E62" s="3">
         <v>1900</v>
       </c>
-      <c r="E62" s="3">
+      <c r="F62" s="3">
         <v>2000</v>
       </c>
-      <c r="F62" s="3">
+      <c r="G62" s="3">
         <v>2300</v>
       </c>
-      <c r="G62" s="3">
+      <c r="H62" s="3">
         <v>10000</v>
       </c>
-      <c r="H62" s="3">
+      <c r="I62" s="3">
         <v>7400</v>
       </c>
-      <c r="I62" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J62" s="3" t="s">
         <v>3</v>
       </c>
@@ -2732,8 +2878,11 @@
       <c r="O62" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="63" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P62" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="63" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2773,8 +2922,11 @@
       <c r="O63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -2814,8 +2966,11 @@
       <c r="O64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -2855,29 +3010,32 @@
       <c r="O65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>52600</v>
+      </c>
+      <c r="E66" s="3">
         <v>42900</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>40700</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>43400</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>49100</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>46100</v>
       </c>
-      <c r="I66" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J66" s="3" t="s">
         <v>3</v>
       </c>
@@ -2896,8 +3054,11 @@
       <c r="O66" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="67" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P66" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="67" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -2913,8 +3074,9 @@
       <c r="M67" s="3"/>
       <c r="N67" s="3"/>
       <c r="O67" s="3"/>
-    </row>
-    <row r="68" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P67" s="3"/>
+    </row>
+    <row r="68" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -2954,8 +3116,11 @@
       <c r="O68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -2995,8 +3160,11 @@
       <c r="O69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -3010,13 +3178,13 @@
         <v>0</v>
       </c>
       <c r="G70" s="3">
-        <v>281300</v>
+        <v>0</v>
       </c>
       <c r="H70" s="3">
         <v>281300</v>
       </c>
       <c r="I70" s="3">
-        <v>0</v>
+        <v>281300</v>
       </c>
       <c r="J70" s="3">
         <v>0</v>
@@ -3036,8 +3204,11 @@
       <c r="O70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3077,29 +3248,32 @@
       <c r="O71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-358200</v>
+      </c>
+      <c r="E72" s="3">
         <v>-342700</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>-327600</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>-312000</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>-298300</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>-285600</v>
       </c>
-      <c r="I72" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J72" s="3" t="s">
         <v>3</v>
       </c>
@@ -3118,8 +3292,11 @@
       <c r="O72" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="73" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P72" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="73" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -3159,8 +3336,11 @@
       <c r="O73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3200,8 +3380,11 @@
       <c r="O74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3241,29 +3424,32 @@
       <c r="O75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>90400</v>
+      </c>
+      <c r="E76" s="3">
         <v>45000</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>58200</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>72100</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>-287100</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>-275000</v>
       </c>
-      <c r="I76" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J76" s="3" t="s">
         <v>3</v>
       </c>
@@ -3282,8 +3468,11 @@
       <c r="O76" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="77" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P76" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="77" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -3323,40 +3512,43 @@
       <c r="O77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44834</v>
+      </c>
+      <c r="E80" s="2">
         <v>44742</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44651</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44561</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44469</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44377</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44196</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>44012</v>
       </c>
-      <c r="K80" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="L80" s="2" t="s">
         <v>3</v>
       </c>
@@ -3369,35 +3561,38 @@
       <c r="O80" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="81" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P80" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="81" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>-15500</v>
+      </c>
+      <c r="E81" s="3">
         <v>-15100</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>-15500</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>-13700</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>-12700</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>-22100</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>-46700</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>-23500</v>
       </c>
-      <c r="K81" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L81" s="3" t="s">
         <v>3</v>
       </c>
@@ -3410,8 +3605,11 @@
       <c r="O81" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="82" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P81" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="82" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -3427,8 +3625,9 @@
       <c r="M82" s="3"/>
       <c r="N82" s="3"/>
       <c r="O82" s="3"/>
-    </row>
-    <row r="83" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P82" s="3"/>
+    </row>
+    <row r="83" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -3439,23 +3638,23 @@
         <v>400</v>
       </c>
       <c r="F83" s="3">
-        <v>500</v>
+        <v>400</v>
       </c>
       <c r="G83" s="3">
         <v>500</v>
       </c>
       <c r="H83" s="3">
+        <v>500</v>
+      </c>
+      <c r="I83" s="3">
         <v>1000</v>
       </c>
-      <c r="I83" s="3">
+      <c r="J83" s="3">
         <v>3600</v>
       </c>
-      <c r="J83" s="3">
+      <c r="K83" s="3">
         <v>1900</v>
       </c>
-      <c r="K83" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L83" s="3" t="s">
         <v>3</v>
       </c>
@@ -3468,8 +3667,11 @@
       <c r="O83" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="84" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P83" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="84" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -3509,8 +3711,11 @@
       <c r="O84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -3550,8 +3755,11 @@
       <c r="O85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -3591,8 +3799,11 @@
       <c r="O86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -3632,8 +3843,11 @@
       <c r="O87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -3673,35 +3887,38 @@
       <c r="O88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>-15300</v>
+      </c>
+      <c r="E89" s="3">
         <v>-13500</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>-18000</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>-14700</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>-10000</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>-23900</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>-38500</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>-23500</v>
       </c>
-      <c r="K89" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L89" s="3" t="s">
         <v>3</v>
       </c>
@@ -3714,8 +3931,11 @@
       <c r="O89" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="90" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P89" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="90" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -3731,35 +3951,36 @@
       <c r="M90" s="3"/>
       <c r="N90" s="3"/>
       <c r="O90" s="3"/>
-    </row>
-    <row r="91" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P90" s="3"/>
+    </row>
+    <row r="91" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-200</v>
+      </c>
+      <c r="E91" s="3">
         <v>-700</v>
       </c>
-      <c r="E91" s="3">
+      <c r="F91" s="3">
         <v>-100</v>
       </c>
-      <c r="F91" s="3">
+      <c r="G91" s="3">
         <v>-200</v>
       </c>
-      <c r="G91" s="3">
+      <c r="H91" s="3">
         <v>-300</v>
       </c>
-      <c r="H91" s="3">
+      <c r="I91" s="3">
         <v>-200</v>
       </c>
-      <c r="I91" s="3">
+      <c r="J91" s="3">
         <v>-900</v>
       </c>
-      <c r="J91" s="3">
+      <c r="K91" s="3">
         <v>-400</v>
       </c>
-      <c r="K91" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L91" s="3" t="s">
         <v>3</v>
       </c>
@@ -3772,8 +3993,11 @@
       <c r="O91" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="92" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P91" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="92" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -3813,8 +4037,11 @@
       <c r="O92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -3854,35 +4081,38 @@
       <c r="O93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>-2900</v>
+      </c>
+      <c r="E94" s="3">
         <v>-35000</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
         <v>-100</v>
       </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
         <v>-200</v>
       </c>
-      <c r="G94" s="3">
+      <c r="H94" s="3">
         <v>-300</v>
       </c>
-      <c r="H94" s="3">
+      <c r="I94" s="3">
         <v>-1500</v>
       </c>
-      <c r="I94" s="3">
+      <c r="J94" s="3">
         <v>-900</v>
       </c>
-      <c r="J94" s="3">
+      <c r="K94" s="3">
         <v>-400</v>
       </c>
-      <c r="K94" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L94" s="3" t="s">
         <v>3</v>
       </c>
@@ -3895,8 +4125,11 @@
       <c r="O94" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="95" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P94" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="95" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -3912,8 +4145,9 @@
       <c r="M95" s="3"/>
       <c r="N95" s="3"/>
       <c r="O95" s="3"/>
-    </row>
-    <row r="96" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P95" s="3"/>
+    </row>
+    <row r="96" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -3953,8 +4187,11 @@
       <c r="O96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -3994,8 +4231,11 @@
       <c r="O97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -4035,8 +4275,11 @@
       <c r="O98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -4076,34 +4319,37 @@
       <c r="O99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>0</v>
+        <v>69200</v>
       </c>
       <c r="E100" s="3">
+        <v>0</v>
+      </c>
+      <c r="F100" s="3">
         <v>-500</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>85800</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>-1700</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>-600</v>
-      </c>
-      <c r="I100" s="3">
-        <v>-1000</v>
       </c>
       <c r="J100" s="3">
         <v>-1000</v>
       </c>
-      <c r="K100" s="3" t="s">
-        <v>3</v>
+      <c r="K100" s="3">
+        <v>-1000</v>
       </c>
       <c r="L100" s="3" t="s">
         <v>3</v>
@@ -4117,8 +4363,11 @@
       <c r="O100" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="101" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P100" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="101" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -4158,35 +4407,38 @@
       <c r="O101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>50900</v>
+      </c>
+      <c r="E102" s="3">
         <v>-48500</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>-18600</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>70900</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>-12000</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>-26000</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>-40400</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>-24800</v>
       </c>
-      <c r="K102" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L102" s="3" t="s">
         <v>3</v>
       </c>
@@ -4197,6 +4449,9 @@
         <v>3</v>
       </c>
       <c r="O102" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="P102" s="3" t="s">
         <v>3</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/SONX_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/SONX_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="364" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="373" uniqueCount="92">
   <si>
     <t>SONX</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:P102"/>
+  <dimension ref="A5:Q102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,58 +665,58 @@
     <col min="1" max="1" width="7.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="16" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="5" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="9" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="17" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:17" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44926</v>
+      </c>
+      <c r="E7" s="2">
         <v>44834</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44742</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44651</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44561</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44469</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44377</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>44196</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>44012</v>
       </c>
-      <c r="L7" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="M7" s="2" t="s">
         <v>3</v>
       </c>
@@ -729,38 +729,41 @@
       <c r="P7" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q7" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D8" s="3">
+        <v>12200</v>
+      </c>
+      <c r="E8" s="3">
         <v>9800</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>10500</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>9000</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>9900</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>7900</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>15400</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>23400</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>8500</v>
       </c>
-      <c r="L8" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M8" s="3" t="s">
         <v>3</v>
       </c>
@@ -773,38 +776,41 @@
       <c r="P8" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="9" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q8" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="9" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D9" s="3">
+        <v>8900</v>
+      </c>
+      <c r="E9" s="3">
         <v>7500</v>
       </c>
-      <c r="E9" s="3">
+      <c r="F9" s="3">
         <v>8000</v>
       </c>
-      <c r="F9" s="3">
+      <c r="G9" s="3">
         <v>6800</v>
       </c>
-      <c r="G9" s="3">
+      <c r="H9" s="3">
         <v>7400</v>
       </c>
-      <c r="H9" s="3">
+      <c r="I9" s="3">
         <v>5800</v>
       </c>
-      <c r="I9" s="3">
+      <c r="J9" s="3">
         <v>11600</v>
       </c>
-      <c r="J9" s="3">
+      <c r="K9" s="3">
         <v>19500</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>7600</v>
       </c>
-      <c r="L9" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M9" s="3" t="s">
         <v>3</v>
       </c>
@@ -817,38 +823,41 @@
       <c r="P9" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="10" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q9" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
       <c r="D10" s="3">
+        <v>3300</v>
+      </c>
+      <c r="E10" s="3">
         <v>2300</v>
       </c>
-      <c r="E10" s="3">
+      <c r="F10" s="3">
         <v>2500</v>
       </c>
-      <c r="F10" s="3">
+      <c r="G10" s="3">
         <v>2200</v>
       </c>
-      <c r="G10" s="3">
+      <c r="H10" s="3">
         <v>2500</v>
       </c>
-      <c r="H10" s="3">
+      <c r="I10" s="3">
         <v>2100</v>
       </c>
-      <c r="I10" s="3">
+      <c r="J10" s="3">
         <v>3800</v>
       </c>
-      <c r="J10" s="3">
+      <c r="K10" s="3">
         <v>3900</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>900</v>
       </c>
-      <c r="L10" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M10" s="3" t="s">
         <v>3</v>
       </c>
@@ -861,8 +870,11 @@
       <c r="P10" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="11" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q10" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -879,38 +891,39 @@
       <c r="N11" s="3"/>
       <c r="O11" s="3"/>
       <c r="P11" s="3"/>
-    </row>
-    <row r="12" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q11" s="3"/>
+    </row>
+    <row r="12" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
       <c r="D12" s="3">
+        <v>3600</v>
+      </c>
+      <c r="E12" s="3">
         <v>4300</v>
       </c>
-      <c r="E12" s="3">
+      <c r="F12" s="3">
         <v>4000</v>
       </c>
-      <c r="F12" s="3">
+      <c r="G12" s="3">
         <v>4900</v>
       </c>
-      <c r="G12" s="3">
+      <c r="H12" s="3">
         <v>4300</v>
       </c>
-      <c r="H12" s="3">
+      <c r="I12" s="3">
         <v>4600</v>
       </c>
-      <c r="I12" s="3">
+      <c r="J12" s="3">
         <v>9700</v>
       </c>
-      <c r="J12" s="3">
+      <c r="K12" s="3">
         <v>20500</v>
       </c>
-      <c r="K12" s="3">
+      <c r="L12" s="3">
         <v>9600</v>
       </c>
-      <c r="L12" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M12" s="3" t="s">
         <v>3</v>
       </c>
@@ -923,8 +936,11 @@
       <c r="P12" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="13" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q12" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -967,31 +983,34 @@
       <c r="P13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D14" s="3">
-        <v>0</v>
-      </c>
-      <c r="E14" s="3">
-        <v>0</v>
-      </c>
-      <c r="F14" s="3">
-        <v>0</v>
-      </c>
-      <c r="G14" s="3">
-        <v>0</v>
-      </c>
-      <c r="H14" s="3">
-        <v>0</v>
-      </c>
-      <c r="I14" s="3">
-        <v>0</v>
-      </c>
-      <c r="J14" s="3">
-        <v>0</v>
+        <v>-4400</v>
+      </c>
+      <c r="E14" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="F14" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="G14" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="H14" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="I14" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="J14" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="K14" s="3">
         <v>0</v>
@@ -1011,29 +1030,32 @@
       <c r="P14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="D15" s="3">
+      <c r="D15" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E15" s="3">
         <v>200</v>
-      </c>
-      <c r="E15" s="3">
-        <v>100</v>
       </c>
       <c r="F15" s="3">
         <v>100</v>
       </c>
       <c r="G15" s="3">
+        <v>100</v>
+      </c>
+      <c r="H15" s="3">
         <v>200</v>
       </c>
-      <c r="H15" s="3">
+      <c r="I15" s="3">
         <v>100</v>
       </c>
-      <c r="I15" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J15" s="3" t="s">
         <v>3</v>
       </c>
@@ -1043,8 +1065,8 @@
       <c r="L15" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="M15" s="3">
-        <v>0</v>
+      <c r="M15" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="N15" s="3">
         <v>0</v>
@@ -1055,8 +1077,11 @@
       <c r="P15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:17" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1070,38 +1095,39 @@
       <c r="N16" s="3"/>
       <c r="O16" s="3"/>
       <c r="P16" s="3"/>
-    </row>
-    <row r="17" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q16" s="3"/>
+    </row>
+    <row r="17" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>22600</v>
+      </c>
+      <c r="E17" s="3">
         <v>24400</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>24800</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>23600</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>23500</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>19000</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>35200</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>66100</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>30400</v>
       </c>
-      <c r="L17" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M17" s="3" t="s">
         <v>3</v>
       </c>
@@ -1114,38 +1140,41 @@
       <c r="P17" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="18" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q17" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="18" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>-10400</v>
+      </c>
+      <c r="E18" s="3">
         <v>-14600</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>-14300</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>-14600</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>-13600</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>-11100</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>-19800</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>-42700</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>-21900</v>
       </c>
-      <c r="L18" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M18" s="3" t="s">
         <v>3</v>
       </c>
@@ -1158,8 +1187,11 @@
       <c r="P18" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="19" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q18" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="19" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1176,38 +1208,39 @@
       <c r="N19" s="3"/>
       <c r="O19" s="3"/>
       <c r="P19" s="3"/>
-    </row>
-    <row r="20" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q19" s="3"/>
+    </row>
+    <row r="20" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
+        <v>-400</v>
+      </c>
+      <c r="E20" s="3">
         <v>-900</v>
       </c>
-      <c r="E20" s="3">
+      <c r="F20" s="3">
         <v>-800</v>
       </c>
-      <c r="F20" s="3">
+      <c r="G20" s="3">
         <v>-900</v>
       </c>
-      <c r="G20" s="3">
+      <c r="H20" s="3">
         <v>-200</v>
       </c>
-      <c r="H20" s="3">
+      <c r="I20" s="3">
         <v>-1600</v>
       </c>
-      <c r="I20" s="3">
+      <c r="J20" s="3">
         <v>-2300</v>
       </c>
-      <c r="J20" s="3">
+      <c r="K20" s="3">
         <v>-3900</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>-1700</v>
       </c>
-      <c r="L20" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M20" s="3" t="s">
         <v>3</v>
       </c>
@@ -1220,38 +1253,41 @@
       <c r="P20" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="21" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q20" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="21" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>-10400</v>
+      </c>
+      <c r="E21" s="3">
         <v>-15100</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
         <v>-14700</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>-15100</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>-13200</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>-12200</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>-21000</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>-43100</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>-21700</v>
       </c>
-      <c r="L21" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M21" s="3" t="s">
         <v>3</v>
       </c>
@@ -1264,8 +1300,11 @@
       <c r="P21" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="22" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q21" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="22" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1308,38 +1347,41 @@
       <c r="P22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>-10900</v>
+      </c>
+      <c r="E23" s="3">
         <v>-15500</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>-15100</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>-15500</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>-13700</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>-12700</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>-22100</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>-46700</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>-23500</v>
       </c>
-      <c r="L23" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M23" s="3" t="s">
         <v>3</v>
       </c>
@@ -1352,8 +1394,11 @@
       <c r="P23" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="24" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q23" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="24" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
@@ -1369,23 +1414,23 @@
       <c r="G24" s="3">
         <v>0</v>
       </c>
-      <c r="H24" s="3" t="s">
-        <v>3</v>
+      <c r="H24" s="3">
+        <v>0</v>
       </c>
       <c r="I24" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="J24" s="3">
-        <v>0</v>
-      </c>
-      <c r="K24" s="3" t="s">
-        <v>3</v>
+      <c r="J24" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="K24" s="3">
+        <v>0</v>
       </c>
       <c r="L24" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="M24" s="3">
-        <v>0</v>
+      <c r="M24" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="N24" s="3">
         <v>0</v>
@@ -1396,8 +1441,11 @@
       <c r="P24" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1440,38 +1488,41 @@
       <c r="P25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>-10900</v>
+      </c>
+      <c r="E26" s="3">
         <v>-15500</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>-15100</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>-15500</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>-13700</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>-12700</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>-22100</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>-46700</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>-23500</v>
       </c>
-      <c r="L26" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M26" s="3" t="s">
         <v>3</v>
       </c>
@@ -1484,38 +1535,41 @@
       <c r="P26" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="27" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q26" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="27" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>-10900</v>
+      </c>
+      <c r="E27" s="3">
         <v>-15500</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>-15100</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>-15500</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>-13700</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>-12700</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>-22100</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>-46700</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>-23500</v>
       </c>
-      <c r="L27" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M27" s="3" t="s">
         <v>3</v>
       </c>
@@ -1528,8 +1582,11 @@
       <c r="P27" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="28" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q27" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="28" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1572,8 +1629,11 @@
       <c r="P28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1595,11 +1655,11 @@
       <c r="I29" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="J29" s="3">
-        <v>0</v>
-      </c>
-      <c r="K29" s="3" t="s">
-        <v>3</v>
+      <c r="J29" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="K29" s="3">
+        <v>0</v>
       </c>
       <c r="L29" s="3" t="s">
         <v>3</v>
@@ -1616,8 +1676,11 @@
       <c r="P29" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="30" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q29" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="30" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1660,8 +1723,11 @@
       <c r="P30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1704,38 +1770,41 @@
       <c r="P31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>400</v>
+      </c>
+      <c r="E32" s="3">
         <v>900</v>
       </c>
-      <c r="E32" s="3">
+      <c r="F32" s="3">
         <v>800</v>
       </c>
-      <c r="F32" s="3">
+      <c r="G32" s="3">
         <v>900</v>
       </c>
-      <c r="G32" s="3">
+      <c r="H32" s="3">
         <v>200</v>
       </c>
-      <c r="H32" s="3">
+      <c r="I32" s="3">
         <v>1600</v>
       </c>
-      <c r="I32" s="3">
+      <c r="J32" s="3">
         <v>2300</v>
       </c>
-      <c r="J32" s="3">
+      <c r="K32" s="3">
         <v>3900</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>1700</v>
       </c>
-      <c r="L32" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M32" s="3" t="s">
         <v>3</v>
       </c>
@@ -1748,38 +1817,41 @@
       <c r="P32" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="33" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q32" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="33" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>-10900</v>
+      </c>
+      <c r="E33" s="3">
         <v>-15500</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>-15100</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>-15500</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>-13700</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>-12700</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>-22100</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>-46700</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>-23500</v>
       </c>
-      <c r="L33" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M33" s="3" t="s">
         <v>3</v>
       </c>
@@ -1792,8 +1864,11 @@
       <c r="P33" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="34" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q33" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="34" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1836,38 +1911,41 @@
       <c r="P34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>-10900</v>
+      </c>
+      <c r="E35" s="3">
         <v>-15500</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>-15100</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>-15500</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>-13700</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>-12700</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>-22100</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>-46700</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>-23500</v>
       </c>
-      <c r="L35" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M35" s="3" t="s">
         <v>3</v>
       </c>
@@ -1880,43 +1958,46 @@
       <c r="P35" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="37" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q35" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="37" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44926</v>
+      </c>
+      <c r="E38" s="2">
         <v>44834</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44742</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44651</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44561</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44469</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44377</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>44196</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>44012</v>
       </c>
-      <c r="L38" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="M38" s="2" t="s">
         <v>3</v>
       </c>
@@ -1929,8 +2010,11 @@
       <c r="P38" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="39" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q38" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="39" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1947,8 +2031,9 @@
       <c r="N39" s="3"/>
       <c r="O39" s="3"/>
       <c r="P39" s="3"/>
-    </row>
-    <row r="40" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q39" s="3"/>
+    </row>
+    <row r="40" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1965,32 +2050,33 @@
       <c r="N40" s="3"/>
       <c r="O40" s="3"/>
       <c r="P40" s="3"/>
-    </row>
-    <row r="41" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q40" s="3"/>
+    </row>
+    <row r="41" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>17700</v>
+      </c>
+      <c r="E41" s="3">
         <v>68500</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>17600</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>66100</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>84600</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>13700</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>25700</v>
       </c>
-      <c r="J41" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K41" s="3" t="s">
         <v>3</v>
       </c>
@@ -2009,20 +2095,23 @@
       <c r="P41" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="42" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q41" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="42" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
+        <v>73800</v>
+      </c>
+      <c r="E42" s="3">
         <v>37100</v>
       </c>
-      <c r="E42" s="3">
+      <c r="F42" s="3">
         <v>34200</v>
       </c>
-      <c r="F42" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="G42" s="3" t="s">
         <v>3</v>
       </c>
@@ -2038,8 +2127,8 @@
       <c r="K42" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="L42" s="3">
-        <v>0</v>
+      <c r="L42" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="M42" s="3">
         <v>0</v>
@@ -2053,32 +2142,35 @@
       <c r="P42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>5800</v>
+      </c>
+      <c r="E43" s="3">
         <v>3300</v>
       </c>
-      <c r="E43" s="3">
+      <c r="F43" s="3">
         <v>3200</v>
       </c>
-      <c r="F43" s="3">
+      <c r="G43" s="3">
         <v>2700</v>
       </c>
-      <c r="G43" s="3">
+      <c r="H43" s="3">
         <v>2500</v>
       </c>
-      <c r="H43" s="3">
+      <c r="I43" s="3">
         <v>1900</v>
       </c>
-      <c r="I43" s="3">
+      <c r="J43" s="3">
         <v>2300</v>
       </c>
-      <c r="J43" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K43" s="3" t="s">
         <v>3</v>
       </c>
@@ -2097,32 +2189,35 @@
       <c r="P43" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="44" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q43" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="44" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
+        <v>15500</v>
+      </c>
+      <c r="E44" s="3">
         <v>15200</v>
       </c>
-      <c r="E44" s="3">
+      <c r="F44" s="3">
         <v>12700</v>
       </c>
-      <c r="F44" s="3">
+      <c r="G44" s="3">
         <v>10100</v>
       </c>
-      <c r="G44" s="3">
+      <c r="H44" s="3">
         <v>8200</v>
       </c>
-      <c r="H44" s="3">
+      <c r="I44" s="3">
         <v>7200</v>
       </c>
-      <c r="I44" s="3">
+      <c r="J44" s="3">
         <v>5800</v>
       </c>
-      <c r="J44" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K44" s="3" t="s">
         <v>3</v>
       </c>
@@ -2141,32 +2236,35 @@
       <c r="P44" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="45" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q44" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="45" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>8400</v>
+      </c>
+      <c r="E45" s="3">
         <v>2900</v>
-      </c>
-      <c r="E45" s="3">
-        <v>4000</v>
       </c>
       <c r="F45" s="3">
         <v>4000</v>
       </c>
       <c r="G45" s="3">
+        <v>4000</v>
+      </c>
+      <c r="H45" s="3">
         <v>3600</v>
       </c>
-      <c r="H45" s="3">
+      <c r="I45" s="3">
         <v>3400</v>
       </c>
-      <c r="I45" s="3">
+      <c r="J45" s="3">
         <v>800</v>
       </c>
-      <c r="J45" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K45" s="3" t="s">
         <v>3</v>
       </c>
@@ -2185,32 +2283,35 @@
       <c r="P45" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="46" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q45" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="46" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>121100</v>
+      </c>
+      <c r="E46" s="3">
         <v>127000</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>71700</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>82900</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>98900</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>26300</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>34700</v>
       </c>
-      <c r="J46" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K46" s="3" t="s">
         <v>3</v>
       </c>
@@ -2229,8 +2330,11 @@
       <c r="P46" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="47" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q46" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="47" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -2273,32 +2377,35 @@
       <c r="P47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>5300</v>
+      </c>
+      <c r="E48" s="3">
         <v>4900</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>5000</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>4700</v>
       </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
         <v>5100</v>
       </c>
-      <c r="H48" s="3">
+      <c r="I48" s="3">
         <v>5500</v>
       </c>
-      <c r="I48" s="3">
+      <c r="J48" s="3">
         <v>6000</v>
       </c>
-      <c r="J48" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K48" s="3" t="s">
         <v>3</v>
       </c>
@@ -2317,32 +2424,35 @@
       <c r="P48" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="49" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q48" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="49" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
+        <v>10700</v>
+      </c>
+      <c r="E49" s="3">
         <v>10900</v>
       </c>
-      <c r="E49" s="3">
+      <c r="F49" s="3">
         <v>11100</v>
       </c>
-      <c r="F49" s="3">
+      <c r="G49" s="3">
         <v>11200</v>
       </c>
-      <c r="G49" s="3">
+      <c r="H49" s="3">
         <v>11400</v>
       </c>
-      <c r="H49" s="3">
+      <c r="I49" s="3">
         <v>11600</v>
       </c>
-      <c r="I49" s="3">
+      <c r="J49" s="3">
         <v>11700</v>
       </c>
-      <c r="J49" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K49" s="3" t="s">
         <v>3</v>
       </c>
@@ -2361,8 +2471,11 @@
       <c r="P49" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="50" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q49" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="50" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2405,8 +2518,11 @@
       <c r="P50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2449,8 +2565,11 @@
       <c r="P51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
@@ -2472,8 +2591,8 @@
       <c r="I52" s="3">
         <v>100</v>
       </c>
-      <c r="J52" s="3" t="s">
-        <v>3</v>
+      <c r="J52" s="3">
+        <v>100</v>
       </c>
       <c r="K52" s="3" t="s">
         <v>3</v>
@@ -2493,8 +2612,11 @@
       <c r="P52" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="53" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q52" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="53" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2537,32 +2659,35 @@
       <c r="P53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>137300</v>
+      </c>
+      <c r="E54" s="3">
         <v>142900</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>87900</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>98900</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>115500</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>43400</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>52500</v>
       </c>
-      <c r="J54" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K54" s="3" t="s">
         <v>3</v>
       </c>
@@ -2581,8 +2706,11 @@
       <c r="P54" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="55" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q54" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="55" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2599,8 +2727,9 @@
       <c r="N55" s="3"/>
       <c r="O55" s="3"/>
       <c r="P55" s="3"/>
-    </row>
-    <row r="56" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q55" s="3"/>
+    </row>
+    <row r="56" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2617,32 +2746,33 @@
       <c r="N56" s="3"/>
       <c r="O56" s="3"/>
       <c r="P56" s="3"/>
-    </row>
-    <row r="57" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q56" s="3"/>
+    </row>
+    <row r="57" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>4400</v>
+      </c>
+      <c r="E57" s="3">
         <v>2100</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>2400</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>2200</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>3100</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>2000</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>1100</v>
       </c>
-      <c r="J57" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K57" s="3" t="s">
         <v>3</v>
       </c>
@@ -2661,8 +2791,11 @@
       <c r="P57" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="58" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q57" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="58" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -2678,15 +2811,15 @@
       <c r="G58" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="H58" s="3">
-        <v>0</v>
+      <c r="H58" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="I58" s="3">
+        <v>0</v>
+      </c>
+      <c r="J58" s="3">
         <v>28800</v>
       </c>
-      <c r="J58" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K58" s="3" t="s">
         <v>3</v>
       </c>
@@ -2705,8 +2838,11 @@
       <c r="P58" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="59" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q58" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="59" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
@@ -2714,23 +2850,23 @@
         <v>12300</v>
       </c>
       <c r="E59" s="3">
+        <v>12300</v>
+      </c>
+      <c r="F59" s="3">
         <v>11900</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>9900</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>11600</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>10800</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>8800</v>
       </c>
-      <c r="J59" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K59" s="3" t="s">
         <v>3</v>
       </c>
@@ -2749,32 +2885,35 @@
       <c r="P59" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="60" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q59" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="60" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>14300</v>
+        <v>16700</v>
       </c>
       <c r="E60" s="3">
         <v>14300</v>
       </c>
       <c r="F60" s="3">
+        <v>14300</v>
+      </c>
+      <c r="G60" s="3">
         <v>12100</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>14700</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>12800</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>38700</v>
       </c>
-      <c r="J60" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K60" s="3" t="s">
         <v>3</v>
       </c>
@@ -2793,29 +2932,32 @@
       <c r="P60" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="61" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q60" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="61" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>36700</v>
+      </c>
+      <c r="E61" s="3">
         <v>36600</v>
-      </c>
-      <c r="E61" s="3">
-        <v>26600</v>
       </c>
       <c r="F61" s="3">
         <v>26600</v>
       </c>
       <c r="G61" s="3">
+        <v>26600</v>
+      </c>
+      <c r="H61" s="3">
         <v>26500</v>
       </c>
-      <c r="H61" s="3">
+      <c r="I61" s="3">
         <v>26400</v>
       </c>
-      <c r="I61" s="3">
-        <v>0</v>
-      </c>
       <c r="J61" s="3">
         <v>0</v>
       </c>
@@ -2837,32 +2979,35 @@
       <c r="P61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>1900</v>
+      </c>
+      <c r="E62" s="3">
         <v>1600</v>
       </c>
-      <c r="E62" s="3">
+      <c r="F62" s="3">
         <v>1900</v>
       </c>
-      <c r="F62" s="3">
+      <c r="G62" s="3">
         <v>2000</v>
       </c>
-      <c r="G62" s="3">
+      <c r="H62" s="3">
         <v>2300</v>
       </c>
-      <c r="H62" s="3">
+      <c r="I62" s="3">
         <v>10000</v>
       </c>
-      <c r="I62" s="3">
+      <c r="J62" s="3">
         <v>7400</v>
       </c>
-      <c r="J62" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K62" s="3" t="s">
         <v>3</v>
       </c>
@@ -2881,8 +3026,11 @@
       <c r="P62" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="63" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q62" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="63" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2925,8 +3073,11 @@
       <c r="P63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -2969,8 +3120,11 @@
       <c r="P64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3013,32 +3167,35 @@
       <c r="P65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>55300</v>
+      </c>
+      <c r="E66" s="3">
         <v>52600</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>42900</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>40700</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>43400</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>49100</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>46100</v>
       </c>
-      <c r="J66" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K66" s="3" t="s">
         <v>3</v>
       </c>
@@ -3057,8 +3214,11 @@
       <c r="P66" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="67" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q66" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="67" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3075,8 +3235,9 @@
       <c r="N67" s="3"/>
       <c r="O67" s="3"/>
       <c r="P67" s="3"/>
-    </row>
-    <row r="68" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q67" s="3"/>
+    </row>
+    <row r="68" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3119,8 +3280,11 @@
       <c r="P68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -3163,8 +3327,11 @@
       <c r="P69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -3181,13 +3348,13 @@
         <v>0</v>
       </c>
       <c r="H70" s="3">
-        <v>281300</v>
+        <v>0</v>
       </c>
       <c r="I70" s="3">
         <v>281300</v>
       </c>
       <c r="J70" s="3">
-        <v>0</v>
+        <v>281300</v>
       </c>
       <c r="K70" s="3">
         <v>0</v>
@@ -3207,8 +3374,11 @@
       <c r="P70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3251,32 +3421,35 @@
       <c r="P71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-369100</v>
+      </c>
+      <c r="E72" s="3">
         <v>-358200</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>-342700</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>-327600</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>-312000</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>-298300</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>-285600</v>
       </c>
-      <c r="J72" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K72" s="3" t="s">
         <v>3</v>
       </c>
@@ -3295,8 +3468,11 @@
       <c r="P72" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="73" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q72" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="73" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -3339,8 +3515,11 @@
       <c r="P73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3383,8 +3562,11 @@
       <c r="P74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3427,32 +3609,35 @@
       <c r="P75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>82000</v>
+      </c>
+      <c r="E76" s="3">
         <v>90400</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>45000</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>58200</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>72100</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>-287100</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>-275000</v>
       </c>
-      <c r="J76" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K76" s="3" t="s">
         <v>3</v>
       </c>
@@ -3471,8 +3656,11 @@
       <c r="P76" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="77" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q76" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="77" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -3515,43 +3703,46 @@
       <c r="P77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44926</v>
+      </c>
+      <c r="E80" s="2">
         <v>44834</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44742</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44651</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44561</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44469</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44377</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>44196</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>44012</v>
       </c>
-      <c r="L80" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="M80" s="2" t="s">
         <v>3</v>
       </c>
@@ -3564,38 +3755,41 @@
       <c r="P80" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="81" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q80" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="81" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>-10900</v>
+      </c>
+      <c r="E81" s="3">
         <v>-15500</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>-15100</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>-15500</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>-13700</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>-12700</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>-22100</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>-46700</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>-23500</v>
       </c>
-      <c r="L81" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M81" s="3" t="s">
         <v>3</v>
       </c>
@@ -3608,8 +3802,11 @@
       <c r="P81" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="82" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q81" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="82" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -3626,13 +3823,14 @@
       <c r="N82" s="3"/>
       <c r="O82" s="3"/>
       <c r="P82" s="3"/>
-    </row>
-    <row r="83" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q82" s="3"/>
+    </row>
+    <row r="83" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>400</v>
+        <v>500</v>
       </c>
       <c r="E83" s="3">
         <v>400</v>
@@ -3641,23 +3839,23 @@
         <v>400</v>
       </c>
       <c r="G83" s="3">
-        <v>500</v>
+        <v>400</v>
       </c>
       <c r="H83" s="3">
         <v>500</v>
       </c>
       <c r="I83" s="3">
+        <v>500</v>
+      </c>
+      <c r="J83" s="3">
         <v>1000</v>
       </c>
-      <c r="J83" s="3">
+      <c r="K83" s="3">
         <v>3600</v>
       </c>
-      <c r="K83" s="3">
+      <c r="L83" s="3">
         <v>1900</v>
       </c>
-      <c r="L83" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M83" s="3" t="s">
         <v>3</v>
       </c>
@@ -3670,8 +3868,11 @@
       <c r="P83" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="84" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q83" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="84" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -3714,8 +3915,11 @@
       <c r="P84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -3758,8 +3962,11 @@
       <c r="P85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -3802,8 +4009,11 @@
       <c r="P86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -3846,8 +4056,11 @@
       <c r="P87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -3890,38 +4103,41 @@
       <c r="P88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>-14200</v>
+      </c>
+      <c r="E89" s="3">
         <v>-15300</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>-13500</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>-18000</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>-14700</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>-10000</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>-23900</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>-38500</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>-23500</v>
       </c>
-      <c r="L89" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M89" s="3" t="s">
         <v>3</v>
       </c>
@@ -3934,8 +4150,11 @@
       <c r="P89" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="90" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q89" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="90" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -3952,38 +4171,39 @@
       <c r="N90" s="3"/>
       <c r="O90" s="3"/>
       <c r="P90" s="3"/>
-    </row>
-    <row r="91" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q90" s="3"/>
+    </row>
+    <row r="91" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-300</v>
+      </c>
+      <c r="E91" s="3">
         <v>-200</v>
       </c>
-      <c r="E91" s="3">
+      <c r="F91" s="3">
         <v>-700</v>
       </c>
-      <c r="F91" s="3">
+      <c r="G91" s="3">
         <v>-100</v>
       </c>
-      <c r="G91" s="3">
+      <c r="H91" s="3">
         <v>-200</v>
       </c>
-      <c r="H91" s="3">
+      <c r="I91" s="3">
         <v>-300</v>
       </c>
-      <c r="I91" s="3">
+      <c r="J91" s="3">
         <v>-200</v>
       </c>
-      <c r="J91" s="3">
+      <c r="K91" s="3">
         <v>-900</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-400</v>
       </c>
-      <c r="L91" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M91" s="3" t="s">
         <v>3</v>
       </c>
@@ -3996,8 +4216,11 @@
       <c r="P91" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="92" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q91" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="92" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -4040,8 +4263,11 @@
       <c r="P92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -4084,38 +4310,41 @@
       <c r="P93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>-36400</v>
+      </c>
+      <c r="E94" s="3">
         <v>-2900</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
         <v>-35000</v>
       </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
         <v>-100</v>
       </c>
-      <c r="G94" s="3">
+      <c r="H94" s="3">
         <v>-200</v>
       </c>
-      <c r="H94" s="3">
+      <c r="I94" s="3">
         <v>-300</v>
       </c>
-      <c r="I94" s="3">
+      <c r="J94" s="3">
         <v>-1500</v>
       </c>
-      <c r="J94" s="3">
+      <c r="K94" s="3">
         <v>-900</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-400</v>
       </c>
-      <c r="L94" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M94" s="3" t="s">
         <v>3</v>
       </c>
@@ -4128,8 +4357,11 @@
       <c r="P94" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="95" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q94" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="95" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -4146,8 +4378,9 @@
       <c r="N95" s="3"/>
       <c r="O95" s="3"/>
       <c r="P95" s="3"/>
-    </row>
-    <row r="96" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q95" s="3"/>
+    </row>
+    <row r="96" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -4190,8 +4423,11 @@
       <c r="P96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -4234,8 +4470,11 @@
       <c r="P97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -4278,8 +4517,11 @@
       <c r="P98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -4322,37 +4564,40 @@
       <c r="P99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>-200</v>
+      </c>
+      <c r="E100" s="3">
         <v>69200</v>
       </c>
-      <c r="E100" s="3">
-        <v>0</v>
-      </c>
       <c r="F100" s="3">
+        <v>0</v>
+      </c>
+      <c r="G100" s="3">
         <v>-500</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>85800</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>-1700</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>-600</v>
-      </c>
-      <c r="J100" s="3">
-        <v>-1000</v>
       </c>
       <c r="K100" s="3">
         <v>-1000</v>
       </c>
-      <c r="L100" s="3" t="s">
-        <v>3</v>
+      <c r="L100" s="3">
+        <v>-1000</v>
       </c>
       <c r="M100" s="3" t="s">
         <v>3</v>
@@ -4366,8 +4611,11 @@
       <c r="P100" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="101" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q100" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="101" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -4410,38 +4658,41 @@
       <c r="P101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>-50800</v>
+      </c>
+      <c r="E102" s="3">
         <v>50900</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>-48500</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>-18600</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>70900</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>-12000</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>-26000</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>-40400</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>-24800</v>
       </c>
-      <c r="L102" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M102" s="3" t="s">
         <v>3</v>
       </c>
@@ -4452,6 +4703,9 @@
         <v>3</v>
       </c>
       <c r="P102" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q102" s="3" t="s">
         <v>3</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/SONX_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/SONX_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="373" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="377" uniqueCount="92">
   <si>
     <t>SONX</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:Q102"/>
+  <dimension ref="A5:R102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,61 +665,62 @@
     <col min="1" max="1" width="7.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="9" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="17" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="18" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:18" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>45016</v>
+      </c>
+      <c r="E7" s="2">
         <v>44926</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44834</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44742</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44651</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44561</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44469</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>44377</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>44196</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>44012</v>
       </c>
-      <c r="M7" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="N7" s="2" t="s">
         <v>3</v>
       </c>
@@ -732,41 +733,44 @@
       <c r="Q7" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="8" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R7" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D8" s="3">
+        <v>10700</v>
+      </c>
+      <c r="E8" s="3">
         <v>12200</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>9800</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>10500</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>9000</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>9900</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>7900</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>15400</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>23400</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>8500</v>
       </c>
-      <c r="M8" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N8" s="3" t="s">
         <v>3</v>
       </c>
@@ -779,41 +783,44 @@
       <c r="Q8" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="9" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R8" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="9" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D9" s="3">
+        <v>7400</v>
+      </c>
+      <c r="E9" s="3">
         <v>8900</v>
       </c>
-      <c r="E9" s="3">
+      <c r="F9" s="3">
         <v>7500</v>
       </c>
-      <c r="F9" s="3">
+      <c r="G9" s="3">
         <v>8000</v>
       </c>
-      <c r="G9" s="3">
+      <c r="H9" s="3">
         <v>6800</v>
       </c>
-      <c r="H9" s="3">
+      <c r="I9" s="3">
         <v>7400</v>
       </c>
-      <c r="I9" s="3">
+      <c r="J9" s="3">
         <v>5800</v>
       </c>
-      <c r="J9" s="3">
+      <c r="K9" s="3">
         <v>11600</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>19500</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>7600</v>
       </c>
-      <c r="M9" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N9" s="3" t="s">
         <v>3</v>
       </c>
@@ -826,8 +833,11 @@
       <c r="Q9" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="10" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R9" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
@@ -835,32 +845,32 @@
         <v>3300</v>
       </c>
       <c r="E10" s="3">
+        <v>3300</v>
+      </c>
+      <c r="F10" s="3">
         <v>2300</v>
       </c>
-      <c r="F10" s="3">
+      <c r="G10" s="3">
         <v>2500</v>
       </c>
-      <c r="G10" s="3">
+      <c r="H10" s="3">
         <v>2200</v>
       </c>
-      <c r="H10" s="3">
+      <c r="I10" s="3">
         <v>2500</v>
       </c>
-      <c r="I10" s="3">
+      <c r="J10" s="3">
         <v>2100</v>
       </c>
-      <c r="J10" s="3">
+      <c r="K10" s="3">
         <v>3800</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>3900</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>900</v>
       </c>
-      <c r="M10" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N10" s="3" t="s">
         <v>3</v>
       </c>
@@ -873,8 +883,11 @@
       <c r="Q10" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="11" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R10" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -892,41 +905,42 @@
       <c r="O11" s="3"/>
       <c r="P11" s="3"/>
       <c r="Q11" s="3"/>
-    </row>
-    <row r="12" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R11" s="3"/>
+    </row>
+    <row r="12" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
       <c r="D12" s="3">
+        <v>3500</v>
+      </c>
+      <c r="E12" s="3">
         <v>3600</v>
       </c>
-      <c r="E12" s="3">
+      <c r="F12" s="3">
         <v>4300</v>
       </c>
-      <c r="F12" s="3">
+      <c r="G12" s="3">
         <v>4000</v>
       </c>
-      <c r="G12" s="3">
+      <c r="H12" s="3">
         <v>4900</v>
       </c>
-      <c r="H12" s="3">
+      <c r="I12" s="3">
         <v>4300</v>
       </c>
-      <c r="I12" s="3">
+      <c r="J12" s="3">
         <v>4600</v>
       </c>
-      <c r="J12" s="3">
+      <c r="K12" s="3">
         <v>9700</v>
       </c>
-      <c r="K12" s="3">
+      <c r="L12" s="3">
         <v>20500</v>
       </c>
-      <c r="L12" s="3">
+      <c r="M12" s="3">
         <v>9600</v>
       </c>
-      <c r="M12" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N12" s="3" t="s">
         <v>3</v>
       </c>
@@ -939,8 +953,11 @@
       <c r="Q12" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="13" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R12" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -986,17 +1003,20 @@
       <c r="Q13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="D14" s="3">
+      <c r="D14" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E14" s="3">
         <v>-4400</v>
       </c>
-      <c r="E14" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="F14" s="3" t="s">
         <v>3</v>
       </c>
@@ -1012,8 +1032,8 @@
       <c r="J14" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K14" s="3">
-        <v>0</v>
+      <c r="K14" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="L14" s="3">
         <v>0</v>
@@ -1033,32 +1053,35 @@
       <c r="Q14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="D15" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="E15" s="3">
+      <c r="D15" s="3">
+        <v>100</v>
+      </c>
+      <c r="E15" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="F15" s="3">
         <v>200</v>
-      </c>
-      <c r="F15" s="3">
-        <v>100</v>
       </c>
       <c r="G15" s="3">
         <v>100</v>
       </c>
       <c r="H15" s="3">
+        <v>100</v>
+      </c>
+      <c r="I15" s="3">
         <v>200</v>
       </c>
-      <c r="I15" s="3">
+      <c r="J15" s="3">
         <v>100</v>
       </c>
-      <c r="J15" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K15" s="3" t="s">
         <v>3</v>
       </c>
@@ -1068,8 +1091,8 @@
       <c r="M15" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="N15" s="3">
-        <v>0</v>
+      <c r="N15" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="O15" s="3">
         <v>0</v>
@@ -1080,8 +1103,11 @@
       <c r="Q15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:18" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1096,41 +1122,42 @@
       <c r="O16" s="3"/>
       <c r="P16" s="3"/>
       <c r="Q16" s="3"/>
-    </row>
-    <row r="17" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R16" s="3"/>
+    </row>
+    <row r="17" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>25500</v>
+      </c>
+      <c r="E17" s="3">
         <v>22600</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>24400</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>24800</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>23600</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>23500</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>19000</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>35200</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>66100</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>30400</v>
       </c>
-      <c r="M17" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N17" s="3" t="s">
         <v>3</v>
       </c>
@@ -1143,41 +1170,44 @@
       <c r="Q17" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="18" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R17" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="18" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>-14800</v>
+      </c>
+      <c r="E18" s="3">
         <v>-10400</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>-14600</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>-14300</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>-14600</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>-13600</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>-11100</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>-19800</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>-42700</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>-21900</v>
       </c>
-      <c r="M18" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N18" s="3" t="s">
         <v>3</v>
       </c>
@@ -1190,8 +1220,11 @@
       <c r="Q18" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="19" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R18" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="19" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1209,41 +1242,42 @@
       <c r="O19" s="3"/>
       <c r="P19" s="3"/>
       <c r="Q19" s="3"/>
-    </row>
-    <row r="20" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R19" s="3"/>
+    </row>
+    <row r="20" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
+        <v>-500</v>
+      </c>
+      <c r="E20" s="3">
         <v>-400</v>
       </c>
-      <c r="E20" s="3">
+      <c r="F20" s="3">
         <v>-900</v>
       </c>
-      <c r="F20" s="3">
+      <c r="G20" s="3">
         <v>-800</v>
       </c>
-      <c r="G20" s="3">
+      <c r="H20" s="3">
         <v>-900</v>
       </c>
-      <c r="H20" s="3">
+      <c r="I20" s="3">
         <v>-200</v>
       </c>
-      <c r="I20" s="3">
+      <c r="J20" s="3">
         <v>-1600</v>
       </c>
-      <c r="J20" s="3">
+      <c r="K20" s="3">
         <v>-2300</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>-3900</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>-1700</v>
       </c>
-      <c r="M20" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N20" s="3" t="s">
         <v>3</v>
       </c>
@@ -1256,41 +1290,44 @@
       <c r="Q20" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="21" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R20" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="21" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>-14900</v>
+      </c>
+      <c r="E21" s="3">
         <v>-10400</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
         <v>-15100</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>-14700</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>-15100</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>-13200</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>-12200</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>-21000</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>-43100</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>-21700</v>
       </c>
-      <c r="M21" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N21" s="3" t="s">
         <v>3</v>
       </c>
@@ -1303,8 +1340,11 @@
       <c r="Q21" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="22" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R21" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="22" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1350,41 +1390,44 @@
       <c r="Q22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>-15400</v>
+      </c>
+      <c r="E23" s="3">
         <v>-10900</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>-15500</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>-15100</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>-15500</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>-13700</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>-12700</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>-22100</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>-46700</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>-23500</v>
       </c>
-      <c r="M23" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N23" s="3" t="s">
         <v>3</v>
       </c>
@@ -1397,13 +1440,16 @@
       <c r="Q23" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="24" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R23" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="24" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="D24" s="3">
-        <v>0</v>
+      <c r="D24" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="E24" s="3">
         <v>0</v>
@@ -1417,23 +1463,23 @@
       <c r="H24" s="3">
         <v>0</v>
       </c>
-      <c r="I24" s="3" t="s">
-        <v>3</v>
+      <c r="I24" s="3">
+        <v>0</v>
       </c>
       <c r="J24" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K24" s="3">
-        <v>0</v>
-      </c>
-      <c r="L24" s="3" t="s">
-        <v>3</v>
+      <c r="K24" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L24" s="3">
+        <v>0</v>
       </c>
       <c r="M24" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="N24" s="3">
-        <v>0</v>
+      <c r="N24" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="O24" s="3">
         <v>0</v>
@@ -1444,8 +1490,11 @@
       <c r="Q24" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1491,41 +1540,44 @@
       <c r="Q25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>-15400</v>
+      </c>
+      <c r="E26" s="3">
         <v>-10900</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>-15500</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>-15100</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>-15500</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>-13700</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>-12700</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>-22100</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>-46700</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>-23500</v>
       </c>
-      <c r="M26" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N26" s="3" t="s">
         <v>3</v>
       </c>
@@ -1538,41 +1590,44 @@
       <c r="Q26" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="27" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R26" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="27" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>-15400</v>
+      </c>
+      <c r="E27" s="3">
         <v>-10900</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>-15500</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>-15100</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>-15500</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>-13700</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>-12700</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>-22100</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>-46700</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>-23500</v>
       </c>
-      <c r="M27" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N27" s="3" t="s">
         <v>3</v>
       </c>
@@ -1585,8 +1640,11 @@
       <c r="Q27" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="28" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R27" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="28" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1632,8 +1690,11 @@
       <c r="Q28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1658,11 +1719,11 @@
       <c r="J29" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K29" s="3">
-        <v>0</v>
-      </c>
-      <c r="L29" s="3" t="s">
-        <v>3</v>
+      <c r="K29" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L29" s="3">
+        <v>0</v>
       </c>
       <c r="M29" s="3" t="s">
         <v>3</v>
@@ -1679,8 +1740,11 @@
       <c r="Q29" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="30" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R29" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="30" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1726,8 +1790,11 @@
       <c r="Q30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1773,41 +1840,44 @@
       <c r="Q31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>500</v>
+      </c>
+      <c r="E32" s="3">
         <v>400</v>
       </c>
-      <c r="E32" s="3">
+      <c r="F32" s="3">
         <v>900</v>
       </c>
-      <c r="F32" s="3">
+      <c r="G32" s="3">
         <v>800</v>
       </c>
-      <c r="G32" s="3">
+      <c r="H32" s="3">
         <v>900</v>
       </c>
-      <c r="H32" s="3">
+      <c r="I32" s="3">
         <v>200</v>
       </c>
-      <c r="I32" s="3">
+      <c r="J32" s="3">
         <v>1600</v>
       </c>
-      <c r="J32" s="3">
+      <c r="K32" s="3">
         <v>2300</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>3900</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>1700</v>
       </c>
-      <c r="M32" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N32" s="3" t="s">
         <v>3</v>
       </c>
@@ -1820,41 +1890,44 @@
       <c r="Q32" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="33" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R32" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="33" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>-15400</v>
+      </c>
+      <c r="E33" s="3">
         <v>-10900</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>-15500</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>-15100</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>-15500</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>-13700</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>-12700</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>-22100</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>-46700</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>-23500</v>
       </c>
-      <c r="M33" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N33" s="3" t="s">
         <v>3</v>
       </c>
@@ -1867,8 +1940,11 @@
       <c r="Q33" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="34" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R33" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="34" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1914,41 +1990,44 @@
       <c r="Q34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>-15400</v>
+      </c>
+      <c r="E35" s="3">
         <v>-10900</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>-15500</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>-15100</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>-15500</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>-13700</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>-12700</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>-22100</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>-46700</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>-23500</v>
       </c>
-      <c r="M35" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N35" s="3" t="s">
         <v>3</v>
       </c>
@@ -1961,46 +2040,49 @@
       <c r="Q35" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="37" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R35" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="37" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>45016</v>
+      </c>
+      <c r="E38" s="2">
         <v>44926</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44834</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44742</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44651</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44561</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44469</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>44377</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>44196</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>44012</v>
       </c>
-      <c r="M38" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="N38" s="2" t="s">
         <v>3</v>
       </c>
@@ -2013,8 +2095,11 @@
       <c r="Q38" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="39" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R38" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="39" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2032,8 +2117,9 @@
       <c r="O39" s="3"/>
       <c r="P39" s="3"/>
       <c r="Q39" s="3"/>
-    </row>
-    <row r="40" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R39" s="3"/>
+    </row>
+    <row r="40" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2051,35 +2137,36 @@
       <c r="O40" s="3"/>
       <c r="P40" s="3"/>
       <c r="Q40" s="3"/>
-    </row>
-    <row r="41" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R40" s="3"/>
+    </row>
+    <row r="41" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>12600</v>
+      </c>
+      <c r="E41" s="3">
         <v>17700</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>68500</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>17600</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>66100</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>84600</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>13700</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>25700</v>
       </c>
-      <c r="K41" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L41" s="3" t="s">
         <v>3</v>
       </c>
@@ -2098,23 +2185,26 @@
       <c r="Q41" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="42" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R41" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="42" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
+        <v>62300</v>
+      </c>
+      <c r="E42" s="3">
         <v>73800</v>
       </c>
-      <c r="E42" s="3">
+      <c r="F42" s="3">
         <v>37100</v>
       </c>
-      <c r="F42" s="3">
+      <c r="G42" s="3">
         <v>34200</v>
       </c>
-      <c r="G42" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="H42" s="3" t="s">
         <v>3</v>
       </c>
@@ -2130,8 +2220,8 @@
       <c r="L42" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="M42" s="3">
-        <v>0</v>
+      <c r="M42" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="N42" s="3">
         <v>0</v>
@@ -2145,35 +2235,38 @@
       <c r="Q42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>6400</v>
+      </c>
+      <c r="E43" s="3">
         <v>5800</v>
       </c>
-      <c r="E43" s="3">
+      <c r="F43" s="3">
         <v>3300</v>
       </c>
-      <c r="F43" s="3">
+      <c r="G43" s="3">
         <v>3200</v>
       </c>
-      <c r="G43" s="3">
+      <c r="H43" s="3">
         <v>2700</v>
       </c>
-      <c r="H43" s="3">
+      <c r="I43" s="3">
         <v>2500</v>
       </c>
-      <c r="I43" s="3">
+      <c r="J43" s="3">
         <v>1900</v>
       </c>
-      <c r="J43" s="3">
+      <c r="K43" s="3">
         <v>2300</v>
       </c>
-      <c r="K43" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L43" s="3" t="s">
         <v>3</v>
       </c>
@@ -2192,35 +2285,38 @@
       <c r="Q43" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="44" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R43" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="44" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
+        <v>16000</v>
+      </c>
+      <c r="E44" s="3">
         <v>15500</v>
       </c>
-      <c r="E44" s="3">
+      <c r="F44" s="3">
         <v>15200</v>
       </c>
-      <c r="F44" s="3">
+      <c r="G44" s="3">
         <v>12700</v>
       </c>
-      <c r="G44" s="3">
+      <c r="H44" s="3">
         <v>10100</v>
       </c>
-      <c r="H44" s="3">
+      <c r="I44" s="3">
         <v>8200</v>
       </c>
-      <c r="I44" s="3">
+      <c r="J44" s="3">
         <v>7200</v>
       </c>
-      <c r="J44" s="3">
+      <c r="K44" s="3">
         <v>5800</v>
       </c>
-      <c r="K44" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L44" s="3" t="s">
         <v>3</v>
       </c>
@@ -2239,35 +2335,38 @@
       <c r="Q44" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="45" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R44" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="45" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>9100</v>
+      </c>
+      <c r="E45" s="3">
         <v>8400</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
         <v>2900</v>
-      </c>
-      <c r="F45" s="3">
-        <v>4000</v>
       </c>
       <c r="G45" s="3">
         <v>4000</v>
       </c>
       <c r="H45" s="3">
+        <v>4000</v>
+      </c>
+      <c r="I45" s="3">
         <v>3600</v>
       </c>
-      <c r="I45" s="3">
+      <c r="J45" s="3">
         <v>3400</v>
       </c>
-      <c r="J45" s="3">
+      <c r="K45" s="3">
         <v>800</v>
       </c>
-      <c r="K45" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L45" s="3" t="s">
         <v>3</v>
       </c>
@@ -2286,35 +2385,38 @@
       <c r="Q45" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="46" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R45" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="46" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>106400</v>
+      </c>
+      <c r="E46" s="3">
         <v>121100</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>127000</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>71700</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>82900</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>98900</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>26300</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>34700</v>
       </c>
-      <c r="K46" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L46" s="3" t="s">
         <v>3</v>
       </c>
@@ -2333,8 +2435,11 @@
       <c r="Q46" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="47" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R46" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="47" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -2380,35 +2485,38 @@
       <c r="Q47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>6800</v>
+      </c>
+      <c r="E48" s="3">
         <v>5300</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>4900</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>5000</v>
       </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
         <v>4700</v>
       </c>
-      <c r="H48" s="3">
+      <c r="I48" s="3">
         <v>5100</v>
       </c>
-      <c r="I48" s="3">
+      <c r="J48" s="3">
         <v>5500</v>
       </c>
-      <c r="J48" s="3">
+      <c r="K48" s="3">
         <v>6000</v>
       </c>
-      <c r="K48" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L48" s="3" t="s">
         <v>3</v>
       </c>
@@ -2427,35 +2535,38 @@
       <c r="Q48" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="49" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R48" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="49" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
+        <v>10600</v>
+      </c>
+      <c r="E49" s="3">
         <v>10700</v>
       </c>
-      <c r="E49" s="3">
+      <c r="F49" s="3">
         <v>10900</v>
       </c>
-      <c r="F49" s="3">
+      <c r="G49" s="3">
         <v>11100</v>
       </c>
-      <c r="G49" s="3">
+      <c r="H49" s="3">
         <v>11200</v>
       </c>
-      <c r="H49" s="3">
+      <c r="I49" s="3">
         <v>11400</v>
       </c>
-      <c r="I49" s="3">
+      <c r="J49" s="3">
         <v>11600</v>
       </c>
-      <c r="J49" s="3">
+      <c r="K49" s="3">
         <v>11700</v>
       </c>
-      <c r="K49" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L49" s="3" t="s">
         <v>3</v>
       </c>
@@ -2474,8 +2585,11 @@
       <c r="Q49" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="50" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R49" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="50" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2521,8 +2635,11 @@
       <c r="Q50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2568,8 +2685,11 @@
       <c r="Q51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
@@ -2594,8 +2714,8 @@
       <c r="J52" s="3">
         <v>100</v>
       </c>
-      <c r="K52" s="3" t="s">
-        <v>3</v>
+      <c r="K52" s="3">
+        <v>100</v>
       </c>
       <c r="L52" s="3" t="s">
         <v>3</v>
@@ -2615,8 +2735,11 @@
       <c r="Q52" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="53" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R52" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="53" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2662,35 +2785,38 @@
       <c r="Q53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>123900</v>
+      </c>
+      <c r="E54" s="3">
         <v>137300</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>142900</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>87900</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>98900</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>115500</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>43400</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>52500</v>
       </c>
-      <c r="K54" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L54" s="3" t="s">
         <v>3</v>
       </c>
@@ -2709,8 +2835,11 @@
       <c r="Q54" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="55" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R54" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="55" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2728,8 +2857,9 @@
       <c r="O55" s="3"/>
       <c r="P55" s="3"/>
       <c r="Q55" s="3"/>
-    </row>
-    <row r="56" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R55" s="3"/>
+    </row>
+    <row r="56" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2747,35 +2877,36 @@
       <c r="O56" s="3"/>
       <c r="P56" s="3"/>
       <c r="Q56" s="3"/>
-    </row>
-    <row r="57" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R56" s="3"/>
+    </row>
+    <row r="57" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>5400</v>
+      </c>
+      <c r="E57" s="3">
         <v>4400</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>2100</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>2400</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>2200</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>3100</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>2000</v>
       </c>
-      <c r="J57" s="3">
+      <c r="K57" s="3">
         <v>1100</v>
       </c>
-      <c r="K57" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L57" s="3" t="s">
         <v>3</v>
       </c>
@@ -2794,8 +2925,11 @@
       <c r="Q57" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="58" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R57" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="58" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -2814,15 +2948,15 @@
       <c r="H58" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="I58" s="3">
-        <v>0</v>
+      <c r="I58" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="J58" s="3">
+        <v>0</v>
+      </c>
+      <c r="K58" s="3">
         <v>28800</v>
       </c>
-      <c r="K58" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L58" s="3" t="s">
         <v>3</v>
       </c>
@@ -2841,35 +2975,38 @@
       <c r="Q58" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="59" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R58" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="59" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>12300</v>
+        <v>9800</v>
       </c>
       <c r="E59" s="3">
         <v>12300</v>
       </c>
       <c r="F59" s="3">
+        <v>12300</v>
+      </c>
+      <c r="G59" s="3">
         <v>11900</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>9900</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>11600</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>10800</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>8800</v>
       </c>
-      <c r="K59" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L59" s="3" t="s">
         <v>3</v>
       </c>
@@ -2888,35 +3025,38 @@
       <c r="Q59" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="60" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R59" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="60" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>15200</v>
+      </c>
+      <c r="E60" s="3">
         <v>16700</v>
-      </c>
-      <c r="E60" s="3">
-        <v>14300</v>
       </c>
       <c r="F60" s="3">
         <v>14300</v>
       </c>
       <c r="G60" s="3">
+        <v>14300</v>
+      </c>
+      <c r="H60" s="3">
         <v>12100</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>14700</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>12800</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>38700</v>
       </c>
-      <c r="K60" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L60" s="3" t="s">
         <v>3</v>
       </c>
@@ -2935,32 +3075,35 @@
       <c r="Q60" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="61" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R60" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="61" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>36900</v>
+      </c>
+      <c r="E61" s="3">
         <v>36700</v>
       </c>
-      <c r="E61" s="3">
+      <c r="F61" s="3">
         <v>36600</v>
-      </c>
-      <c r="F61" s="3">
-        <v>26600</v>
       </c>
       <c r="G61" s="3">
         <v>26600</v>
       </c>
       <c r="H61" s="3">
+        <v>26600</v>
+      </c>
+      <c r="I61" s="3">
         <v>26500</v>
       </c>
-      <c r="I61" s="3">
+      <c r="J61" s="3">
         <v>26400</v>
       </c>
-      <c r="J61" s="3">
-        <v>0</v>
-      </c>
       <c r="K61" s="3">
         <v>0</v>
       </c>
@@ -2982,35 +3125,38 @@
       <c r="Q61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>3200</v>
+      </c>
+      <c r="E62" s="3">
         <v>1900</v>
       </c>
-      <c r="E62" s="3">
+      <c r="F62" s="3">
         <v>1600</v>
       </c>
-      <c r="F62" s="3">
+      <c r="G62" s="3">
         <v>1900</v>
       </c>
-      <c r="G62" s="3">
+      <c r="H62" s="3">
         <v>2000</v>
       </c>
-      <c r="H62" s="3">
+      <c r="I62" s="3">
         <v>2300</v>
       </c>
-      <c r="I62" s="3">
+      <c r="J62" s="3">
         <v>10000</v>
       </c>
-      <c r="J62" s="3">
+      <c r="K62" s="3">
         <v>7400</v>
       </c>
-      <c r="K62" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L62" s="3" t="s">
         <v>3</v>
       </c>
@@ -3029,8 +3175,11 @@
       <c r="Q62" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="63" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R62" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="63" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3076,8 +3225,11 @@
       <c r="Q63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -3123,8 +3275,11 @@
       <c r="Q64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3170,8 +3325,11 @@
       <c r="Q65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
@@ -3179,26 +3337,26 @@
         <v>55300</v>
       </c>
       <c r="E66" s="3">
+        <v>55300</v>
+      </c>
+      <c r="F66" s="3">
         <v>52600</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>42900</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>40700</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>43400</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>49100</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>46100</v>
       </c>
-      <c r="K66" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L66" s="3" t="s">
         <v>3</v>
       </c>
@@ -3217,8 +3375,11 @@
       <c r="Q66" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="67" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R66" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="67" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3236,8 +3397,9 @@
       <c r="O67" s="3"/>
       <c r="P67" s="3"/>
       <c r="Q67" s="3"/>
-    </row>
-    <row r="68" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R67" s="3"/>
+    </row>
+    <row r="68" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3283,8 +3445,11 @@
       <c r="Q68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -3330,8 +3495,11 @@
       <c r="Q69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -3351,13 +3519,13 @@
         <v>0</v>
       </c>
       <c r="I70" s="3">
-        <v>281300</v>
+        <v>0</v>
       </c>
       <c r="J70" s="3">
         <v>281300</v>
       </c>
       <c r="K70" s="3">
-        <v>0</v>
+        <v>281300</v>
       </c>
       <c r="L70" s="3">
         <v>0</v>
@@ -3377,8 +3545,11 @@
       <c r="Q70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3424,35 +3595,38 @@
       <c r="Q71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-384500</v>
+      </c>
+      <c r="E72" s="3">
         <v>-369100</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>-358200</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>-342700</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>-327600</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>-312000</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>-298300</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>-285600</v>
       </c>
-      <c r="K72" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L72" s="3" t="s">
         <v>3</v>
       </c>
@@ -3471,8 +3645,11 @@
       <c r="Q72" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="73" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R72" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="73" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -3518,8 +3695,11 @@
       <c r="Q73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3565,8 +3745,11 @@
       <c r="Q74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3612,35 +3795,38 @@
       <c r="Q75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>68600</v>
+      </c>
+      <c r="E76" s="3">
         <v>82000</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>90400</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>45000</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>58200</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>72100</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>-287100</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>-275000</v>
       </c>
-      <c r="K76" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L76" s="3" t="s">
         <v>3</v>
       </c>
@@ -3659,8 +3845,11 @@
       <c r="Q76" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="77" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R76" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="77" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -3706,46 +3895,49 @@
       <c r="Q77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>45016</v>
+      </c>
+      <c r="E80" s="2">
         <v>44926</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44834</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44742</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44651</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44561</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44469</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>44377</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>44196</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>44012</v>
       </c>
-      <c r="M80" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="N80" s="2" t="s">
         <v>3</v>
       </c>
@@ -3758,41 +3950,44 @@
       <c r="Q80" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="81" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R80" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="81" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>-15400</v>
+      </c>
+      <c r="E81" s="3">
         <v>-10900</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>-15500</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>-15100</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>-15500</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>-13700</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>-12700</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>-22100</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>-46700</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>-23500</v>
       </c>
-      <c r="M81" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N81" s="3" t="s">
         <v>3</v>
       </c>
@@ -3805,8 +4000,11 @@
       <c r="Q81" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="82" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R81" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="82" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -3824,8 +4022,9 @@
       <c r="O82" s="3"/>
       <c r="P82" s="3"/>
       <c r="Q82" s="3"/>
-    </row>
-    <row r="83" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R82" s="3"/>
+    </row>
+    <row r="83" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -3833,7 +4032,7 @@
         <v>500</v>
       </c>
       <c r="E83" s="3">
-        <v>400</v>
+        <v>500</v>
       </c>
       <c r="F83" s="3">
         <v>400</v>
@@ -3842,23 +4041,23 @@
         <v>400</v>
       </c>
       <c r="H83" s="3">
-        <v>500</v>
+        <v>400</v>
       </c>
       <c r="I83" s="3">
         <v>500</v>
       </c>
       <c r="J83" s="3">
+        <v>500</v>
+      </c>
+      <c r="K83" s="3">
         <v>1000</v>
       </c>
-      <c r="K83" s="3">
+      <c r="L83" s="3">
         <v>3600</v>
       </c>
-      <c r="L83" s="3">
+      <c r="M83" s="3">
         <v>1900</v>
       </c>
-      <c r="M83" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N83" s="3" t="s">
         <v>3</v>
       </c>
@@ -3871,8 +4070,11 @@
       <c r="Q83" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="84" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R83" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="84" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -3918,8 +4120,11 @@
       <c r="Q84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -3965,8 +4170,11 @@
       <c r="Q85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -4012,8 +4220,11 @@
       <c r="Q86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -4059,8 +4270,11 @@
       <c r="Q87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -4106,41 +4320,44 @@
       <c r="Q88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>-17000</v>
+      </c>
+      <c r="E89" s="3">
         <v>-14200</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>-15300</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>-13500</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>-18000</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>-14700</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>-10000</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>-23900</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>-38500</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>-23500</v>
       </c>
-      <c r="M89" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N89" s="3" t="s">
         <v>3</v>
       </c>
@@ -4153,8 +4370,11 @@
       <c r="Q89" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="90" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R89" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="90" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -4172,41 +4392,42 @@
       <c r="O90" s="3"/>
       <c r="P90" s="3"/>
       <c r="Q90" s="3"/>
-    </row>
-    <row r="91" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R90" s="3"/>
+    </row>
+    <row r="91" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-200</v>
+      </c>
+      <c r="E91" s="3">
         <v>-300</v>
       </c>
-      <c r="E91" s="3">
+      <c r="F91" s="3">
         <v>-200</v>
       </c>
-      <c r="F91" s="3">
+      <c r="G91" s="3">
         <v>-700</v>
       </c>
-      <c r="G91" s="3">
+      <c r="H91" s="3">
         <v>-100</v>
       </c>
-      <c r="H91" s="3">
+      <c r="I91" s="3">
         <v>-200</v>
       </c>
-      <c r="I91" s="3">
+      <c r="J91" s="3">
         <v>-300</v>
       </c>
-      <c r="J91" s="3">
+      <c r="K91" s="3">
         <v>-200</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-900</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-400</v>
       </c>
-      <c r="M91" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N91" s="3" t="s">
         <v>3</v>
       </c>
@@ -4219,8 +4440,11 @@
       <c r="Q91" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="92" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R91" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="92" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -4266,8 +4490,11 @@
       <c r="Q92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -4313,41 +4540,44 @@
       <c r="Q93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>12000</v>
+      </c>
+      <c r="E94" s="3">
         <v>-36400</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
         <v>-2900</v>
       </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
         <v>-35000</v>
       </c>
-      <c r="G94" s="3">
+      <c r="H94" s="3">
         <v>-100</v>
       </c>
-      <c r="H94" s="3">
+      <c r="I94" s="3">
         <v>-200</v>
       </c>
-      <c r="I94" s="3">
+      <c r="J94" s="3">
         <v>-300</v>
       </c>
-      <c r="J94" s="3">
+      <c r="K94" s="3">
         <v>-1500</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-900</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>-400</v>
       </c>
-      <c r="M94" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N94" s="3" t="s">
         <v>3</v>
       </c>
@@ -4360,8 +4590,11 @@
       <c r="Q94" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="95" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R94" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="95" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -4379,8 +4612,9 @@
       <c r="O95" s="3"/>
       <c r="P95" s="3"/>
       <c r="Q95" s="3"/>
-    </row>
-    <row r="96" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R95" s="3"/>
+    </row>
+    <row r="96" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -4426,8 +4660,11 @@
       <c r="Q96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -4473,8 +4710,11 @@
       <c r="Q97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -4520,8 +4760,11 @@
       <c r="Q98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -4567,40 +4810,43 @@
       <c r="Q99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>0</v>
+      </c>
+      <c r="E100" s="3">
         <v>-200</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>69200</v>
       </c>
-      <c r="F100" s="3">
-        <v>0</v>
-      </c>
       <c r="G100" s="3">
+        <v>0</v>
+      </c>
+      <c r="H100" s="3">
         <v>-500</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>85800</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>-1700</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>-600</v>
-      </c>
-      <c r="K100" s="3">
-        <v>-1000</v>
       </c>
       <c r="L100" s="3">
         <v>-1000</v>
       </c>
-      <c r="M100" s="3" t="s">
-        <v>3</v>
+      <c r="M100" s="3">
+        <v>-1000</v>
       </c>
       <c r="N100" s="3" t="s">
         <v>3</v>
@@ -4614,8 +4860,11 @@
       <c r="Q100" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="101" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R100" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="101" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -4661,41 +4910,44 @@
       <c r="Q101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>-5000</v>
+      </c>
+      <c r="E102" s="3">
         <v>-50800</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>50900</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>-48500</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>-18600</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>70900</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>-12000</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>-26000</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>-40400</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>-24800</v>
       </c>
-      <c r="M102" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N102" s="3" t="s">
         <v>3</v>
       </c>
@@ -4706,6 +4958,9 @@
         <v>3</v>
       </c>
       <c r="Q102" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="R102" s="3" t="s">
         <v>3</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/SONX_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/SONX_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="377" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="373" uniqueCount="92">
   <si>
     <t>SONX</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:R102"/>
+  <dimension ref="A5:S102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,65 +665,66 @@
     <col min="1" max="1" width="7.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="18" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="19" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:19" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>45107</v>
+      </c>
+      <c r="E7" s="2">
         <v>45016</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44926</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44834</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44742</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44651</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44561</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>44469</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>44377</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>44196</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>44012</v>
       </c>
-      <c r="N7" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="O7" s="2" t="s">
         <v>3</v>
       </c>
@@ -736,44 +737,47 @@
       <c r="R7" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="8" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S7" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D8" s="3">
+        <v>11000</v>
+      </c>
+      <c r="E8" s="3">
         <v>10700</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>12200</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>9800</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>10500</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>9000</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>9900</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>7900</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>15400</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>23400</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>8500</v>
       </c>
-      <c r="N8" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="O8" s="3" t="s">
         <v>3</v>
       </c>
@@ -786,44 +790,47 @@
       <c r="R8" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="9" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S8" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="9" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D9" s="3">
+        <v>9900</v>
+      </c>
+      <c r="E9" s="3">
         <v>7400</v>
       </c>
-      <c r="E9" s="3">
+      <c r="F9" s="3">
         <v>8900</v>
       </c>
-      <c r="F9" s="3">
+      <c r="G9" s="3">
         <v>7500</v>
       </c>
-      <c r="G9" s="3">
+      <c r="H9" s="3">
         <v>8000</v>
       </c>
-      <c r="H9" s="3">
+      <c r="I9" s="3">
         <v>6800</v>
       </c>
-      <c r="I9" s="3">
+      <c r="J9" s="3">
         <v>7400</v>
       </c>
-      <c r="J9" s="3">
+      <c r="K9" s="3">
         <v>5800</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>11600</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>19500</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>7600</v>
       </c>
-      <c r="N9" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="O9" s="3" t="s">
         <v>3</v>
       </c>
@@ -836,44 +843,47 @@
       <c r="R9" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="10" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S9" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
       <c r="D10" s="3">
-        <v>3300</v>
+        <v>1100</v>
       </c>
       <c r="E10" s="3">
         <v>3300</v>
       </c>
       <c r="F10" s="3">
+        <v>3300</v>
+      </c>
+      <c r="G10" s="3">
         <v>2300</v>
       </c>
-      <c r="G10" s="3">
+      <c r="H10" s="3">
         <v>2500</v>
       </c>
-      <c r="H10" s="3">
+      <c r="I10" s="3">
         <v>2200</v>
       </c>
-      <c r="I10" s="3">
+      <c r="J10" s="3">
         <v>2500</v>
       </c>
-      <c r="J10" s="3">
+      <c r="K10" s="3">
         <v>2100</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>3800</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>3900</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>900</v>
       </c>
-      <c r="N10" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="O10" s="3" t="s">
         <v>3</v>
       </c>
@@ -886,8 +896,11 @@
       <c r="R10" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="11" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S10" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -906,44 +919,45 @@
       <c r="P11" s="3"/>
       <c r="Q11" s="3"/>
       <c r="R11" s="3"/>
-    </row>
-    <row r="12" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S11" s="3"/>
+    </row>
+    <row r="12" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
       <c r="D12" s="3">
+        <v>3300</v>
+      </c>
+      <c r="E12" s="3">
         <v>3500</v>
       </c>
-      <c r="E12" s="3">
+      <c r="F12" s="3">
         <v>3600</v>
       </c>
-      <c r="F12" s="3">
+      <c r="G12" s="3">
         <v>4300</v>
       </c>
-      <c r="G12" s="3">
+      <c r="H12" s="3">
         <v>4000</v>
       </c>
-      <c r="H12" s="3">
+      <c r="I12" s="3">
         <v>4900</v>
       </c>
-      <c r="I12" s="3">
+      <c r="J12" s="3">
         <v>4300</v>
       </c>
-      <c r="J12" s="3">
+      <c r="K12" s="3">
         <v>4600</v>
       </c>
-      <c r="K12" s="3">
+      <c r="L12" s="3">
         <v>9700</v>
       </c>
-      <c r="L12" s="3">
+      <c r="M12" s="3">
         <v>20500</v>
       </c>
-      <c r="M12" s="3">
+      <c r="N12" s="3">
         <v>9600</v>
       </c>
-      <c r="N12" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="O12" s="3" t="s">
         <v>3</v>
       </c>
@@ -956,8 +970,11 @@
       <c r="R12" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="13" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S12" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1006,20 +1023,23 @@
       <c r="R13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D14" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="E14" s="3">
+      <c r="E14" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="F14" s="3">
         <v>-4400</v>
       </c>
-      <c r="F14" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="G14" s="3" t="s">
         <v>3</v>
       </c>
@@ -1035,8 +1055,8 @@
       <c r="K14" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="L14" s="3">
-        <v>0</v>
+      <c r="L14" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="M14" s="3">
         <v>0</v>
@@ -1056,35 +1076,38 @@
       <c r="R14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D15" s="3">
         <v>100</v>
       </c>
-      <c r="E15" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="F15" s="3">
+      <c r="E15" s="3">
+        <v>100</v>
+      </c>
+      <c r="F15" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="G15" s="3">
         <v>200</v>
-      </c>
-      <c r="G15" s="3">
-        <v>100</v>
       </c>
       <c r="H15" s="3">
         <v>100</v>
       </c>
       <c r="I15" s="3">
+        <v>100</v>
+      </c>
+      <c r="J15" s="3">
         <v>200</v>
       </c>
-      <c r="J15" s="3">
+      <c r="K15" s="3">
         <v>100</v>
       </c>
-      <c r="K15" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L15" s="3" t="s">
         <v>3</v>
       </c>
@@ -1094,8 +1117,8 @@
       <c r="N15" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="O15" s="3">
-        <v>0</v>
+      <c r="O15" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="P15" s="3">
         <v>0</v>
@@ -1106,8 +1129,11 @@
       <c r="R15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:19" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1123,44 +1149,45 @@
       <c r="P16" s="3"/>
       <c r="Q16" s="3"/>
       <c r="R16" s="3"/>
-    </row>
-    <row r="17" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S16" s="3"/>
+    </row>
+    <row r="17" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>28000</v>
+      </c>
+      <c r="E17" s="3">
         <v>25500</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>22600</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>24400</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>24800</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>23600</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>23500</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>19000</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>35200</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>66100</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>30400</v>
       </c>
-      <c r="N17" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="O17" s="3" t="s">
         <v>3</v>
       </c>
@@ -1173,44 +1200,47 @@
       <c r="R17" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="18" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S17" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="18" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>-17000</v>
+      </c>
+      <c r="E18" s="3">
         <v>-14800</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>-10400</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>-14600</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>-14300</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>-14600</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>-13600</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>-11100</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>-19800</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>-42700</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>-21900</v>
       </c>
-      <c r="N18" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="O18" s="3" t="s">
         <v>3</v>
       </c>
@@ -1223,8 +1253,11 @@
       <c r="R18" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="19" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S18" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="19" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1243,44 +1276,45 @@
       <c r="P19" s="3"/>
       <c r="Q19" s="3"/>
       <c r="R19" s="3"/>
-    </row>
-    <row r="20" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S19" s="3"/>
+    </row>
+    <row r="20" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
+        <v>-700</v>
+      </c>
+      <c r="E20" s="3">
         <v>-500</v>
       </c>
-      <c r="E20" s="3">
+      <c r="F20" s="3">
         <v>-400</v>
       </c>
-      <c r="F20" s="3">
+      <c r="G20" s="3">
         <v>-900</v>
       </c>
-      <c r="G20" s="3">
+      <c r="H20" s="3">
         <v>-800</v>
       </c>
-      <c r="H20" s="3">
+      <c r="I20" s="3">
         <v>-900</v>
       </c>
-      <c r="I20" s="3">
+      <c r="J20" s="3">
         <v>-200</v>
       </c>
-      <c r="J20" s="3">
+      <c r="K20" s="3">
         <v>-1600</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>-2300</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>-3900</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>-1700</v>
       </c>
-      <c r="N20" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="O20" s="3" t="s">
         <v>3</v>
       </c>
@@ -1293,44 +1327,47 @@
       <c r="R20" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="21" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S20" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="21" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>-17200</v>
+      </c>
+      <c r="E21" s="3">
         <v>-14900</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
         <v>-10400</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>-15100</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>-14700</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>-15100</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>-13200</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>-12200</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>-21000</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>-43100</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>-21700</v>
       </c>
-      <c r="N21" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="O21" s="3" t="s">
         <v>3</v>
       </c>
@@ -1343,8 +1380,11 @@
       <c r="R21" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="22" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S21" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="22" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1393,44 +1433,47 @@
       <c r="R22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>-17700</v>
+      </c>
+      <c r="E23" s="3">
         <v>-15400</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>-10900</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>-15500</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>-15100</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>-15500</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>-13700</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>-12700</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>-22100</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>-46700</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>-23500</v>
       </c>
-      <c r="N23" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="O23" s="3" t="s">
         <v>3</v>
       </c>
@@ -1443,16 +1486,19 @@
       <c r="R23" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="24" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S23" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="24" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="D24" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="E24" s="3">
-        <v>0</v>
+      <c r="D24" s="3">
+        <v>0</v>
+      </c>
+      <c r="E24" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="F24" s="3">
         <v>0</v>
@@ -1466,23 +1512,23 @@
       <c r="I24" s="3">
         <v>0</v>
       </c>
-      <c r="J24" s="3" t="s">
-        <v>3</v>
+      <c r="J24" s="3">
+        <v>0</v>
       </c>
       <c r="K24" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="L24" s="3">
-        <v>0</v>
-      </c>
-      <c r="M24" s="3" t="s">
-        <v>3</v>
+      <c r="L24" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M24" s="3">
+        <v>0</v>
       </c>
       <c r="N24" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="O24" s="3">
-        <v>0</v>
+      <c r="O24" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="P24" s="3">
         <v>0</v>
@@ -1493,8 +1539,11 @@
       <c r="R24" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1543,44 +1592,47 @@
       <c r="R25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>-17700</v>
+      </c>
+      <c r="E26" s="3">
         <v>-15400</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>-10900</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>-15500</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>-15100</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>-15500</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>-13700</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>-12700</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>-22100</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>-46700</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>-23500</v>
       </c>
-      <c r="N26" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="O26" s="3" t="s">
         <v>3</v>
       </c>
@@ -1593,44 +1645,47 @@
       <c r="R26" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="27" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S26" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="27" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>-17700</v>
+      </c>
+      <c r="E27" s="3">
         <v>-15400</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>-10900</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>-15500</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>-15100</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>-15500</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>-13700</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>-12700</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>-22100</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>-46700</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>-23500</v>
       </c>
-      <c r="N27" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="O27" s="3" t="s">
         <v>3</v>
       </c>
@@ -1643,8 +1698,11 @@
       <c r="R27" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="28" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S27" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="28" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1693,8 +1751,11 @@
       <c r="R28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1722,11 +1783,11 @@
       <c r="K29" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="L29" s="3">
-        <v>0</v>
-      </c>
-      <c r="M29" s="3" t="s">
-        <v>3</v>
+      <c r="L29" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M29" s="3">
+        <v>0</v>
       </c>
       <c r="N29" s="3" t="s">
         <v>3</v>
@@ -1743,8 +1804,11 @@
       <c r="R29" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="30" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S29" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="30" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1793,8 +1857,11 @@
       <c r="R30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1843,44 +1910,47 @@
       <c r="R31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>700</v>
+      </c>
+      <c r="E32" s="3">
         <v>500</v>
       </c>
-      <c r="E32" s="3">
+      <c r="F32" s="3">
         <v>400</v>
       </c>
-      <c r="F32" s="3">
+      <c r="G32" s="3">
         <v>900</v>
       </c>
-      <c r="G32" s="3">
+      <c r="H32" s="3">
         <v>800</v>
       </c>
-      <c r="H32" s="3">
+      <c r="I32" s="3">
         <v>900</v>
       </c>
-      <c r="I32" s="3">
+      <c r="J32" s="3">
         <v>200</v>
       </c>
-      <c r="J32" s="3">
+      <c r="K32" s="3">
         <v>1600</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>2300</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>3900</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>1700</v>
       </c>
-      <c r="N32" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="O32" s="3" t="s">
         <v>3</v>
       </c>
@@ -1893,44 +1963,47 @@
       <c r="R32" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="33" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S32" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="33" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>-17700</v>
+      </c>
+      <c r="E33" s="3">
         <v>-15400</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>-10900</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>-15500</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>-15100</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>-15500</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>-13700</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>-12700</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>-22100</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>-46700</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>-23500</v>
       </c>
-      <c r="N33" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="O33" s="3" t="s">
         <v>3</v>
       </c>
@@ -1943,8 +2016,11 @@
       <c r="R33" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="34" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S33" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="34" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1993,44 +2069,47 @@
       <c r="R34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>-17700</v>
+      </c>
+      <c r="E35" s="3">
         <v>-15400</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>-10900</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>-15500</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>-15100</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>-15500</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>-13700</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>-12700</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>-22100</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>-46700</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>-23500</v>
       </c>
-      <c r="N35" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="O35" s="3" t="s">
         <v>3</v>
       </c>
@@ -2043,49 +2122,52 @@
       <c r="R35" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="37" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S35" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="37" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>45107</v>
+      </c>
+      <c r="E38" s="2">
         <v>45016</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44926</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44834</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44742</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44651</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44561</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>44469</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>44377</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>44196</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>44012</v>
       </c>
-      <c r="N38" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="O38" s="2" t="s">
         <v>3</v>
       </c>
@@ -2098,8 +2180,11 @@
       <c r="R38" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="39" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S38" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="39" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2118,8 +2203,9 @@
       <c r="P39" s="3"/>
       <c r="Q39" s="3"/>
       <c r="R39" s="3"/>
-    </row>
-    <row r="40" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S39" s="3"/>
+    </row>
+    <row r="40" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2138,8 +2224,9 @@
       <c r="P40" s="3"/>
       <c r="Q40" s="3"/>
       <c r="R40" s="3"/>
-    </row>
-    <row r="41" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S40" s="3"/>
+    </row>
+    <row r="41" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
@@ -2147,29 +2234,29 @@
         <v>12600</v>
       </c>
       <c r="E41" s="3">
+        <v>12600</v>
+      </c>
+      <c r="F41" s="3">
         <v>17700</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>68500</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>17600</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>66100</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>84600</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>13700</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>25700</v>
       </c>
-      <c r="L41" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M41" s="3" t="s">
         <v>3</v>
       </c>
@@ -2188,26 +2275,29 @@
       <c r="R41" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="42" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S41" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="42" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
+        <v>53300</v>
+      </c>
+      <c r="E42" s="3">
         <v>62300</v>
       </c>
-      <c r="E42" s="3">
+      <c r="F42" s="3">
         <v>73800</v>
       </c>
-      <c r="F42" s="3">
+      <c r="G42" s="3">
         <v>37100</v>
       </c>
-      <c r="G42" s="3">
+      <c r="H42" s="3">
         <v>34200</v>
       </c>
-      <c r="H42" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="I42" s="3" t="s">
         <v>3</v>
       </c>
@@ -2223,8 +2313,8 @@
       <c r="M42" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="N42" s="3">
-        <v>0</v>
+      <c r="N42" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="O42" s="3">
         <v>0</v>
@@ -2238,38 +2328,41 @@
       <c r="R42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>6300</v>
+      </c>
+      <c r="E43" s="3">
         <v>6400</v>
       </c>
-      <c r="E43" s="3">
+      <c r="F43" s="3">
         <v>5800</v>
       </c>
-      <c r="F43" s="3">
+      <c r="G43" s="3">
         <v>3300</v>
       </c>
-      <c r="G43" s="3">
+      <c r="H43" s="3">
         <v>3200</v>
       </c>
-      <c r="H43" s="3">
+      <c r="I43" s="3">
         <v>2700</v>
       </c>
-      <c r="I43" s="3">
+      <c r="J43" s="3">
         <v>2500</v>
       </c>
-      <c r="J43" s="3">
+      <c r="K43" s="3">
         <v>1900</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>2300</v>
       </c>
-      <c r="L43" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M43" s="3" t="s">
         <v>3</v>
       </c>
@@ -2288,38 +2381,41 @@
       <c r="R43" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="44" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S43" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="44" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
+        <v>13200</v>
+      </c>
+      <c r="E44" s="3">
         <v>16000</v>
       </c>
-      <c r="E44" s="3">
+      <c r="F44" s="3">
         <v>15500</v>
       </c>
-      <c r="F44" s="3">
+      <c r="G44" s="3">
         <v>15200</v>
       </c>
-      <c r="G44" s="3">
+      <c r="H44" s="3">
         <v>12700</v>
       </c>
-      <c r="H44" s="3">
+      <c r="I44" s="3">
         <v>10100</v>
       </c>
-      <c r="I44" s="3">
+      <c r="J44" s="3">
         <v>8200</v>
       </c>
-      <c r="J44" s="3">
+      <c r="K44" s="3">
         <v>7200</v>
       </c>
-      <c r="K44" s="3">
+      <c r="L44" s="3">
         <v>5800</v>
       </c>
-      <c r="L44" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M44" s="3" t="s">
         <v>3</v>
       </c>
@@ -2338,38 +2434,41 @@
       <c r="R44" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="45" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S44" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="45" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>1900</v>
+      </c>
+      <c r="E45" s="3">
         <v>9100</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
         <v>8400</v>
       </c>
-      <c r="F45" s="3">
+      <c r="G45" s="3">
         <v>2900</v>
-      </c>
-      <c r="G45" s="3">
-        <v>4000</v>
       </c>
       <c r="H45" s="3">
         <v>4000</v>
       </c>
       <c r="I45" s="3">
+        <v>4000</v>
+      </c>
+      <c r="J45" s="3">
         <v>3600</v>
       </c>
-      <c r="J45" s="3">
+      <c r="K45" s="3">
         <v>3400</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>800</v>
       </c>
-      <c r="L45" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M45" s="3" t="s">
         <v>3</v>
       </c>
@@ -2388,38 +2487,41 @@
       <c r="R45" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="46" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S45" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="46" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>87200</v>
+      </c>
+      <c r="E46" s="3">
         <v>106400</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>121100</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>127000</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>71700</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>82900</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>98900</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>26300</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>34700</v>
       </c>
-      <c r="L46" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M46" s="3" t="s">
         <v>3</v>
       </c>
@@ -2438,8 +2540,11 @@
       <c r="R46" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="47" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S46" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="47" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -2488,38 +2593,41 @@
       <c r="R47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>6400</v>
+      </c>
+      <c r="E48" s="3">
         <v>6800</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>5300</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>4900</v>
       </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
         <v>5000</v>
       </c>
-      <c r="H48" s="3">
+      <c r="I48" s="3">
         <v>4700</v>
       </c>
-      <c r="I48" s="3">
+      <c r="J48" s="3">
         <v>5100</v>
       </c>
-      <c r="J48" s="3">
+      <c r="K48" s="3">
         <v>5500</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>6000</v>
       </c>
-      <c r="L48" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M48" s="3" t="s">
         <v>3</v>
       </c>
@@ -2538,38 +2646,41 @@
       <c r="R48" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="49" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S48" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="49" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
+        <v>10400</v>
+      </c>
+      <c r="E49" s="3">
         <v>10600</v>
       </c>
-      <c r="E49" s="3">
+      <c r="F49" s="3">
         <v>10700</v>
       </c>
-      <c r="F49" s="3">
+      <c r="G49" s="3">
         <v>10900</v>
       </c>
-      <c r="G49" s="3">
+      <c r="H49" s="3">
         <v>11100</v>
       </c>
-      <c r="H49" s="3">
+      <c r="I49" s="3">
         <v>11200</v>
       </c>
-      <c r="I49" s="3">
+      <c r="J49" s="3">
         <v>11400</v>
       </c>
-      <c r="J49" s="3">
+      <c r="K49" s="3">
         <v>11600</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>11700</v>
       </c>
-      <c r="L49" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M49" s="3" t="s">
         <v>3</v>
       </c>
@@ -2588,8 +2699,11 @@
       <c r="R49" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="50" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S49" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="50" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2638,8 +2752,11 @@
       <c r="R50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2688,8 +2805,11 @@
       <c r="R51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
@@ -2717,8 +2837,8 @@
       <c r="K52" s="3">
         <v>100</v>
       </c>
-      <c r="L52" s="3" t="s">
-        <v>3</v>
+      <c r="L52" s="3">
+        <v>100</v>
       </c>
       <c r="M52" s="3" t="s">
         <v>3</v>
@@ -2738,8 +2858,11 @@
       <c r="R52" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="53" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S52" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="53" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2788,38 +2911,41 @@
       <c r="R53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>104100</v>
+      </c>
+      <c r="E54" s="3">
         <v>123900</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>137300</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>142900</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>87900</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>98900</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>115500</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>43400</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>52500</v>
       </c>
-      <c r="L54" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M54" s="3" t="s">
         <v>3</v>
       </c>
@@ -2838,8 +2964,11 @@
       <c r="R54" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="55" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S54" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="55" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2858,8 +2987,9 @@
       <c r="P55" s="3"/>
       <c r="Q55" s="3"/>
       <c r="R55" s="3"/>
-    </row>
-    <row r="56" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S55" s="3"/>
+    </row>
+    <row r="56" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2878,38 +3008,39 @@
       <c r="P56" s="3"/>
       <c r="Q56" s="3"/>
       <c r="R56" s="3"/>
-    </row>
-    <row r="57" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S56" s="3"/>
+    </row>
+    <row r="57" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>1100</v>
+      </c>
+      <c r="E57" s="3">
         <v>5400</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>4400</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>2100</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>2400</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>2200</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>3100</v>
       </c>
-      <c r="J57" s="3">
+      <c r="K57" s="3">
         <v>2000</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>1100</v>
       </c>
-      <c r="L57" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M57" s="3" t="s">
         <v>3</v>
       </c>
@@ -2928,38 +3059,41 @@
       <c r="R57" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="58" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S57" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="58" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="D58" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="E58" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="F58" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="G58" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="H58" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="I58" s="3" t="s">
-        <v>3</v>
+      <c r="D58" s="3">
+        <v>0</v>
+      </c>
+      <c r="E58" s="3">
+        <v>0</v>
+      </c>
+      <c r="F58" s="3">
+        <v>0</v>
+      </c>
+      <c r="G58" s="3">
+        <v>0</v>
+      </c>
+      <c r="H58" s="3">
+        <v>0</v>
+      </c>
+      <c r="I58" s="3">
+        <v>0</v>
       </c>
       <c r="J58" s="3">
         <v>0</v>
       </c>
       <c r="K58" s="3">
+        <v>0</v>
+      </c>
+      <c r="L58" s="3">
         <v>28800</v>
       </c>
-      <c r="L58" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M58" s="3" t="s">
         <v>3</v>
       </c>
@@ -2978,38 +3112,41 @@
       <c r="R58" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="59" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S58" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="59" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>10300</v>
+      </c>
+      <c r="E59" s="3">
         <v>9800</v>
-      </c>
-      <c r="E59" s="3">
-        <v>12300</v>
       </c>
       <c r="F59" s="3">
         <v>12300</v>
       </c>
       <c r="G59" s="3">
+        <v>12300</v>
+      </c>
+      <c r="H59" s="3">
         <v>11900</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>9900</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>11600</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>10800</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>8800</v>
       </c>
-      <c r="L59" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M59" s="3" t="s">
         <v>3</v>
       </c>
@@ -3028,38 +3165,41 @@
       <c r="R59" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="60" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S59" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="60" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>11300</v>
+      </c>
+      <c r="E60" s="3">
         <v>15200</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>16700</v>
-      </c>
-      <c r="F60" s="3">
-        <v>14300</v>
       </c>
       <c r="G60" s="3">
         <v>14300</v>
       </c>
       <c r="H60" s="3">
+        <v>14300</v>
+      </c>
+      <c r="I60" s="3">
         <v>12100</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>14700</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>12800</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>38700</v>
       </c>
-      <c r="L60" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M60" s="3" t="s">
         <v>3</v>
       </c>
@@ -3078,35 +3218,38 @@
       <c r="R60" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="61" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S60" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="61" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>37000</v>
+      </c>
+      <c r="E61" s="3">
         <v>36900</v>
       </c>
-      <c r="E61" s="3">
+      <c r="F61" s="3">
         <v>36700</v>
       </c>
-      <c r="F61" s="3">
+      <c r="G61" s="3">
         <v>36600</v>
-      </c>
-      <c r="G61" s="3">
-        <v>26600</v>
       </c>
       <c r="H61" s="3">
         <v>26600</v>
       </c>
       <c r="I61" s="3">
+        <v>26600</v>
+      </c>
+      <c r="J61" s="3">
         <v>26500</v>
       </c>
-      <c r="J61" s="3">
+      <c r="K61" s="3">
         <v>26400</v>
       </c>
-      <c r="K61" s="3">
-        <v>0</v>
-      </c>
       <c r="L61" s="3">
         <v>0</v>
       </c>
@@ -3128,38 +3271,41 @@
       <c r="R61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>2700</v>
+      </c>
+      <c r="E62" s="3">
         <v>3200</v>
       </c>
-      <c r="E62" s="3">
+      <c r="F62" s="3">
         <v>1900</v>
       </c>
-      <c r="F62" s="3">
+      <c r="G62" s="3">
         <v>1600</v>
       </c>
-      <c r="G62" s="3">
+      <c r="H62" s="3">
         <v>1900</v>
       </c>
-      <c r="H62" s="3">
+      <c r="I62" s="3">
         <v>2000</v>
       </c>
-      <c r="I62" s="3">
+      <c r="J62" s="3">
         <v>2300</v>
       </c>
-      <c r="J62" s="3">
+      <c r="K62" s="3">
         <v>10000</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>7400</v>
       </c>
-      <c r="L62" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M62" s="3" t="s">
         <v>3</v>
       </c>
@@ -3178,8 +3324,11 @@
       <c r="R62" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="63" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S62" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="63" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3228,8 +3377,11 @@
       <c r="R63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -3278,8 +3430,11 @@
       <c r="R64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3328,38 +3483,41 @@
       <c r="R65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>55300</v>
+        <v>51100</v>
       </c>
       <c r="E66" s="3">
         <v>55300</v>
       </c>
       <c r="F66" s="3">
+        <v>55300</v>
+      </c>
+      <c r="G66" s="3">
         <v>52600</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>42900</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>40700</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>43400</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>49100</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>46100</v>
       </c>
-      <c r="L66" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M66" s="3" t="s">
         <v>3</v>
       </c>
@@ -3378,8 +3536,11 @@
       <c r="R66" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="67" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S66" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="67" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3398,8 +3559,9 @@
       <c r="P67" s="3"/>
       <c r="Q67" s="3"/>
       <c r="R67" s="3"/>
-    </row>
-    <row r="68" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S67" s="3"/>
+    </row>
+    <row r="68" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3448,8 +3610,11 @@
       <c r="R68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -3498,8 +3663,11 @@
       <c r="R69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -3522,13 +3690,13 @@
         <v>0</v>
       </c>
       <c r="J70" s="3">
-        <v>281300</v>
+        <v>0</v>
       </c>
       <c r="K70" s="3">
         <v>281300</v>
       </c>
       <c r="L70" s="3">
-        <v>0</v>
+        <v>281300</v>
       </c>
       <c r="M70" s="3">
         <v>0</v>
@@ -3548,8 +3716,11 @@
       <c r="R70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3598,38 +3769,41 @@
       <c r="R71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-402200</v>
+      </c>
+      <c r="E72" s="3">
         <v>-384500</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>-369100</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>-358200</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>-342700</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>-327600</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>-312000</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>-298300</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>-285600</v>
       </c>
-      <c r="L72" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M72" s="3" t="s">
         <v>3</v>
       </c>
@@ -3648,8 +3822,11 @@
       <c r="R72" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="73" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S72" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="73" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -3698,8 +3875,11 @@
       <c r="R73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3748,8 +3928,11 @@
       <c r="R74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3798,38 +3981,41 @@
       <c r="R75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>53000</v>
+      </c>
+      <c r="E76" s="3">
         <v>68600</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>82000</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>90400</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>45000</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>58200</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>72100</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>-287100</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>-275000</v>
       </c>
-      <c r="L76" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M76" s="3" t="s">
         <v>3</v>
       </c>
@@ -3848,8 +4034,11 @@
       <c r="R76" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="77" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S76" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="77" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -3898,49 +4087,52 @@
       <c r="R77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>45107</v>
+      </c>
+      <c r="E80" s="2">
         <v>45016</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44926</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44834</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44742</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44651</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44561</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>44469</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>44377</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>44196</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>44012</v>
       </c>
-      <c r="N80" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="O80" s="2" t="s">
         <v>3</v>
       </c>
@@ -3953,44 +4145,47 @@
       <c r="R80" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="81" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S80" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="81" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>-17700</v>
+      </c>
+      <c r="E81" s="3">
         <v>-15400</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>-10900</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>-15500</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>-15100</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>-15500</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>-13700</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>-12700</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>-22100</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>-46700</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>-23500</v>
       </c>
-      <c r="N81" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="O81" s="3" t="s">
         <v>3</v>
       </c>
@@ -4003,8 +4198,11 @@
       <c r="R81" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="82" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S81" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="82" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -4023,8 +4221,9 @@
       <c r="P82" s="3"/>
       <c r="Q82" s="3"/>
       <c r="R82" s="3"/>
-    </row>
-    <row r="83" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S82" s="3"/>
+    </row>
+    <row r="83" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -4035,7 +4234,7 @@
         <v>500</v>
       </c>
       <c r="F83" s="3">
-        <v>400</v>
+        <v>500</v>
       </c>
       <c r="G83" s="3">
         <v>400</v>
@@ -4044,23 +4243,23 @@
         <v>400</v>
       </c>
       <c r="I83" s="3">
-        <v>500</v>
+        <v>400</v>
       </c>
       <c r="J83" s="3">
         <v>500</v>
       </c>
       <c r="K83" s="3">
+        <v>500</v>
+      </c>
+      <c r="L83" s="3">
         <v>1000</v>
       </c>
-      <c r="L83" s="3">
+      <c r="M83" s="3">
         <v>3600</v>
       </c>
-      <c r="M83" s="3">
+      <c r="N83" s="3">
         <v>1900</v>
       </c>
-      <c r="N83" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="O83" s="3" t="s">
         <v>3</v>
       </c>
@@ -4073,8 +4272,11 @@
       <c r="R83" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="84" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S83" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="84" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -4123,8 +4325,11 @@
       <c r="R84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -4173,8 +4378,11 @@
       <c r="R85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -4223,8 +4431,11 @@
       <c r="R86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -4273,8 +4484,11 @@
       <c r="R87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -4323,44 +4537,47 @@
       <c r="R88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>-9400</v>
+      </c>
+      <c r="E89" s="3">
         <v>-17000</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>-14200</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>-15300</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>-13500</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>-18000</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>-14700</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>-10000</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>-23900</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>-38500</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>-23500</v>
       </c>
-      <c r="N89" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="O89" s="3" t="s">
         <v>3</v>
       </c>
@@ -4373,8 +4590,11 @@
       <c r="R89" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="90" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S89" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="90" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -4393,44 +4613,45 @@
       <c r="P90" s="3"/>
       <c r="Q90" s="3"/>
       <c r="R90" s="3"/>
-    </row>
-    <row r="91" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S90" s="3"/>
+    </row>
+    <row r="91" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-400</v>
+      </c>
+      <c r="E91" s="3">
         <v>-200</v>
       </c>
-      <c r="E91" s="3">
+      <c r="F91" s="3">
         <v>-300</v>
       </c>
-      <c r="F91" s="3">
+      <c r="G91" s="3">
         <v>-200</v>
       </c>
-      <c r="G91" s="3">
+      <c r="H91" s="3">
         <v>-700</v>
       </c>
-      <c r="H91" s="3">
+      <c r="I91" s="3">
         <v>-100</v>
       </c>
-      <c r="I91" s="3">
+      <c r="J91" s="3">
         <v>-200</v>
       </c>
-      <c r="J91" s="3">
+      <c r="K91" s="3">
         <v>-300</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-200</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-900</v>
       </c>
-      <c r="M91" s="3">
+      <c r="N91" s="3">
         <v>-400</v>
       </c>
-      <c r="N91" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="O91" s="3" t="s">
         <v>3</v>
       </c>
@@ -4443,8 +4664,11 @@
       <c r="R91" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="92" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S91" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="92" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -4493,8 +4717,11 @@
       <c r="R92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -4543,44 +4770,47 @@
       <c r="R93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>9200</v>
+      </c>
+      <c r="E94" s="3">
         <v>12000</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
         <v>-36400</v>
       </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
         <v>-2900</v>
       </c>
-      <c r="G94" s="3">
+      <c r="H94" s="3">
         <v>-35000</v>
       </c>
-      <c r="H94" s="3">
+      <c r="I94" s="3">
         <v>-100</v>
       </c>
-      <c r="I94" s="3">
+      <c r="J94" s="3">
         <v>-200</v>
       </c>
-      <c r="J94" s="3">
+      <c r="K94" s="3">
         <v>-300</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-1500</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>-900</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>-400</v>
       </c>
-      <c r="N94" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="O94" s="3" t="s">
         <v>3</v>
       </c>
@@ -4593,8 +4823,11 @@
       <c r="R94" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="95" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S94" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="95" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -4613,8 +4846,9 @@
       <c r="P95" s="3"/>
       <c r="Q95" s="3"/>
       <c r="R95" s="3"/>
-    </row>
-    <row r="96" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S95" s="3"/>
+    </row>
+    <row r="96" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -4663,8 +4897,11 @@
       <c r="R96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -4713,8 +4950,11 @@
       <c r="R97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -4763,8 +5003,11 @@
       <c r="R98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -4813,43 +5056,46 @@
       <c r="R99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E100" s="3">
+        <v>0</v>
+      </c>
+      <c r="F100" s="3">
         <v>-200</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>69200</v>
       </c>
-      <c r="G100" s="3">
-        <v>0</v>
-      </c>
       <c r="H100" s="3">
+        <v>0</v>
+      </c>
+      <c r="I100" s="3">
         <v>-500</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>85800</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>-1700</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>-600</v>
-      </c>
-      <c r="L100" s="3">
-        <v>-1000</v>
       </c>
       <c r="M100" s="3">
         <v>-1000</v>
       </c>
-      <c r="N100" s="3" t="s">
-        <v>3</v>
+      <c r="N100" s="3">
+        <v>-1000</v>
       </c>
       <c r="O100" s="3" t="s">
         <v>3</v>
@@ -4863,8 +5109,11 @@
       <c r="R100" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="101" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S100" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="101" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -4913,44 +5162,47 @@
       <c r="R101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>-100</v>
+      </c>
+      <c r="E102" s="3">
         <v>-5000</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>-50800</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>50900</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>-48500</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>-18600</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>70900</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>-12000</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>-26000</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>-40400</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>-24800</v>
       </c>
-      <c r="N102" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="O102" s="3" t="s">
         <v>3</v>
       </c>
@@ -4961,6 +5213,9 @@
         <v>3</v>
       </c>
       <c r="R102" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="S102" s="3" t="s">
         <v>3</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/SONX_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/SONX_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="373" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="374" uniqueCount="92">
   <si>
     <t>SONX</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:S102"/>
+  <dimension ref="A5:T102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,69 +665,70 @@
     <col min="1" max="1" width="7.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="19" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="20" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:20" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>45199</v>
+      </c>
+      <c r="E7" s="2">
         <v>45107</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>45016</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44926</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44834</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44742</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44651</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>44561</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>44469</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>44377</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>44196</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>44012</v>
       </c>
-      <c r="O7" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="P7" s="2" t="s">
         <v>3</v>
       </c>
@@ -740,47 +741,50 @@
       <c r="S7" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="8" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T7" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D8" s="3">
+        <v>10400</v>
+      </c>
+      <c r="E8" s="3">
         <v>11000</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>10700</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>12200</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>9800</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>10500</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>9000</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>9900</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>7900</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>15400</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>23400</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>8500</v>
       </c>
-      <c r="O8" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="P8" s="3" t="s">
         <v>3</v>
       </c>
@@ -793,47 +797,50 @@
       <c r="S8" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="9" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T8" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="9" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D9" s="3">
+        <v>6600</v>
+      </c>
+      <c r="E9" s="3">
         <v>9900</v>
       </c>
-      <c r="E9" s="3">
+      <c r="F9" s="3">
         <v>7400</v>
       </c>
-      <c r="F9" s="3">
+      <c r="G9" s="3">
         <v>8900</v>
       </c>
-      <c r="G9" s="3">
+      <c r="H9" s="3">
         <v>7500</v>
       </c>
-      <c r="H9" s="3">
+      <c r="I9" s="3">
         <v>8000</v>
       </c>
-      <c r="I9" s="3">
+      <c r="J9" s="3">
         <v>6800</v>
       </c>
-      <c r="J9" s="3">
+      <c r="K9" s="3">
         <v>7400</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>5800</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>11600</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>19500</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>7600</v>
       </c>
-      <c r="O9" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="P9" s="3" t="s">
         <v>3</v>
       </c>
@@ -846,47 +853,50 @@
       <c r="S9" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="10" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T9" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
       <c r="D10" s="3">
+        <v>3800</v>
+      </c>
+      <c r="E10" s="3">
         <v>1100</v>
-      </c>
-      <c r="E10" s="3">
-        <v>3300</v>
       </c>
       <c r="F10" s="3">
         <v>3300</v>
       </c>
       <c r="G10" s="3">
+        <v>3300</v>
+      </c>
+      <c r="H10" s="3">
         <v>2300</v>
       </c>
-      <c r="H10" s="3">
+      <c r="I10" s="3">
         <v>2500</v>
       </c>
-      <c r="I10" s="3">
+      <c r="J10" s="3">
         <v>2200</v>
       </c>
-      <c r="J10" s="3">
+      <c r="K10" s="3">
         <v>2500</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>2100</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>3800</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>3900</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>900</v>
       </c>
-      <c r="O10" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="P10" s="3" t="s">
         <v>3</v>
       </c>
@@ -899,8 +909,11 @@
       <c r="S10" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="11" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T10" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -920,47 +933,48 @@
       <c r="Q11" s="3"/>
       <c r="R11" s="3"/>
       <c r="S11" s="3"/>
-    </row>
-    <row r="12" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T11" s="3"/>
+    </row>
+    <row r="12" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
       <c r="D12" s="3">
+        <v>3000</v>
+      </c>
+      <c r="E12" s="3">
         <v>3300</v>
       </c>
-      <c r="E12" s="3">
+      <c r="F12" s="3">
         <v>3500</v>
       </c>
-      <c r="F12" s="3">
+      <c r="G12" s="3">
         <v>3600</v>
       </c>
-      <c r="G12" s="3">
+      <c r="H12" s="3">
         <v>4300</v>
       </c>
-      <c r="H12" s="3">
+      <c r="I12" s="3">
         <v>4000</v>
       </c>
-      <c r="I12" s="3">
+      <c r="J12" s="3">
         <v>4900</v>
       </c>
-      <c r="J12" s="3">
+      <c r="K12" s="3">
         <v>4300</v>
       </c>
-      <c r="K12" s="3">
+      <c r="L12" s="3">
         <v>4600</v>
       </c>
-      <c r="L12" s="3">
+      <c r="M12" s="3">
         <v>9700</v>
       </c>
-      <c r="M12" s="3">
+      <c r="N12" s="3">
         <v>20500</v>
       </c>
-      <c r="N12" s="3">
+      <c r="O12" s="3">
         <v>9600</v>
       </c>
-      <c r="O12" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="P12" s="3" t="s">
         <v>3</v>
       </c>
@@ -973,8 +987,11 @@
       <c r="S12" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="13" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T12" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1026,23 +1043,26 @@
       <c r="S13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="D14" s="3" t="s">
-        <v>3</v>
+      <c r="D14" s="3">
+        <v>3400</v>
       </c>
       <c r="E14" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="F14" s="3">
+      <c r="F14" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="G14" s="3">
         <v>-4400</v>
       </c>
-      <c r="G14" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="H14" s="3" t="s">
         <v>3</v>
       </c>
@@ -1058,8 +1078,8 @@
       <c r="L14" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="M14" s="3">
-        <v>0</v>
+      <c r="M14" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="N14" s="3">
         <v>0</v>
@@ -1079,38 +1099,41 @@
       <c r="S14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D15" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="E15" s="3">
         <v>100</v>
       </c>
-      <c r="F15" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="G15" s="3">
+      <c r="F15" s="3">
+        <v>100</v>
+      </c>
+      <c r="G15" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="H15" s="3">
         <v>200</v>
-      </c>
-      <c r="H15" s="3">
-        <v>100</v>
       </c>
       <c r="I15" s="3">
         <v>100</v>
       </c>
       <c r="J15" s="3">
+        <v>100</v>
+      </c>
+      <c r="K15" s="3">
         <v>200</v>
       </c>
-      <c r="K15" s="3">
+      <c r="L15" s="3">
         <v>100</v>
       </c>
-      <c r="L15" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M15" s="3" t="s">
         <v>3</v>
       </c>
@@ -1120,8 +1143,8 @@
       <c r="O15" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="P15" s="3">
-        <v>0</v>
+      <c r="P15" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="Q15" s="3">
         <v>0</v>
@@ -1132,8 +1155,11 @@
       <c r="S15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1150,47 +1176,48 @@
       <c r="Q16" s="3"/>
       <c r="R16" s="3"/>
       <c r="S16" s="3"/>
-    </row>
-    <row r="17" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T16" s="3"/>
+    </row>
+    <row r="17" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>26500</v>
+      </c>
+      <c r="E17" s="3">
         <v>28000</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>25500</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>22600</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>24400</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>24800</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>23600</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>23500</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>19000</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>35200</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>66100</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>30400</v>
       </c>
-      <c r="O17" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="P17" s="3" t="s">
         <v>3</v>
       </c>
@@ -1203,47 +1230,50 @@
       <c r="S17" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="18" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T17" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="18" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>-16100</v>
+      </c>
+      <c r="E18" s="3">
         <v>-17000</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>-14800</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>-10400</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>-14600</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>-14300</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>-14600</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>-13600</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>-11100</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>-19800</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>-42700</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>-21900</v>
       </c>
-      <c r="O18" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="P18" s="3" t="s">
         <v>3</v>
       </c>
@@ -1256,8 +1286,11 @@
       <c r="S18" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="19" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T18" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="19" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1277,47 +1310,48 @@
       <c r="Q19" s="3"/>
       <c r="R19" s="3"/>
       <c r="S19" s="3"/>
-    </row>
-    <row r="20" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T19" s="3"/>
+    </row>
+    <row r="20" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
+        <v>-900</v>
+      </c>
+      <c r="E20" s="3">
         <v>-700</v>
       </c>
-      <c r="E20" s="3">
+      <c r="F20" s="3">
         <v>-500</v>
       </c>
-      <c r="F20" s="3">
+      <c r="G20" s="3">
         <v>-400</v>
       </c>
-      <c r="G20" s="3">
+      <c r="H20" s="3">
         <v>-900</v>
       </c>
-      <c r="H20" s="3">
+      <c r="I20" s="3">
         <v>-800</v>
       </c>
-      <c r="I20" s="3">
+      <c r="J20" s="3">
         <v>-900</v>
       </c>
-      <c r="J20" s="3">
+      <c r="K20" s="3">
         <v>-200</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>-1600</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>-2300</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>-3900</v>
       </c>
-      <c r="N20" s="3">
+      <c r="O20" s="3">
         <v>-1700</v>
       </c>
-      <c r="O20" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="P20" s="3" t="s">
         <v>3</v>
       </c>
@@ -1330,47 +1364,50 @@
       <c r="S20" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="21" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T20" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="21" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>-16400</v>
+      </c>
+      <c r="E21" s="3">
         <v>-17200</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
         <v>-14900</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>-10400</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>-15100</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>-14700</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>-15100</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>-13200</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>-12200</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>-21000</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>-43100</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>-21700</v>
       </c>
-      <c r="O21" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="P21" s="3" t="s">
         <v>3</v>
       </c>
@@ -1383,8 +1420,11 @@
       <c r="S21" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="22" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T21" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="22" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1436,47 +1476,50 @@
       <c r="S22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>-17000</v>
+      </c>
+      <c r="E23" s="3">
         <v>-17700</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>-15400</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>-10900</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>-15500</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>-15100</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>-15500</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>-13700</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>-12700</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>-22100</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>-46700</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>-23500</v>
       </c>
-      <c r="O23" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="P23" s="3" t="s">
         <v>3</v>
       </c>
@@ -1489,19 +1532,22 @@
       <c r="S23" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="24" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T23" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="24" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
         <v>0</v>
       </c>
-      <c r="E24" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="F24" s="3">
-        <v>0</v>
+      <c r="E24" s="3">
+        <v>0</v>
+      </c>
+      <c r="F24" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="G24" s="3">
         <v>0</v>
@@ -1515,23 +1561,23 @@
       <c r="J24" s="3">
         <v>0</v>
       </c>
-      <c r="K24" s="3" t="s">
-        <v>3</v>
+      <c r="K24" s="3">
+        <v>0</v>
       </c>
       <c r="L24" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="M24" s="3">
-        <v>0</v>
-      </c>
-      <c r="N24" s="3" t="s">
-        <v>3</v>
+      <c r="M24" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N24" s="3">
+        <v>0</v>
       </c>
       <c r="O24" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="P24" s="3">
-        <v>0</v>
+      <c r="P24" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="Q24" s="3">
         <v>0</v>
@@ -1542,8 +1588,11 @@
       <c r="S24" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1595,47 +1644,50 @@
       <c r="S25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>-17000</v>
+      </c>
+      <c r="E26" s="3">
         <v>-17700</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>-15400</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>-10900</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>-15500</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>-15100</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>-15500</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>-13700</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>-12700</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>-22100</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>-46700</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>-23500</v>
       </c>
-      <c r="O26" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="P26" s="3" t="s">
         <v>3</v>
       </c>
@@ -1648,47 +1700,50 @@
       <c r="S26" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="27" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T26" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="27" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>-17000</v>
+      </c>
+      <c r="E27" s="3">
         <v>-17700</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>-15400</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>-10900</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>-15500</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>-15100</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>-15500</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>-13700</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>-12700</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>-22100</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>-46700</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>-23500</v>
       </c>
-      <c r="O27" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="P27" s="3" t="s">
         <v>3</v>
       </c>
@@ -1701,8 +1756,11 @@
       <c r="S27" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="28" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T27" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="28" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1754,8 +1812,11 @@
       <c r="S28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1786,11 +1847,11 @@
       <c r="L29" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="M29" s="3">
-        <v>0</v>
-      </c>
-      <c r="N29" s="3" t="s">
-        <v>3</v>
+      <c r="M29" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N29" s="3">
+        <v>0</v>
       </c>
       <c r="O29" s="3" t="s">
         <v>3</v>
@@ -1807,8 +1868,11 @@
       <c r="S29" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="30" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T29" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="30" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1860,8 +1924,11 @@
       <c r="S30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1913,47 +1980,50 @@
       <c r="S31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>900</v>
+      </c>
+      <c r="E32" s="3">
         <v>700</v>
       </c>
-      <c r="E32" s="3">
+      <c r="F32" s="3">
         <v>500</v>
       </c>
-      <c r="F32" s="3">
+      <c r="G32" s="3">
         <v>400</v>
       </c>
-      <c r="G32" s="3">
+      <c r="H32" s="3">
         <v>900</v>
       </c>
-      <c r="H32" s="3">
+      <c r="I32" s="3">
         <v>800</v>
       </c>
-      <c r="I32" s="3">
+      <c r="J32" s="3">
         <v>900</v>
       </c>
-      <c r="J32" s="3">
+      <c r="K32" s="3">
         <v>200</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>1600</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>2300</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>3900</v>
       </c>
-      <c r="N32" s="3">
+      <c r="O32" s="3">
         <v>1700</v>
       </c>
-      <c r="O32" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="P32" s="3" t="s">
         <v>3</v>
       </c>
@@ -1966,47 +2036,50 @@
       <c r="S32" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="33" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T32" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="33" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>-17000</v>
+      </c>
+      <c r="E33" s="3">
         <v>-17700</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>-15400</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>-10900</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>-15500</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>-15100</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>-15500</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>-13700</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>-12700</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>-22100</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>-46700</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>-23500</v>
       </c>
-      <c r="O33" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="P33" s="3" t="s">
         <v>3</v>
       </c>
@@ -2019,8 +2092,11 @@
       <c r="S33" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="34" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T33" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="34" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2072,47 +2148,50 @@
       <c r="S34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>-17000</v>
+      </c>
+      <c r="E35" s="3">
         <v>-17700</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>-15400</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>-10900</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>-15500</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>-15100</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>-15500</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>-13700</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>-12700</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>-22100</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>-46700</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>-23500</v>
       </c>
-      <c r="O35" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="P35" s="3" t="s">
         <v>3</v>
       </c>
@@ -2125,52 +2204,55 @@
       <c r="S35" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="37" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T35" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="37" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>45199</v>
+      </c>
+      <c r="E38" s="2">
         <v>45107</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>45016</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44926</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44834</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44742</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44651</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>44561</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>44469</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>44377</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>44196</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>44012</v>
       </c>
-      <c r="O38" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="P38" s="2" t="s">
         <v>3</v>
       </c>
@@ -2183,8 +2265,11 @@
       <c r="S38" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="39" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T38" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="39" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2204,8 +2289,9 @@
       <c r="Q39" s="3"/>
       <c r="R39" s="3"/>
       <c r="S39" s="3"/>
-    </row>
-    <row r="40" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T39" s="3"/>
+    </row>
+    <row r="40" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2225,41 +2311,42 @@
       <c r="Q40" s="3"/>
       <c r="R40" s="3"/>
       <c r="S40" s="3"/>
-    </row>
-    <row r="41" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T40" s="3"/>
+    </row>
+    <row r="41" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>12600</v>
+        <v>12100</v>
       </c>
       <c r="E41" s="3">
         <v>12600</v>
       </c>
       <c r="F41" s="3">
+        <v>12600</v>
+      </c>
+      <c r="G41" s="3">
         <v>17700</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>68500</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>17600</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>66100</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>84600</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>13700</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>25700</v>
       </c>
-      <c r="M41" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N41" s="3" t="s">
         <v>3</v>
       </c>
@@ -2278,29 +2365,32 @@
       <c r="S41" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="42" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T41" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="42" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
+        <v>43800</v>
+      </c>
+      <c r="E42" s="3">
         <v>53300</v>
       </c>
-      <c r="E42" s="3">
+      <c r="F42" s="3">
         <v>62300</v>
       </c>
-      <c r="F42" s="3">
+      <c r="G42" s="3">
         <v>73800</v>
       </c>
-      <c r="G42" s="3">
+      <c r="H42" s="3">
         <v>37100</v>
       </c>
-      <c r="H42" s="3">
+      <c r="I42" s="3">
         <v>34200</v>
       </c>
-      <c r="I42" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J42" s="3" t="s">
         <v>3</v>
       </c>
@@ -2316,8 +2406,8 @@
       <c r="N42" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="O42" s="3">
-        <v>0</v>
+      <c r="O42" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="P42" s="3">
         <v>0</v>
@@ -2331,41 +2421,44 @@
       <c r="S42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>5600</v>
+      </c>
+      <c r="E43" s="3">
         <v>6300</v>
       </c>
-      <c r="E43" s="3">
+      <c r="F43" s="3">
         <v>6400</v>
       </c>
-      <c r="F43" s="3">
+      <c r="G43" s="3">
         <v>5800</v>
       </c>
-      <c r="G43" s="3">
+      <c r="H43" s="3">
         <v>3300</v>
       </c>
-      <c r="H43" s="3">
+      <c r="I43" s="3">
         <v>3200</v>
       </c>
-      <c r="I43" s="3">
+      <c r="J43" s="3">
         <v>2700</v>
       </c>
-      <c r="J43" s="3">
+      <c r="K43" s="3">
         <v>2500</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>1900</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>2300</v>
       </c>
-      <c r="M43" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N43" s="3" t="s">
         <v>3</v>
       </c>
@@ -2384,41 +2477,44 @@
       <c r="S43" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="44" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T43" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="44" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
+        <v>11400</v>
+      </c>
+      <c r="E44" s="3">
         <v>13200</v>
       </c>
-      <c r="E44" s="3">
+      <c r="F44" s="3">
         <v>16000</v>
       </c>
-      <c r="F44" s="3">
+      <c r="G44" s="3">
         <v>15500</v>
       </c>
-      <c r="G44" s="3">
+      <c r="H44" s="3">
         <v>15200</v>
       </c>
-      <c r="H44" s="3">
+      <c r="I44" s="3">
         <v>12700</v>
       </c>
-      <c r="I44" s="3">
+      <c r="J44" s="3">
         <v>10100</v>
       </c>
-      <c r="J44" s="3">
+      <c r="K44" s="3">
         <v>8200</v>
       </c>
-      <c r="K44" s="3">
+      <c r="L44" s="3">
         <v>7200</v>
       </c>
-      <c r="L44" s="3">
+      <c r="M44" s="3">
         <v>5800</v>
       </c>
-      <c r="M44" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N44" s="3" t="s">
         <v>3</v>
       </c>
@@ -2437,41 +2533,44 @@
       <c r="S44" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="45" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T44" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="45" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>2500</v>
+      </c>
+      <c r="E45" s="3">
         <v>1900</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
         <v>9100</v>
       </c>
-      <c r="F45" s="3">
+      <c r="G45" s="3">
         <v>8400</v>
       </c>
-      <c r="G45" s="3">
+      <c r="H45" s="3">
         <v>2900</v>
-      </c>
-      <c r="H45" s="3">
-        <v>4000</v>
       </c>
       <c r="I45" s="3">
         <v>4000</v>
       </c>
       <c r="J45" s="3">
+        <v>4000</v>
+      </c>
+      <c r="K45" s="3">
         <v>3600</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>3400</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>800</v>
       </c>
-      <c r="M45" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N45" s="3" t="s">
         <v>3</v>
       </c>
@@ -2490,41 +2589,44 @@
       <c r="S45" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="46" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T45" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="46" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>75500</v>
+      </c>
+      <c r="E46" s="3">
         <v>87200</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>106400</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>121100</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>127000</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>71700</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>82900</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>98900</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>26300</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>34700</v>
       </c>
-      <c r="M46" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N46" s="3" t="s">
         <v>3</v>
       </c>
@@ -2543,8 +2645,11 @@
       <c r="S46" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="47" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T46" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="47" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -2596,41 +2701,44 @@
       <c r="S47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>3500</v>
+      </c>
+      <c r="E48" s="3">
         <v>6400</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>6800</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>5300</v>
       </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
         <v>4900</v>
       </c>
-      <c r="H48" s="3">
+      <c r="I48" s="3">
         <v>5000</v>
       </c>
-      <c r="I48" s="3">
+      <c r="J48" s="3">
         <v>4700</v>
       </c>
-      <c r="J48" s="3">
+      <c r="K48" s="3">
         <v>5100</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>5500</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>6000</v>
       </c>
-      <c r="M48" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N48" s="3" t="s">
         <v>3</v>
       </c>
@@ -2649,41 +2757,44 @@
       <c r="S48" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="49" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T48" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="49" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
+        <v>9200</v>
+      </c>
+      <c r="E49" s="3">
         <v>10400</v>
       </c>
-      <c r="E49" s="3">
+      <c r="F49" s="3">
         <v>10600</v>
       </c>
-      <c r="F49" s="3">
+      <c r="G49" s="3">
         <v>10700</v>
       </c>
-      <c r="G49" s="3">
+      <c r="H49" s="3">
         <v>10900</v>
       </c>
-      <c r="H49" s="3">
+      <c r="I49" s="3">
         <v>11100</v>
       </c>
-      <c r="I49" s="3">
+      <c r="J49" s="3">
         <v>11200</v>
       </c>
-      <c r="J49" s="3">
+      <c r="K49" s="3">
         <v>11400</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>11600</v>
       </c>
-      <c r="L49" s="3">
+      <c r="M49" s="3">
         <v>11700</v>
       </c>
-      <c r="M49" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N49" s="3" t="s">
         <v>3</v>
       </c>
@@ -2702,8 +2813,11 @@
       <c r="S49" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="50" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T49" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="50" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2755,8 +2869,11 @@
       <c r="S50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2808,8 +2925,11 @@
       <c r="S51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
@@ -2840,8 +2960,8 @@
       <c r="L52" s="3">
         <v>100</v>
       </c>
-      <c r="M52" s="3" t="s">
-        <v>3</v>
+      <c r="M52" s="3">
+        <v>100</v>
       </c>
       <c r="N52" s="3" t="s">
         <v>3</v>
@@ -2861,8 +2981,11 @@
       <c r="S52" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="53" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T52" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="53" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2914,41 +3037,44 @@
       <c r="S53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>88300</v>
+      </c>
+      <c r="E54" s="3">
         <v>104100</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>123900</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>137300</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>142900</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>87900</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>98900</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>115500</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>43400</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>52500</v>
       </c>
-      <c r="M54" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N54" s="3" t="s">
         <v>3</v>
       </c>
@@ -2967,8 +3093,11 @@
       <c r="S54" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="55" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T54" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="55" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2988,8 +3117,9 @@
       <c r="Q55" s="3"/>
       <c r="R55" s="3"/>
       <c r="S55" s="3"/>
-    </row>
-    <row r="56" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T55" s="3"/>
+    </row>
+    <row r="56" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3009,41 +3139,42 @@
       <c r="Q56" s="3"/>
       <c r="R56" s="3"/>
       <c r="S56" s="3"/>
-    </row>
-    <row r="57" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T56" s="3"/>
+    </row>
+    <row r="57" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>1000</v>
+      </c>
+      <c r="E57" s="3">
         <v>1100</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>5400</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>4400</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>2100</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>2400</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>2200</v>
       </c>
-      <c r="J57" s="3">
+      <c r="K57" s="3">
         <v>3100</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>2000</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>1100</v>
       </c>
-      <c r="M57" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N57" s="3" t="s">
         <v>3</v>
       </c>
@@ -3062,8 +3193,11 @@
       <c r="S57" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="58" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T57" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="58" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -3092,11 +3226,11 @@
         <v>0</v>
       </c>
       <c r="L58" s="3">
+        <v>0</v>
+      </c>
+      <c r="M58" s="3">
         <v>28800</v>
       </c>
-      <c r="M58" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N58" s="3" t="s">
         <v>3</v>
       </c>
@@ -3115,41 +3249,44 @@
       <c r="S58" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="59" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T58" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="59" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>10100</v>
+      </c>
+      <c r="E59" s="3">
         <v>10300</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>9800</v>
-      </c>
-      <c r="F59" s="3">
-        <v>12300</v>
       </c>
       <c r="G59" s="3">
         <v>12300</v>
       </c>
       <c r="H59" s="3">
+        <v>12300</v>
+      </c>
+      <c r="I59" s="3">
         <v>11900</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>9900</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>11600</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>10800</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>8800</v>
       </c>
-      <c r="M59" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N59" s="3" t="s">
         <v>3</v>
       </c>
@@ -3168,41 +3305,44 @@
       <c r="S59" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="60" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T59" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="60" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>11100</v>
+      </c>
+      <c r="E60" s="3">
         <v>11300</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>15200</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>16700</v>
-      </c>
-      <c r="G60" s="3">
-        <v>14300</v>
       </c>
       <c r="H60" s="3">
         <v>14300</v>
       </c>
       <c r="I60" s="3">
+        <v>14300</v>
+      </c>
+      <c r="J60" s="3">
         <v>12100</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>14700</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>12800</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>38700</v>
       </c>
-      <c r="M60" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N60" s="3" t="s">
         <v>3</v>
       </c>
@@ -3221,38 +3361,41 @@
       <c r="S60" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="61" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T60" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="61" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>37200</v>
+      </c>
+      <c r="E61" s="3">
         <v>37000</v>
       </c>
-      <c r="E61" s="3">
+      <c r="F61" s="3">
         <v>36900</v>
       </c>
-      <c r="F61" s="3">
+      <c r="G61" s="3">
         <v>36700</v>
       </c>
-      <c r="G61" s="3">
+      <c r="H61" s="3">
         <v>36600</v>
-      </c>
-      <c r="H61" s="3">
-        <v>26600</v>
       </c>
       <c r="I61" s="3">
         <v>26600</v>
       </c>
       <c r="J61" s="3">
+        <v>26600</v>
+      </c>
+      <c r="K61" s="3">
         <v>26500</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>26400</v>
       </c>
-      <c r="L61" s="3">
-        <v>0</v>
-      </c>
       <c r="M61" s="3">
         <v>0</v>
       </c>
@@ -3274,41 +3417,44 @@
       <c r="S61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>2300</v>
+      </c>
+      <c r="E62" s="3">
         <v>2700</v>
       </c>
-      <c r="E62" s="3">
+      <c r="F62" s="3">
         <v>3200</v>
       </c>
-      <c r="F62" s="3">
+      <c r="G62" s="3">
         <v>1900</v>
       </c>
-      <c r="G62" s="3">
+      <c r="H62" s="3">
         <v>1600</v>
       </c>
-      <c r="H62" s="3">
+      <c r="I62" s="3">
         <v>1900</v>
       </c>
-      <c r="I62" s="3">
+      <c r="J62" s="3">
         <v>2000</v>
       </c>
-      <c r="J62" s="3">
+      <c r="K62" s="3">
         <v>2300</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>10000</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>7400</v>
       </c>
-      <c r="M62" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N62" s="3" t="s">
         <v>3</v>
       </c>
@@ -3327,8 +3473,11 @@
       <c r="S62" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="63" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T62" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="63" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3380,8 +3529,11 @@
       <c r="S63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -3433,8 +3585,11 @@
       <c r="S64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3486,41 +3641,44 @@
       <c r="S65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>50500</v>
+      </c>
+      <c r="E66" s="3">
         <v>51100</v>
-      </c>
-      <c r="E66" s="3">
-        <v>55300</v>
       </c>
       <c r="F66" s="3">
         <v>55300</v>
       </c>
       <c r="G66" s="3">
+        <v>55300</v>
+      </c>
+      <c r="H66" s="3">
         <v>52600</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>42900</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>40700</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>43400</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>49100</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>46100</v>
       </c>
-      <c r="M66" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N66" s="3" t="s">
         <v>3</v>
       </c>
@@ -3539,8 +3697,11 @@
       <c r="S66" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="67" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T66" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="67" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3560,8 +3721,9 @@
       <c r="Q67" s="3"/>
       <c r="R67" s="3"/>
       <c r="S67" s="3"/>
-    </row>
-    <row r="68" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T67" s="3"/>
+    </row>
+    <row r="68" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3613,8 +3775,11 @@
       <c r="S68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -3666,8 +3831,11 @@
       <c r="S69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -3693,13 +3861,13 @@
         <v>0</v>
       </c>
       <c r="K70" s="3">
-        <v>281300</v>
+        <v>0</v>
       </c>
       <c r="L70" s="3">
         <v>281300</v>
       </c>
       <c r="M70" s="3">
-        <v>0</v>
+        <v>281300</v>
       </c>
       <c r="N70" s="3">
         <v>0</v>
@@ -3719,8 +3887,11 @@
       <c r="S70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3772,41 +3943,44 @@
       <c r="S71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-419100</v>
+      </c>
+      <c r="E72" s="3">
         <v>-402200</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>-384500</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>-369100</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>-358200</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>-342700</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>-327600</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>-312000</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>-298300</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>-285600</v>
       </c>
-      <c r="M72" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N72" s="3" t="s">
         <v>3</v>
       </c>
@@ -3825,8 +3999,11 @@
       <c r="S72" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="73" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T72" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="73" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -3878,8 +4055,11 @@
       <c r="S73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3931,8 +4111,11 @@
       <c r="S74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3984,41 +4167,44 @@
       <c r="S75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>37800</v>
+      </c>
+      <c r="E76" s="3">
         <v>53000</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>68600</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>82000</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>90400</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>45000</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>58200</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>72100</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>-287100</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>-275000</v>
       </c>
-      <c r="M76" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N76" s="3" t="s">
         <v>3</v>
       </c>
@@ -4037,8 +4223,11 @@
       <c r="S76" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="77" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T76" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="77" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -4090,52 +4279,55 @@
       <c r="S77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>45199</v>
+      </c>
+      <c r="E80" s="2">
         <v>45107</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>45016</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44926</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44834</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44742</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44651</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>44561</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>44469</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>44377</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>44196</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>44012</v>
       </c>
-      <c r="O80" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="P80" s="2" t="s">
         <v>3</v>
       </c>
@@ -4148,47 +4340,50 @@
       <c r="S80" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="81" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T80" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="81" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>-17000</v>
+      </c>
+      <c r="E81" s="3">
         <v>-17700</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>-15400</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>-10900</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>-15500</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>-15100</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>-15500</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>-13700</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>-12700</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>-22100</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>-46700</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>-23500</v>
       </c>
-      <c r="O81" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="P81" s="3" t="s">
         <v>3</v>
       </c>
@@ -4201,8 +4396,11 @@
       <c r="S81" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="82" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T81" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="82" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -4222,13 +4420,14 @@
       <c r="Q82" s="3"/>
       <c r="R82" s="3"/>
       <c r="S82" s="3"/>
-    </row>
-    <row r="83" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T82" s="3"/>
+    </row>
+    <row r="83" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>500</v>
+        <v>600</v>
       </c>
       <c r="E83" s="3">
         <v>500</v>
@@ -4237,7 +4436,7 @@
         <v>500</v>
       </c>
       <c r="G83" s="3">
-        <v>400</v>
+        <v>500</v>
       </c>
       <c r="H83" s="3">
         <v>400</v>
@@ -4246,23 +4445,23 @@
         <v>400</v>
       </c>
       <c r="J83" s="3">
-        <v>500</v>
+        <v>400</v>
       </c>
       <c r="K83" s="3">
         <v>500</v>
       </c>
       <c r="L83" s="3">
+        <v>500</v>
+      </c>
+      <c r="M83" s="3">
         <v>1000</v>
       </c>
-      <c r="M83" s="3">
+      <c r="N83" s="3">
         <v>3600</v>
       </c>
-      <c r="N83" s="3">
+      <c r="O83" s="3">
         <v>1900</v>
       </c>
-      <c r="O83" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="P83" s="3" t="s">
         <v>3</v>
       </c>
@@ -4275,8 +4474,11 @@
       <c r="S83" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="84" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T83" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="84" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -4328,8 +4530,11 @@
       <c r="S84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -4381,8 +4586,11 @@
       <c r="S85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -4434,8 +4642,11 @@
       <c r="S86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -4487,8 +4698,11 @@
       <c r="S87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -4540,47 +4754,50 @@
       <c r="S88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>-10200</v>
+      </c>
+      <c r="E89" s="3">
         <v>-9400</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>-17000</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>-14200</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>-15300</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>-13500</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>-18000</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>-14700</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>-10000</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>-23900</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>-38500</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>-23500</v>
       </c>
-      <c r="O89" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="P89" s="3" t="s">
         <v>3</v>
       </c>
@@ -4593,8 +4810,11 @@
       <c r="S89" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="90" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T89" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="90" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -4614,47 +4834,48 @@
       <c r="Q90" s="3"/>
       <c r="R90" s="3"/>
       <c r="S90" s="3"/>
-    </row>
-    <row r="91" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T90" s="3"/>
+    </row>
+    <row r="91" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-200</v>
+      </c>
+      <c r="E91" s="3">
         <v>-400</v>
       </c>
-      <c r="E91" s="3">
+      <c r="F91" s="3">
         <v>-200</v>
       </c>
-      <c r="F91" s="3">
+      <c r="G91" s="3">
         <v>-300</v>
       </c>
-      <c r="G91" s="3">
+      <c r="H91" s="3">
         <v>-200</v>
       </c>
-      <c r="H91" s="3">
+      <c r="I91" s="3">
         <v>-700</v>
       </c>
-      <c r="I91" s="3">
+      <c r="J91" s="3">
         <v>-100</v>
       </c>
-      <c r="J91" s="3">
+      <c r="K91" s="3">
         <v>-200</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-300</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-200</v>
       </c>
-      <c r="M91" s="3">
+      <c r="N91" s="3">
         <v>-900</v>
       </c>
-      <c r="N91" s="3">
+      <c r="O91" s="3">
         <v>-400</v>
       </c>
-      <c r="O91" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="P91" s="3" t="s">
         <v>3</v>
       </c>
@@ -4667,8 +4888,11 @@
       <c r="S91" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="92" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T91" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="92" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -4720,8 +4944,11 @@
       <c r="S92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -4773,47 +5000,50 @@
       <c r="S93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>9800</v>
+      </c>
+      <c r="E94" s="3">
         <v>9200</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
         <v>12000</v>
       </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
         <v>-36400</v>
       </c>
-      <c r="G94" s="3">
+      <c r="H94" s="3">
         <v>-2900</v>
       </c>
-      <c r="H94" s="3">
+      <c r="I94" s="3">
         <v>-35000</v>
       </c>
-      <c r="I94" s="3">
+      <c r="J94" s="3">
         <v>-100</v>
       </c>
-      <c r="J94" s="3">
+      <c r="K94" s="3">
         <v>-200</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-300</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>-1500</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>-900</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>-400</v>
       </c>
-      <c r="O94" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="P94" s="3" t="s">
         <v>3</v>
       </c>
@@ -4826,8 +5056,11 @@
       <c r="S94" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="95" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T94" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="95" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -4847,8 +5080,9 @@
       <c r="Q95" s="3"/>
       <c r="R95" s="3"/>
       <c r="S95" s="3"/>
-    </row>
-    <row r="96" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T95" s="3"/>
+    </row>
+    <row r="96" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -4900,8 +5134,11 @@
       <c r="S96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -4953,8 +5190,11 @@
       <c r="S97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -5006,8 +5246,11 @@
       <c r="S98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -5059,46 +5302,49 @@
       <c r="S99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>-100</v>
+      </c>
+      <c r="E100" s="3">
         <v>100</v>
       </c>
-      <c r="E100" s="3">
-        <v>0</v>
-      </c>
       <c r="F100" s="3">
+        <v>0</v>
+      </c>
+      <c r="G100" s="3">
         <v>-200</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>69200</v>
       </c>
-      <c r="H100" s="3">
-        <v>0</v>
-      </c>
       <c r="I100" s="3">
+        <v>0</v>
+      </c>
+      <c r="J100" s="3">
         <v>-500</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>85800</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>-1700</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>-600</v>
-      </c>
-      <c r="M100" s="3">
-        <v>-1000</v>
       </c>
       <c r="N100" s="3">
         <v>-1000</v>
       </c>
-      <c r="O100" s="3" t="s">
-        <v>3</v>
+      <c r="O100" s="3">
+        <v>-1000</v>
       </c>
       <c r="P100" s="3" t="s">
         <v>3</v>
@@ -5112,8 +5358,11 @@
       <c r="S100" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="101" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T100" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="101" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -5165,47 +5414,50 @@
       <c r="S101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>-500</v>
+      </c>
+      <c r="E102" s="3">
         <v>-100</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>-5000</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>-50800</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>50900</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>-48500</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>-18600</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>70900</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>-12000</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>-26000</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>-40400</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>-24800</v>
       </c>
-      <c r="O102" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="P102" s="3" t="s">
         <v>3</v>
       </c>
@@ -5216,6 +5468,9 @@
         <v>3</v>
       </c>
       <c r="S102" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="T102" s="3" t="s">
         <v>3</v>
       </c>
     </row>
